--- a/MSFT Models.xlsx
+++ b/MSFT Models.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4294C6-CA1B-4280-A586-FFDAF8AB425C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE79FDB-B056-4323-8AF4-D4D6F989FA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A6FAC41-C2C4-48E5-AA85-8063DD4A5C11}"/>
   </bookViews>
   <sheets>
-    <sheet name="Financial Statements" sheetId="1" r:id="rId1"/>
-    <sheet name="DCF Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Historicals" sheetId="2" r:id="rId1"/>
+    <sheet name="DCF Model" sheetId="1" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="tgr">'DCF Model'!$E$16</definedName>
+    <definedName name="wacc">'DCF Model'!$E$14</definedName>
+    <definedName name="y">'DCF Model'!$E$14</definedName>
+    <definedName name="yurt">'DCF Model'!$E$14</definedName>
+  </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,29 +45,248 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{11A6B691-AF8E-4406-AAEC-11A9D57DE8C7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>FactSet Estimates</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t xml:space="preserve">Financial Statement Model for </t>
-  </si>
-  <si>
-    <t>$ in thousands except per share</t>
-  </si>
-  <si>
-    <t>Company Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="68">
   <si>
     <t>Ticker</t>
   </si>
   <si>
-    <t>Circ Break</t>
+    <t>Implied Share Price</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Current Share Price</t>
+  </si>
+  <si>
+    <t>Year end</t>
+  </si>
+  <si>
+    <t>Implied Gain / (Loss)</t>
+  </si>
+  <si>
+    <t>MICROSOFT DCF</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>Switches</t>
+  </si>
+  <si>
+    <t>Conservative</t>
+  </si>
+  <si>
+    <t>Street / Base</t>
+  </si>
+  <si>
+    <t>Optimistic</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Revenue '24-'25</t>
+  </si>
+  <si>
+    <t>EBIT</t>
+  </si>
+  <si>
+    <t>Revenue 2028</t>
+  </si>
+  <si>
+    <t>WACC</t>
+  </si>
+  <si>
+    <t>EBIT '24-'25</t>
+  </si>
+  <si>
+    <t>TGR</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Income Statement (12/31 CYE)</t>
+  </si>
+  <si>
+    <t>% growth</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>% of sales</t>
+  </si>
+  <si>
+    <t>Cash Flow Items (12/31 CYE)</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>Change in NWC</t>
+  </si>
+  <si>
+    <t>% of change in sales</t>
+  </si>
+  <si>
+    <t>DCF</t>
+  </si>
+  <si>
+    <t>Conservative Case</t>
+  </si>
+  <si>
+    <t>Street Case</t>
+  </si>
+  <si>
+    <t>Optimistic Case</t>
+  </si>
+  <si>
+    <t>% of EBIT</t>
+  </si>
+  <si>
+    <t>EBIAT</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Present Value of FCF</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Discount Period</t>
+  </si>
+  <si>
+    <t>Terminal Value</t>
+  </si>
+  <si>
+    <t>Present Value of Terminal Value</t>
+  </si>
+  <si>
+    <t>Enterprise Value</t>
+  </si>
+  <si>
+    <t>(+) Cash</t>
+  </si>
+  <si>
+    <t>(-) Debt</t>
+  </si>
+  <si>
+    <t>Equity Value</t>
+  </si>
+  <si>
+    <t>Diluted Shares</t>
+  </si>
+  <si>
+    <t>Implied Stock Price</t>
+  </si>
+  <si>
+    <t>MICROSOFT HISTORICALS</t>
+  </si>
+  <si>
+    <t>Case Switches</t>
+  </si>
+  <si>
+    <t>Fiscal Year End</t>
+  </si>
+  <si>
+    <t>EBITDA</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>Tax Margin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conservative </t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+  </si>
+  <si>
+    <t>Interest Income</t>
+  </si>
+  <si>
+    <t>EBT</t>
+  </si>
+  <si>
+    <t>Tax Expense</t>
+  </si>
+  <si>
+    <t>Earnings</t>
+  </si>
+  <si>
+    <t>Income Statement ($m)</t>
+  </si>
+  <si>
+    <t>Balance Sheet ($m)</t>
+  </si>
+  <si>
+    <t>Margins</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0%;\(0%\)"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0&quot;E&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.0%_);\(0.0%\);@_)"/>
+  </numFmts>
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,16 +294,151 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -83,18 +446,206 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -104,6 +655,205 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="__FDSCACHE__"/>
+      <sheetName val="DCF"/>
+      <sheetName val="WACC"/>
+      <sheetName val="Taxes"/>
+      <sheetName val="Historicals"/>
+      <sheetName val="Estimates"/>
+      <sheetName val="CFS"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="15">
+          <cell r="F15">
+            <v>9705</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="45">
+          <cell r="W45">
+            <v>3.5950440635313753E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="10">
+          <cell r="C10">
+            <v>4646.0749999999998</v>
+          </cell>
+          <cell r="D10">
+            <v>4959.8379999999997</v>
+          </cell>
+          <cell r="E10">
+            <v>6652.6666670000004</v>
+          </cell>
+          <cell r="F10">
+            <v>9468</v>
+          </cell>
+          <cell r="G10">
+            <v>11951.333333</v>
+          </cell>
+          <cell r="H10">
+            <v>10618</v>
+          </cell>
+          <cell r="I10">
+            <v>16042.333333</v>
+          </cell>
+          <cell r="J10">
+            <v>26034</v>
+          </cell>
+          <cell r="K10">
+            <v>27504.666667000001</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>771.88367000000005</v>
+          </cell>
+          <cell r="D12">
+            <v>916.43499999999995</v>
+          </cell>
+          <cell r="E12">
+            <v>1829.3333299999999</v>
+          </cell>
+          <cell r="F12">
+            <v>3094.6666700000001</v>
+          </cell>
+          <cell r="G12">
+            <v>4063.6666700000001</v>
+          </cell>
+          <cell r="H12">
+            <v>2614</v>
+          </cell>
+          <cell r="I12">
+            <v>4437.3333300000004</v>
+          </cell>
+          <cell r="J12">
+            <v>9569.6666700000005</v>
+          </cell>
+          <cell r="K12">
+            <v>6149</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>-134.15733399999999</v>
+          </cell>
+          <cell r="D24">
+            <v>-91.348332999999997</v>
+          </cell>
+          <cell r="E24">
+            <v>-164</v>
+          </cell>
+          <cell r="F24">
+            <v>-471.33333299999998</v>
+          </cell>
+          <cell r="G24">
+            <v>-671</v>
+          </cell>
+          <cell r="H24">
+            <v>-508.33333399999998</v>
+          </cell>
+          <cell r="I24">
+            <v>-1082</v>
+          </cell>
+          <cell r="J24">
+            <v>-979.33333300000004</v>
+          </cell>
+          <cell r="K24">
+            <v>-1754.333333</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="5">
+          <cell r="K5">
+            <v>51794.5</v>
+          </cell>
+          <cell r="L5">
+            <v>77970.100000000006</v>
+          </cell>
+          <cell r="M5">
+            <v>93531.8</v>
+          </cell>
+          <cell r="N5">
+            <v>111484</v>
+          </cell>
+          <cell r="O5">
+            <v>139956</v>
+          </cell>
+          <cell r="P5">
+            <v>135485</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="K9">
+            <v>28181.8</v>
+          </cell>
+          <cell r="L9">
+            <v>45402.400000000001</v>
+          </cell>
+          <cell r="M9">
+            <v>54401</v>
+          </cell>
+          <cell r="N9">
+            <v>65999.600000000006</v>
+          </cell>
+          <cell r="O9">
+            <v>83947.3</v>
+          </cell>
+          <cell r="P9">
+            <v>81477.7</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="32">
+          <cell r="C32">
+            <v>-202.527008</v>
+          </cell>
+          <cell r="D32">
+            <v>-51</v>
+          </cell>
+          <cell r="E32">
+            <v>-679</v>
+          </cell>
+          <cell r="F32">
+            <v>185</v>
+          </cell>
+          <cell r="G32">
+            <v>-857</v>
+          </cell>
+          <cell r="H32">
+            <v>717</v>
+          </cell>
+          <cell r="I32">
+            <v>-703</v>
+          </cell>
+          <cell r="J32">
+            <v>-3363</v>
+          </cell>
+          <cell r="K32">
+            <v>-2207</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,41 +1152,1011 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5A53F4-E670-41A9-B096-B6E375EAE8AA}">
-  <dimension ref="C2:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE4A0FA-AB59-483B-85AC-2FAFADB2EC7A}">
+  <dimension ref="A2:U37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="2" spans="1:21" s="40" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C3" s="33"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="41" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="D5" s="5">
+        <v>45209</v>
+      </c>
+      <c r="F5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>4</v>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="5">
+        <v>45107</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7">
+        <v>2015</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" ref="G16:N16" si="0">F16+1</f>
+        <v>2016</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="K16" s="7">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="M16" s="7">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="N16" s="7">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="O16" s="12">
+        <f>N16+1</f>
+        <v>2024</v>
+      </c>
+      <c r="P16" s="12">
+        <f t="shared" ref="P16:S16" si="1">O16+1</f>
+        <v>2025</v>
+      </c>
+      <c r="Q16" s="12">
+        <f t="shared" si="1"/>
+        <v>2026</v>
+      </c>
+      <c r="R16" s="12">
+        <f t="shared" si="1"/>
+        <v>2027</v>
+      </c>
+      <c r="S16" s="12">
+        <f t="shared" si="1"/>
+        <v>2028</v>
+      </c>
+      <c r="U16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="47">
+        <v>93580</v>
+      </c>
+      <c r="G18" s="47">
+        <v>85320</v>
+      </c>
+      <c r="H18" s="47">
+        <v>89950</v>
+      </c>
+      <c r="I18" s="47">
+        <v>110360</v>
+      </c>
+      <c r="J18" s="47">
+        <v>125843</v>
+      </c>
+      <c r="K18" s="47">
+        <v>143015</v>
+      </c>
+      <c r="L18" s="47">
+        <v>168088</v>
+      </c>
+      <c r="M18" s="47">
+        <v>198270</v>
+      </c>
+      <c r="N18" s="47">
+        <v>211915</v>
+      </c>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="47">
+        <v>-33038</v>
+      </c>
+      <c r="G19" s="47">
+        <v>-32780</v>
+      </c>
+      <c r="H19" s="47">
+        <v>-34261</v>
+      </c>
+      <c r="I19" s="47">
+        <v>-38353</v>
+      </c>
+      <c r="J19" s="47">
+        <v>-42910</v>
+      </c>
+      <c r="K19" s="47">
+        <v>-46078</v>
+      </c>
+      <c r="L19" s="47">
+        <v>-52232</v>
+      </c>
+      <c r="M19" s="47">
+        <v>-62650</v>
+      </c>
+      <c r="N19" s="47">
+        <v>-65863</v>
+      </c>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="45">
+        <f>SUM(F18:F19)</f>
+        <v>60542</v>
+      </c>
+      <c r="G20" s="45">
+        <f>SUM(G18:G19)</f>
+        <v>52540</v>
+      </c>
+      <c r="H20" s="45">
+        <f>SUM(H18:H19)</f>
+        <v>55689</v>
+      </c>
+      <c r="I20" s="45">
+        <f>SUM(I18:I19)</f>
+        <v>72007</v>
+      </c>
+      <c r="J20" s="45">
+        <f>SUM(J18:J19)</f>
+        <v>82933</v>
+      </c>
+      <c r="K20" s="45">
+        <f>SUM(K18:K19)</f>
+        <v>96937</v>
+      </c>
+      <c r="L20" s="45">
+        <f>SUM(L18:L19)</f>
+        <v>115856</v>
+      </c>
+      <c r="M20" s="45">
+        <f>SUM(M18:M19)</f>
+        <v>135620</v>
+      </c>
+      <c r="N20" s="45">
+        <f>SUM(N18:N19)</f>
+        <v>146052</v>
+      </c>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="47">
+        <v>-12046</v>
+      </c>
+      <c r="G21" s="47">
+        <v>-11988</v>
+      </c>
+      <c r="H21" s="47">
+        <v>-13037</v>
+      </c>
+      <c r="I21" s="47">
+        <v>-14726</v>
+      </c>
+      <c r="J21" s="47">
+        <v>-16876</v>
+      </c>
+      <c r="K21" s="47">
+        <v>-19269</v>
+      </c>
+      <c r="L21" s="47">
+        <v>-20716</v>
+      </c>
+      <c r="M21" s="47">
+        <v>-24512</v>
+      </c>
+      <c r="N21" s="47">
+        <v>-27195</v>
+      </c>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="47">
+        <v>-30335</v>
+      </c>
+      <c r="G22" s="47">
+        <v>-20370</v>
+      </c>
+      <c r="H22" s="47">
+        <v>-20326</v>
+      </c>
+      <c r="I22" s="47">
+        <v>-22223</v>
+      </c>
+      <c r="J22" s="47">
+        <v>-23098</v>
+      </c>
+      <c r="K22" s="47">
+        <v>-24709</v>
+      </c>
+      <c r="L22" s="47">
+        <v>-25224</v>
+      </c>
+      <c r="M22" s="47">
+        <v>-27725</v>
+      </c>
+      <c r="N22" s="47">
+        <v>-30334</v>
+      </c>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="45">
+        <f>SUM(F20:F22)</f>
+        <v>18161</v>
+      </c>
+      <c r="G23" s="45">
+        <f t="shared" ref="G23:H23" si="2">SUM(G20:G22)</f>
+        <v>20182</v>
+      </c>
+      <c r="H23" s="45">
+        <f t="shared" si="2"/>
+        <v>22326</v>
+      </c>
+      <c r="I23" s="45">
+        <f t="shared" ref="I23" si="3">SUM(I20:I22)</f>
+        <v>35058</v>
+      </c>
+      <c r="J23" s="45">
+        <f t="shared" ref="J23" si="4">SUM(J20:J22)</f>
+        <v>42959</v>
+      </c>
+      <c r="K23" s="45">
+        <f t="shared" ref="K23" si="5">SUM(K20:K22)</f>
+        <v>52959</v>
+      </c>
+      <c r="L23" s="45">
+        <f t="shared" ref="L23" si="6">SUM(L20:L22)</f>
+        <v>69916</v>
+      </c>
+      <c r="M23" s="45">
+        <f t="shared" ref="M23" si="7">SUM(M20:M22)</f>
+        <v>83383</v>
+      </c>
+      <c r="N23" s="45">
+        <f t="shared" ref="N23" si="8">SUM(N20:N22)</f>
+        <v>88523</v>
+      </c>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="47">
+        <v>766</v>
+      </c>
+      <c r="G24" s="47">
+        <v>903</v>
+      </c>
+      <c r="H24" s="47">
+        <v>1387</v>
+      </c>
+      <c r="I24" s="47">
+        <v>2214</v>
+      </c>
+      <c r="J24" s="47">
+        <v>2762</v>
+      </c>
+      <c r="K24" s="47">
+        <v>2680</v>
+      </c>
+      <c r="L24" s="47">
+        <v>2131</v>
+      </c>
+      <c r="M24" s="47">
+        <v>2094</v>
+      </c>
+      <c r="N24" s="47">
+        <v>2994</v>
+      </c>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="47">
+        <v>-781</v>
+      </c>
+      <c r="G25" s="47">
+        <v>-1243</v>
+      </c>
+      <c r="H25" s="47">
+        <v>-2222</v>
+      </c>
+      <c r="I25" s="47">
+        <v>-2733</v>
+      </c>
+      <c r="J25" s="47">
+        <v>-2686</v>
+      </c>
+      <c r="K25" s="47">
+        <v>-2591</v>
+      </c>
+      <c r="L25" s="47">
+        <v>-2346</v>
+      </c>
+      <c r="M25" s="47">
+        <v>-2063</v>
+      </c>
+      <c r="N25" s="47">
+        <v>-1968</v>
+      </c>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="45">
+        <f>SUM(F23:F25)</f>
+        <v>18146</v>
+      </c>
+      <c r="G26" s="45">
+        <f t="shared" ref="G26:H26" si="9">SUM(G23:G25)</f>
+        <v>19842</v>
+      </c>
+      <c r="H26" s="45">
+        <f t="shared" si="9"/>
+        <v>21491</v>
+      </c>
+      <c r="I26" s="45">
+        <f t="shared" ref="I26" si="10">SUM(I23:I25)</f>
+        <v>34539</v>
+      </c>
+      <c r="J26" s="45">
+        <f t="shared" ref="J26" si="11">SUM(J23:J25)</f>
+        <v>43035</v>
+      </c>
+      <c r="K26" s="45">
+        <f t="shared" ref="K26" si="12">SUM(K23:K25)</f>
+        <v>53048</v>
+      </c>
+      <c r="L26" s="45">
+        <f t="shared" ref="L26" si="13">SUM(L23:L25)</f>
+        <v>69701</v>
+      </c>
+      <c r="M26" s="45">
+        <f t="shared" ref="M26" si="14">SUM(M23:M25)</f>
+        <v>83414</v>
+      </c>
+      <c r="N26" s="45">
+        <f t="shared" ref="N26" si="15">SUM(N23:N25)</f>
+        <v>89549</v>
+      </c>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="47">
+        <v>-6314</v>
+      </c>
+      <c r="G27" s="47">
+        <v>-2953</v>
+      </c>
+      <c r="H27" s="47">
+        <v>-1945</v>
+      </c>
+      <c r="I27" s="47">
+        <v>-19903</v>
+      </c>
+      <c r="J27" s="47">
+        <v>-4448</v>
+      </c>
+      <c r="K27" s="47">
+        <v>-8755</v>
+      </c>
+      <c r="L27" s="47">
+        <v>-9831</v>
+      </c>
+      <c r="M27" s="47">
+        <v>-10978</v>
+      </c>
+      <c r="N27" s="47">
+        <v>-16950</v>
+      </c>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="45">
+        <f>SUM(F26:F27)</f>
+        <v>11832</v>
+      </c>
+      <c r="G28" s="45">
+        <f t="shared" ref="G28:H28" si="16">SUM(G26:G27)</f>
+        <v>16889</v>
+      </c>
+      <c r="H28" s="45">
+        <f t="shared" si="16"/>
+        <v>19546</v>
+      </c>
+      <c r="I28" s="45">
+        <f t="shared" ref="I28" si="17">SUM(I26:I27)</f>
+        <v>14636</v>
+      </c>
+      <c r="J28" s="45">
+        <f t="shared" ref="J28" si="18">SUM(J26:J27)</f>
+        <v>38587</v>
+      </c>
+      <c r="K28" s="45">
+        <f t="shared" ref="K28" si="19">SUM(K26:K27)</f>
+        <v>44293</v>
+      </c>
+      <c r="L28" s="45">
+        <f t="shared" ref="L28" si="20">SUM(L26:L27)</f>
+        <v>59870</v>
+      </c>
+      <c r="M28" s="45">
+        <f t="shared" ref="M28" si="21">SUM(M26:M27)</f>
+        <v>72436</v>
+      </c>
+      <c r="N28" s="45">
+        <f t="shared" ref="N28" si="22">SUM(N26:N27)</f>
+        <v>72599</v>
+      </c>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="43"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="49">
+        <f>(G18-F18)/G18</f>
+        <v>-9.6812001875293013E-2</v>
+      </c>
+      <c r="H31" s="49">
+        <f>(H18-G18)/H18</f>
+        <v>5.1473040578098941E-2</v>
+      </c>
+      <c r="I31" s="49">
+        <f>(I18-H18)/I18</f>
+        <v>0.18494019572308806</v>
+      </c>
+      <c r="J31" s="49">
+        <f>(J18-I18)/J18</f>
+        <v>0.12303425697098766</v>
+      </c>
+      <c r="K31" s="49">
+        <f>(K18-J18)/K18</f>
+        <v>0.12007132119008496</v>
+      </c>
+      <c r="L31" s="49">
+        <f>(L18-K18)/L18</f>
+        <v>0.1491659130931417</v>
+      </c>
+      <c r="M31" s="49">
+        <f>(M18-L18)/M18</f>
+        <v>0.15222676148686135</v>
+      </c>
+      <c r="N31" s="49">
+        <f>(N18-M18)/N18</f>
+        <v>6.4389023901092413E-2</v>
+      </c>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="49">
+        <f>(G20-F20)/G20</f>
+        <v>-0.15230300723258469</v>
+      </c>
+      <c r="H32" s="49">
+        <f t="shared" ref="H32:N32" si="23">(H20-G20)/H20</f>
+        <v>5.6546176085043726E-2</v>
+      </c>
+      <c r="I32" s="49">
+        <f t="shared" si="23"/>
+        <v>0.22661685669448803</v>
+      </c>
+      <c r="J32" s="49">
+        <f t="shared" si="23"/>
+        <v>0.13174490251166604</v>
+      </c>
+      <c r="K32" s="49">
+        <f t="shared" si="23"/>
+        <v>0.14446496177929996</v>
+      </c>
+      <c r="L32" s="49">
+        <f t="shared" si="23"/>
+        <v>0.16329754177599778</v>
+      </c>
+      <c r="M32" s="49">
+        <f t="shared" si="23"/>
+        <v>0.14573071818315883</v>
+      </c>
+      <c r="N32" s="49">
+        <f t="shared" si="23"/>
+        <v>7.1426615178155725E-2</v>
+      </c>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="49">
+        <f>(G21-F21)/G21</f>
+        <v>-4.8381715048381718E-3</v>
+      </c>
+      <c r="H33" s="49">
+        <f t="shared" ref="H33:N33" si="24">(H21-G21)/H21</f>
+        <v>8.0463296770729456E-2</v>
+      </c>
+      <c r="I33" s="49">
+        <f t="shared" si="24"/>
+        <v>0.1146950971071574</v>
+      </c>
+      <c r="J33" s="49">
+        <f t="shared" si="24"/>
+        <v>0.12739985778620527</v>
+      </c>
+      <c r="K33" s="49">
+        <f t="shared" si="24"/>
+        <v>0.12418911204525404</v>
+      </c>
+      <c r="L33" s="49">
+        <f t="shared" si="24"/>
+        <v>6.9849391774473843E-2</v>
+      </c>
+      <c r="M33" s="49">
+        <f t="shared" si="24"/>
+        <v>0.15486292428198434</v>
+      </c>
+      <c r="N33" s="49">
+        <f t="shared" si="24"/>
+        <v>9.8657841514984371E-2</v>
+      </c>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="49">
+        <f>(G22-F22)/G22</f>
+        <v>-0.48919980363279331</v>
+      </c>
+      <c r="H34" s="49">
+        <f t="shared" ref="H34:N34" si="25">(H22-G22)/H22</f>
+        <v>-2.1647151431663878E-3</v>
+      </c>
+      <c r="I34" s="49">
+        <f t="shared" si="25"/>
+        <v>8.5362012329568471E-2</v>
+      </c>
+      <c r="J34" s="49">
+        <f t="shared" si="25"/>
+        <v>3.7882067711490171E-2</v>
+      </c>
+      <c r="K34" s="49">
+        <f t="shared" si="25"/>
+        <v>6.5198915374964583E-2</v>
+      </c>
+      <c r="L34" s="49">
+        <f t="shared" si="25"/>
+        <v>2.0417063114494132E-2</v>
+      </c>
+      <c r="M34" s="49">
+        <f t="shared" si="25"/>
+        <v>9.0207394048692519E-2</v>
+      </c>
+      <c r="N34" s="49">
+        <f t="shared" si="25"/>
+        <v>8.6009098701127454E-2</v>
+      </c>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B35" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="47"/>
+      <c r="G35" s="49">
+        <f>(G27/G26)*-1</f>
+        <v>0.14882572321338575</v>
+      </c>
+      <c r="H35" s="49">
+        <f>(H27/H26)*-1</f>
+        <v>9.0503001256339866E-2</v>
+      </c>
+      <c r="I35" s="49">
+        <f>(I27/I26)*-1</f>
+        <v>0.57624714091317064</v>
+      </c>
+      <c r="J35" s="49">
+        <f>(J27/J26)*-1</f>
+        <v>0.10335773207854072</v>
+      </c>
+      <c r="K35" s="49">
+        <f>(K27/K26)*-1</f>
+        <v>0.1650392097722817</v>
+      </c>
+      <c r="L35" s="49">
+        <f>(L27/L26)*-1</f>
+        <v>0.14104532216180543</v>
+      </c>
+      <c r="M35" s="49">
+        <f>(M27/M26)*-1</f>
+        <v>0.13160860287241949</v>
+      </c>
+      <c r="N35" s="49">
+        <f>(N27/N26)*-1</f>
+        <v>0.18928184569341924</v>
+      </c>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7">
+        <v>2015</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" ref="G37:N37" si="26">F37+1</f>
+        <v>2016</v>
+      </c>
+      <c r="H37" s="7">
+        <f t="shared" si="26"/>
+        <v>2017</v>
+      </c>
+      <c r="I37" s="7">
+        <f t="shared" si="26"/>
+        <v>2018</v>
+      </c>
+      <c r="J37" s="7">
+        <f t="shared" si="26"/>
+        <v>2019</v>
+      </c>
+      <c r="K37" s="7">
+        <f t="shared" si="26"/>
+        <v>2020</v>
+      </c>
+      <c r="L37" s="7">
+        <f t="shared" si="26"/>
+        <v>2021</v>
+      </c>
+      <c r="M37" s="7">
+        <f t="shared" si="26"/>
+        <v>2022</v>
+      </c>
+      <c r="N37" s="7">
+        <f t="shared" si="26"/>
+        <v>2023</v>
+      </c>
+      <c r="O37" s="12">
+        <f>N37+1</f>
+        <v>2024</v>
+      </c>
+      <c r="P37" s="12">
+        <f t="shared" ref="P37:S37" si="27">O37+1</f>
+        <v>2025</v>
+      </c>
+      <c r="Q37" s="12">
+        <f t="shared" si="27"/>
+        <v>2026</v>
+      </c>
+      <c r="R37" s="12">
+        <f t="shared" si="27"/>
+        <v>2027</v>
+      </c>
+      <c r="S37" s="12">
+        <f t="shared" si="27"/>
+        <v>2028</v>
       </c>
     </row>
   </sheetData>
@@ -445,13 +2165,2184 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE4A0FA-AB59-483B-85AC-2FAFADB2EC7A}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5A53F4-E670-41A9-B096-B6E375EAE8AA}">
+  <dimension ref="A2:S77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="e">
+        <f ca="1">S77</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>45209</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>410.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>45107</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="6" t="e">
+        <f ca="1">I4/I5-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="O10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="O11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="O12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c r="O15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="O16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="11"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7">
+        <v>2014</v>
+      </c>
+      <c r="F18" s="7">
+        <f>E18+1</f>
+        <v>2015</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" ref="G18:S18" si="0">F18+1</f>
+        <v>2016</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="K18" s="7">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="M18" s="7">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="N18" s="12">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="O18" s="12">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="P18" s="12">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="Q18" s="12">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="R18" s="12">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="S18" s="12">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="13">
+        <f>[1]Historicals!C10</f>
+        <v>4646.0749999999998</v>
+      </c>
+      <c r="F19" s="13">
+        <f>[1]Historicals!D10</f>
+        <v>4959.8379999999997</v>
+      </c>
+      <c r="G19" s="13">
+        <f>[1]Historicals!E10</f>
+        <v>6652.6666670000004</v>
+      </c>
+      <c r="H19" s="13">
+        <f>[1]Historicals!F10</f>
+        <v>9468</v>
+      </c>
+      <c r="I19" s="13">
+        <f>[1]Historicals!G10</f>
+        <v>11951.333333</v>
+      </c>
+      <c r="J19" s="13">
+        <f>[1]Historicals!H10</f>
+        <v>10618</v>
+      </c>
+      <c r="K19" s="13">
+        <f>[1]Historicals!I10</f>
+        <v>16042.333333</v>
+      </c>
+      <c r="L19" s="13">
+        <f>[1]Historicals!J10</f>
+        <v>26034</v>
+      </c>
+      <c r="M19" s="13">
+        <f>[1]Historicals!K10</f>
+        <v>27504.666667000001</v>
+      </c>
+      <c r="N19" s="14">
+        <f>[1]Estimates!K5</f>
+        <v>51794.5</v>
+      </c>
+      <c r="O19" s="14">
+        <f>[1]Estimates!L5</f>
+        <v>77970.100000000006</v>
+      </c>
+      <c r="P19" s="14">
+        <f>[1]Estimates!M5</f>
+        <v>93531.8</v>
+      </c>
+      <c r="Q19" s="15">
+        <f>[1]Estimates!N5</f>
+        <v>111484</v>
+      </c>
+      <c r="R19" s="15">
+        <f>[1]Estimates!O5</f>
+        <v>139956</v>
+      </c>
+      <c r="S19" s="15">
+        <f>[1]Estimates!P5</f>
+        <v>135485</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="18">
+        <f>F19/E19-1</f>
+        <v>6.7532917570207074E-2</v>
+      </c>
+      <c r="G20" s="18">
+        <f t="shared" ref="G20:S20" si="1">G19/F19-1</f>
+        <v>0.34130724975291549</v>
+      </c>
+      <c r="H20" s="18">
+        <f t="shared" si="1"/>
+        <v>0.42318869619084132</v>
+      </c>
+      <c r="I20" s="18">
+        <f t="shared" si="1"/>
+        <v>0.26228700179552189</v>
+      </c>
+      <c r="J20" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.11156356331543382</v>
+      </c>
+      <c r="K20" s="18">
+        <f t="shared" si="1"/>
+        <v>0.51086205810887186</v>
+      </c>
+      <c r="L20" s="18">
+        <f t="shared" si="1"/>
+        <v>0.62283125899438629</v>
+      </c>
+      <c r="M20" s="18">
+        <f t="shared" si="1"/>
+        <v>5.6490230736728986E-2</v>
+      </c>
+      <c r="N20" s="18">
+        <f t="shared" si="1"/>
+        <v>0.88311680439824602</v>
+      </c>
+      <c r="O20" s="18">
+        <f t="shared" si="1"/>
+        <v>0.50537412273503945</v>
+      </c>
+      <c r="P20" s="18">
+        <f t="shared" si="1"/>
+        <v>0.19958548212712302</v>
+      </c>
+      <c r="Q20" s="18">
+        <f t="shared" si="1"/>
+        <v>0.19193685997703458</v>
+      </c>
+      <c r="R20" s="18">
+        <f t="shared" si="1"/>
+        <v>0.25539090811237486</v>
+      </c>
+      <c r="S20" s="18">
+        <f t="shared" si="1"/>
+        <v>-3.1945754379947955E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="13">
+        <f>[1]Historicals!C12</f>
+        <v>771.88367000000005</v>
+      </c>
+      <c r="F22" s="13">
+        <f>[1]Historicals!D12</f>
+        <v>916.43499999999995</v>
+      </c>
+      <c r="G22" s="13">
+        <f>[1]Historicals!E12</f>
+        <v>1829.3333299999999</v>
+      </c>
+      <c r="H22" s="13">
+        <f>[1]Historicals!F12</f>
+        <v>3094.6666700000001</v>
+      </c>
+      <c r="I22" s="13">
+        <f>[1]Historicals!G12</f>
+        <v>4063.6666700000001</v>
+      </c>
+      <c r="J22" s="13">
+        <f>[1]Historicals!H12</f>
+        <v>2614</v>
+      </c>
+      <c r="K22" s="13">
+        <f>[1]Historicals!I12</f>
+        <v>4437.3333300000004</v>
+      </c>
+      <c r="L22" s="13">
+        <f>[1]Historicals!J12</f>
+        <v>9569.6666700000005</v>
+      </c>
+      <c r="M22" s="13">
+        <f>[1]Historicals!K12</f>
+        <v>6149</v>
+      </c>
+      <c r="N22" s="14">
+        <f>[1]Estimates!K9</f>
+        <v>28181.8</v>
+      </c>
+      <c r="O22" s="14">
+        <f>[1]Estimates!L9</f>
+        <v>45402.400000000001</v>
+      </c>
+      <c r="P22" s="14">
+        <f>[1]Estimates!M9</f>
+        <v>54401</v>
+      </c>
+      <c r="Q22" s="15">
+        <f>[1]Estimates!N9</f>
+        <v>65999.600000000006</v>
+      </c>
+      <c r="R22" s="15">
+        <f>[1]Estimates!O9</f>
+        <v>83947.3</v>
+      </c>
+      <c r="S22" s="15">
+        <f>[1]Estimates!P9</f>
+        <v>81477.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="18">
+        <f>E22/E19</f>
+        <v>0.16613672185662093</v>
+      </c>
+      <c r="F23" s="18">
+        <f t="shared" ref="F23:S23" si="2">F22/F19</f>
+        <v>0.18477115583210579</v>
+      </c>
+      <c r="G23" s="18">
+        <f t="shared" si="2"/>
+        <v>0.27497745213573616</v>
+      </c>
+      <c r="H23" s="18">
+        <f t="shared" si="2"/>
+        <v>0.32685537283481203</v>
+      </c>
+      <c r="I23" s="18">
+        <f t="shared" si="2"/>
+        <v>0.34001785045852673</v>
+      </c>
+      <c r="J23" s="18">
+        <f t="shared" si="2"/>
+        <v>0.24618572235825956</v>
+      </c>
+      <c r="K23" s="18">
+        <f t="shared" si="2"/>
+        <v>0.27660149168401527</v>
+      </c>
+      <c r="L23" s="18">
+        <f t="shared" si="2"/>
+        <v>0.36758341668587236</v>
+      </c>
+      <c r="M23" s="18">
+        <f t="shared" si="2"/>
+        <v>0.22356206219279681</v>
+      </c>
+      <c r="N23" s="18">
+        <f t="shared" si="2"/>
+        <v>0.54410796513143289</v>
+      </c>
+      <c r="O23" s="18">
+        <f t="shared" si="2"/>
+        <v>0.58230526830156681</v>
+      </c>
+      <c r="P23" s="18">
+        <f t="shared" si="2"/>
+        <v>0.581631060238336</v>
+      </c>
+      <c r="Q23" s="18">
+        <f t="shared" si="2"/>
+        <v>0.59200961572961153</v>
+      </c>
+      <c r="R23" s="18">
+        <f t="shared" si="2"/>
+        <v>0.59981208379776507</v>
+      </c>
+      <c r="S23" s="18">
+        <f t="shared" si="2"/>
+        <v>0.60137801232608779</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7">
+        <f>E18</f>
+        <v>2014</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" ref="F25:M25" si="3">F18</f>
+        <v>2015</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="3"/>
+        <v>2017</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="3"/>
+        <v>2018</v>
+      </c>
+      <c r="J25" s="7">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="K25" s="7">
+        <f t="shared" si="3"/>
+        <v>2020</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" si="3"/>
+        <v>2021</v>
+      </c>
+      <c r="M25" s="7">
+        <f t="shared" si="3"/>
+        <v>2022</v>
+      </c>
+      <c r="N25" s="12">
+        <f t="shared" ref="N25:S25" si="4">M25+1</f>
+        <v>2023</v>
+      </c>
+      <c r="O25" s="12">
+        <f t="shared" si="4"/>
+        <v>2024</v>
+      </c>
+      <c r="P25" s="12">
+        <f t="shared" si="4"/>
+        <v>2025</v>
+      </c>
+      <c r="Q25" s="12">
+        <f t="shared" si="4"/>
+        <v>2026</v>
+      </c>
+      <c r="R25" s="12">
+        <f t="shared" si="4"/>
+        <v>2027</v>
+      </c>
+      <c r="S25" s="12">
+        <f t="shared" si="4"/>
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="14">
+        <v>223</v>
+      </c>
+      <c r="F26" s="14">
+        <v>201</v>
+      </c>
+      <c r="G26" s="14">
+        <v>195</v>
+      </c>
+      <c r="H26" s="14">
+        <v>201</v>
+      </c>
+      <c r="I26" s="14">
+        <v>240</v>
+      </c>
+      <c r="J26" s="14">
+        <v>351</v>
+      </c>
+      <c r="K26" s="14">
+        <v>1017</v>
+      </c>
+      <c r="L26" s="14">
+        <v>1138</v>
+      </c>
+      <c r="M26" s="14">
+        <v>1552</v>
+      </c>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="18">
+        <f>E26/E19</f>
+        <v>4.7997503268888256E-2</v>
+      </c>
+      <c r="F27" s="18">
+        <f t="shared" ref="F27:M27" si="5">F26/F19</f>
+        <v>4.0525517164068665E-2</v>
+      </c>
+      <c r="G27" s="18">
+        <f t="shared" si="5"/>
+        <v>2.9311554262485641E-2</v>
+      </c>
+      <c r="H27" s="18">
+        <f t="shared" si="5"/>
+        <v>2.1229404309252218E-2</v>
+      </c>
+      <c r="I27" s="18">
+        <f t="shared" si="5"/>
+        <v>2.0081441401798444E-2</v>
+      </c>
+      <c r="J27" s="18">
+        <f t="shared" si="5"/>
+        <v>3.3057072895083819E-2</v>
+      </c>
+      <c r="K27" s="18">
+        <f t="shared" si="5"/>
+        <v>6.3394768010958391E-2</v>
+      </c>
+      <c r="L27" s="18">
+        <f t="shared" si="5"/>
+        <v>4.3712068833064457E-2</v>
+      </c>
+      <c r="M27" s="18">
+        <f t="shared" si="5"/>
+        <v>5.642678818071567E-2</v>
+      </c>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="13">
+        <f>-[1]Historicals!C24</f>
+        <v>134.15733399999999</v>
+      </c>
+      <c r="F29" s="13">
+        <f>-[1]Historicals!D24</f>
+        <v>91.348332999999997</v>
+      </c>
+      <c r="G29" s="13">
+        <f>-[1]Historicals!E24</f>
+        <v>164</v>
+      </c>
+      <c r="H29" s="13">
+        <f>-[1]Historicals!F24</f>
+        <v>471.33333299999998</v>
+      </c>
+      <c r="I29" s="13">
+        <f>-[1]Historicals!G24</f>
+        <v>671</v>
+      </c>
+      <c r="J29" s="13">
+        <f>-[1]Historicals!H24</f>
+        <v>508.33333399999998</v>
+      </c>
+      <c r="K29" s="13">
+        <f>-[1]Historicals!I24</f>
+        <v>1082</v>
+      </c>
+      <c r="L29" s="13">
+        <f>-[1]Historicals!J24</f>
+        <v>979.33333300000004</v>
+      </c>
+      <c r="M29" s="13">
+        <f>-[1]Historicals!K24</f>
+        <v>1754.333333</v>
+      </c>
+      <c r="N29" s="21"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="18">
+        <f t="shared" ref="E30:M30" si="6">E29/E19</f>
+        <v>2.887541290228849E-2</v>
+      </c>
+      <c r="F30" s="18">
+        <f t="shared" si="6"/>
+        <v>1.8417604163684379E-2</v>
+      </c>
+      <c r="G30" s="18">
+        <f t="shared" si="6"/>
+        <v>2.4651768713064848E-2</v>
+      </c>
+      <c r="H30" s="18">
+        <f t="shared" si="6"/>
+        <v>4.9781720849176168E-2</v>
+      </c>
+      <c r="I30" s="18">
+        <f t="shared" si="6"/>
+        <v>5.6144363252528147E-2</v>
+      </c>
+      <c r="J30" s="18">
+        <f t="shared" si="6"/>
+        <v>4.7874678282162367E-2</v>
+      </c>
+      <c r="K30" s="18">
+        <f t="shared" si="6"/>
+        <v>6.7446547677342164E-2</v>
+      </c>
+      <c r="L30" s="18">
+        <f t="shared" si="6"/>
+        <v>3.7617474571713917E-2</v>
+      </c>
+      <c r="M30" s="18">
+        <f t="shared" si="6"/>
+        <v>6.3783115579613359E-2</v>
+      </c>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="13">
+        <f>-(11/12)*[1]CFS!C32+(1/12)*[1]CFS!D32</f>
+        <v>181.39975733333333</v>
+      </c>
+      <c r="F32" s="13">
+        <f>-(11/12)*[1]CFS!D32+(1/12)*[1]CFS!E32</f>
+        <v>-9.8333333333333286</v>
+      </c>
+      <c r="G32" s="13">
+        <f>-(11/12)*[1]CFS!E32+(1/12)*[1]CFS!F32</f>
+        <v>637.83333333333326</v>
+      </c>
+      <c r="H32" s="13">
+        <f>-(11/12)*[1]CFS!F32+(1/12)*[1]CFS!G32</f>
+        <v>-240.99999999999997</v>
+      </c>
+      <c r="I32" s="13">
+        <f>-(11/12)*[1]CFS!G32+(1/12)*[1]CFS!H32</f>
+        <v>845.33333333333326</v>
+      </c>
+      <c r="J32" s="13">
+        <f>-(11/12)*[1]CFS!H32+(1/12)*[1]CFS!I32</f>
+        <v>-715.83333333333337</v>
+      </c>
+      <c r="K32" s="13">
+        <f>-(11/12)*[1]CFS!I32+(1/12)*[1]CFS!J32</f>
+        <v>364.16666666666663</v>
+      </c>
+      <c r="L32" s="13">
+        <f>-(11/12)*[1]CFS!J32+(1/12)*[1]CFS!K32</f>
+        <v>2898.8333333333335</v>
+      </c>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="18">
+        <f>E32/E19</f>
+        <v>3.9043656706646647E-2</v>
+      </c>
+      <c r="F33" s="18">
+        <f t="shared" ref="F33:L33" si="7">F32/F19</f>
+        <v>-1.9825916357214348E-3</v>
+      </c>
+      <c r="G33" s="18">
+        <f t="shared" si="7"/>
+        <v>9.5876340309856867E-2</v>
+      </c>
+      <c r="H33" s="18">
+        <f t="shared" si="7"/>
+        <v>-2.545416138572032E-2</v>
+      </c>
+      <c r="I33" s="18">
+        <f t="shared" si="7"/>
+        <v>7.0731299159667846E-2</v>
+      </c>
+      <c r="J33" s="18">
+        <f t="shared" si="7"/>
+        <v>-6.7416964902367052E-2</v>
+      </c>
+      <c r="K33" s="18">
+        <f t="shared" si="7"/>
+        <v>2.2700355310380872E-2</v>
+      </c>
+      <c r="L33" s="18">
+        <f t="shared" si="7"/>
+        <v>0.11134798084556094</v>
+      </c>
+      <c r="M33" s="18"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="F34" s="18">
+        <f>F32/(F19-E19)</f>
+        <v>-3.1340002910901957E-2</v>
+      </c>
+      <c r="G34" s="18">
+        <f t="shared" ref="G34:L34" si="8">G32/(G19-F19)</f>
+        <v>0.37678552222516976</v>
+      </c>
+      <c r="H34" s="18">
+        <f t="shared" si="8"/>
+        <v>-8.5602652153161582E-2</v>
+      </c>
+      <c r="I34" s="18">
+        <f t="shared" si="8"/>
+        <v>0.34040268460944995</v>
+      </c>
+      <c r="J34" s="18">
+        <f t="shared" si="8"/>
+        <v>0.53687500013421863</v>
+      </c>
+      <c r="K34" s="18">
+        <f t="shared" si="8"/>
+        <v>6.713574633239941E-2</v>
+      </c>
+      <c r="L34" s="18">
+        <f t="shared" si="8"/>
+        <v>0.29012510424386573</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <f>N35+1</f>
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <f t="shared" ref="P35:S36" si="9">O35+1</f>
+        <v>3</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7">
+        <f>E25</f>
+        <v>2014</v>
+      </c>
+      <c r="F36" s="7">
+        <f>E36+1</f>
+        <v>2015</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" ref="G36:O36" si="10">F36+1</f>
+        <v>2016</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="10"/>
+        <v>2017</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" si="10"/>
+        <v>2018</v>
+      </c>
+      <c r="J36" s="7">
+        <f t="shared" si="10"/>
+        <v>2019</v>
+      </c>
+      <c r="K36" s="7">
+        <f t="shared" si="10"/>
+        <v>2020</v>
+      </c>
+      <c r="L36" s="7">
+        <f t="shared" si="10"/>
+        <v>2021</v>
+      </c>
+      <c r="M36" s="7">
+        <f t="shared" si="10"/>
+        <v>2022</v>
+      </c>
+      <c r="N36" s="12">
+        <f t="shared" si="10"/>
+        <v>2023</v>
+      </c>
+      <c r="O36" s="12">
+        <f t="shared" si="10"/>
+        <v>2024</v>
+      </c>
+      <c r="P36" s="12">
+        <f t="shared" si="9"/>
+        <v>2025</v>
+      </c>
+      <c r="Q36" s="12">
+        <f t="shared" si="9"/>
+        <v>2026</v>
+      </c>
+      <c r="R36" s="12">
+        <f t="shared" si="9"/>
+        <v>2027</v>
+      </c>
+      <c r="S36" s="12">
+        <f t="shared" si="9"/>
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="22">
+        <f>E19</f>
+        <v>4646.0749999999998</v>
+      </c>
+      <c r="F37" s="22">
+        <f t="shared" ref="F37:M37" si="11">F19</f>
+        <v>4959.8379999999997</v>
+      </c>
+      <c r="G37" s="22">
+        <f t="shared" si="11"/>
+        <v>6652.6666670000004</v>
+      </c>
+      <c r="H37" s="22">
+        <f t="shared" si="11"/>
+        <v>9468</v>
+      </c>
+      <c r="I37" s="22">
+        <f t="shared" si="11"/>
+        <v>11951.333333</v>
+      </c>
+      <c r="J37" s="22">
+        <f t="shared" si="11"/>
+        <v>10618</v>
+      </c>
+      <c r="K37" s="22">
+        <f t="shared" si="11"/>
+        <v>16042.333333</v>
+      </c>
+      <c r="L37" s="22">
+        <f t="shared" si="11"/>
+        <v>26034</v>
+      </c>
+      <c r="M37" s="22">
+        <f t="shared" si="11"/>
+        <v>27504.666667000001</v>
+      </c>
+      <c r="N37" s="23">
+        <f ca="1">M37*(1+N38)</f>
+        <v>51794.5</v>
+      </c>
+      <c r="O37" s="23">
+        <f t="shared" ref="O37:S37" ca="1" si="12">N37*(1+O38)</f>
+        <v>77970.100000000006</v>
+      </c>
+      <c r="P37" s="23">
+        <f t="shared" ca="1" si="12"/>
+        <v>93531.8</v>
+      </c>
+      <c r="Q37" s="23">
+        <f t="shared" ca="1" si="12"/>
+        <v>107535.72293147843</v>
+      </c>
+      <c r="R37" s="23">
+        <f t="shared" ca="1" si="12"/>
+        <v>118274.43673158367</v>
+      </c>
+      <c r="S37" s="23">
+        <f t="shared" ca="1" si="12"/>
+        <v>124188.15856816286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B38" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="E38" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="18">
+        <f>F37/E37-1</f>
+        <v>6.7532917570207074E-2</v>
+      </c>
+      <c r="G38" s="18">
+        <f t="shared" ref="G38:M38" si="13">G37/F37-1</f>
+        <v>0.34130724975291549</v>
+      </c>
+      <c r="H38" s="18">
+        <f t="shared" si="13"/>
+        <v>0.42318869619084132</v>
+      </c>
+      <c r="I38" s="18">
+        <f t="shared" si="13"/>
+        <v>0.26228700179552189</v>
+      </c>
+      <c r="J38" s="18">
+        <f t="shared" si="13"/>
+        <v>-0.11156356331543382</v>
+      </c>
+      <c r="K38" s="18">
+        <f t="shared" si="13"/>
+        <v>0.51086205810887186</v>
+      </c>
+      <c r="L38" s="18">
+        <f t="shared" si="13"/>
+        <v>0.62283125899438629</v>
+      </c>
+      <c r="M38" s="18">
+        <f t="shared" si="13"/>
+        <v>5.6490230736728986E-2</v>
+      </c>
+      <c r="N38" s="18">
+        <f ca="1">OFFSET(N38,$E$10,0)</f>
+        <v>0.88311680439824602</v>
+      </c>
+      <c r="O38" s="18">
+        <f t="shared" ref="O38:S38" ca="1" si="14">OFFSET(O38,$E$10,0)</f>
+        <v>0.50537412273503945</v>
+      </c>
+      <c r="P38" s="18">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.19958548212712302</v>
+      </c>
+      <c r="Q38" s="18">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.14972365475141533</v>
+      </c>
+      <c r="R38" s="18">
+        <f t="shared" ca="1" si="14"/>
+        <v>9.9861827375707646E-2</v>
+      </c>
+      <c r="S38" s="18">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="N39" s="25">
+        <f>N40</f>
+        <v>0.88311680439824602</v>
+      </c>
+      <c r="O39" s="25">
+        <f>O40*$I$10</f>
+        <v>0</v>
+      </c>
+      <c r="P39" s="25">
+        <f>P40*$I$10</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="25">
+        <f>P39-($P$39-$S$39)/($S$36-$P$36)</f>
+        <v>0</v>
+      </c>
+      <c r="R39" s="25">
+        <f>Q39-($P$39-$S$39)/($S$36-$P$36)</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="25">
+        <f>I11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="N40" s="25">
+        <f>N20</f>
+        <v>0.88311680439824602</v>
+      </c>
+      <c r="O40" s="25">
+        <f t="shared" ref="O40:P40" si="15">O20</f>
+        <v>0.50537412273503945</v>
+      </c>
+      <c r="P40" s="25">
+        <f t="shared" si="15"/>
+        <v>0.19958548212712302</v>
+      </c>
+      <c r="Q40" s="25">
+        <f>P40-($P$40-$S$40)/($S$36-$P$36)</f>
+        <v>0.1330569880847487</v>
+      </c>
+      <c r="R40" s="25">
+        <f>Q40-($P$40-$S$40)/($S$36-$P$36)</f>
+        <v>6.6528494042374361E-2</v>
+      </c>
+      <c r="S40" s="25">
+        <f>M11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="N41" s="25">
+        <f>N40</f>
+        <v>0.88311680439824602</v>
+      </c>
+      <c r="O41" s="25">
+        <f>O40*$Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="25">
+        <f>P40*$Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="25">
+        <f>P41-($P$41-$S$41)/($S$36-$P$36)</f>
+        <v>0</v>
+      </c>
+      <c r="R41" s="25">
+        <f>Q41-($P$41-$S$41)/($S$36-$P$36)</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="25">
+        <f>Q11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="22">
+        <f>E22</f>
+        <v>771.88367000000005</v>
+      </c>
+      <c r="F43" s="22">
+        <f t="shared" ref="F43:M43" si="16">F22</f>
+        <v>916.43499999999995</v>
+      </c>
+      <c r="G43" s="22">
+        <f t="shared" si="16"/>
+        <v>1829.3333299999999</v>
+      </c>
+      <c r="H43" s="22">
+        <f t="shared" si="16"/>
+        <v>3094.6666700000001</v>
+      </c>
+      <c r="I43" s="22">
+        <f t="shared" si="16"/>
+        <v>4063.6666700000001</v>
+      </c>
+      <c r="J43" s="22">
+        <f t="shared" si="16"/>
+        <v>2614</v>
+      </c>
+      <c r="K43" s="22">
+        <f t="shared" si="16"/>
+        <v>4437.3333300000004</v>
+      </c>
+      <c r="L43" s="22">
+        <f t="shared" si="16"/>
+        <v>9569.6666700000005</v>
+      </c>
+      <c r="M43" s="22">
+        <f t="shared" si="16"/>
+        <v>6149</v>
+      </c>
+      <c r="N43" s="23">
+        <f ca="1">N44*N37</f>
+        <v>28181.8</v>
+      </c>
+      <c r="O43" s="23">
+        <f t="shared" ref="O43:S43" ca="1" si="17">O44*O37</f>
+        <v>45402.400000000001</v>
+      </c>
+      <c r="P43" s="23">
+        <f t="shared" ca="1" si="17"/>
+        <v>54400.999999999993</v>
+      </c>
+      <c r="Q43" s="23">
+        <f t="shared" ca="1" si="17"/>
+        <v>62546.116542131742</v>
+      </c>
+      <c r="R43" s="23">
+        <f t="shared" ca="1" si="17"/>
+        <v>68792.086035283006</v>
+      </c>
+      <c r="S43" s="23">
+        <f t="shared" ca="1" si="17"/>
+        <v>72231.690337047155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B44" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="E44" s="18">
+        <f>E43/E19</f>
+        <v>0.16613672185662093</v>
+      </c>
+      <c r="F44" s="18">
+        <f t="shared" ref="F44:M44" si="18">F43/F19</f>
+        <v>0.18477115583210579</v>
+      </c>
+      <c r="G44" s="18">
+        <f t="shared" si="18"/>
+        <v>0.27497745213573616</v>
+      </c>
+      <c r="H44" s="18">
+        <f t="shared" si="18"/>
+        <v>0.32685537283481203</v>
+      </c>
+      <c r="I44" s="18">
+        <f t="shared" si="18"/>
+        <v>0.34001785045852673</v>
+      </c>
+      <c r="J44" s="18">
+        <f t="shared" si="18"/>
+        <v>0.24618572235825956</v>
+      </c>
+      <c r="K44" s="18">
+        <f t="shared" si="18"/>
+        <v>0.27660149168401527</v>
+      </c>
+      <c r="L44" s="18">
+        <f t="shared" si="18"/>
+        <v>0.36758341668587236</v>
+      </c>
+      <c r="M44" s="18">
+        <f t="shared" si="18"/>
+        <v>0.22356206219279681</v>
+      </c>
+      <c r="N44" s="18">
+        <f ca="1">OFFSET(N44,$E$11,0)</f>
+        <v>0.54410796513143289</v>
+      </c>
+      <c r="O44" s="18">
+        <f t="shared" ref="O44:S44" ca="1" si="19">OFFSET(O44,$E$11,0)</f>
+        <v>0.58230526830156681</v>
+      </c>
+      <c r="P44" s="18">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.581631060238336</v>
+      </c>
+      <c r="Q44" s="18">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.581631060238336</v>
+      </c>
+      <c r="R44" s="18">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.581631060238336</v>
+      </c>
+      <c r="S44" s="18">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.581631060238336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="N45" s="25">
+        <f>N46</f>
+        <v>0.54410796513143289</v>
+      </c>
+      <c r="O45" s="25">
+        <f>O46*$I$12</f>
+        <v>0</v>
+      </c>
+      <c r="P45" s="25">
+        <f t="shared" ref="P45:S45" si="20">P46*$I$12</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="N46" s="25">
+        <f>N23</f>
+        <v>0.54410796513143289</v>
+      </c>
+      <c r="O46" s="25">
+        <f t="shared" ref="O46:P46" si="21">O23</f>
+        <v>0.58230526830156681</v>
+      </c>
+      <c r="P46" s="25">
+        <f t="shared" si="21"/>
+        <v>0.581631060238336</v>
+      </c>
+      <c r="Q46" s="25">
+        <f>P46</f>
+        <v>0.581631060238336</v>
+      </c>
+      <c r="R46" s="25">
+        <f t="shared" ref="R46:S46" si="22">Q46</f>
+        <v>0.581631060238336</v>
+      </c>
+      <c r="S46" s="25">
+        <f t="shared" si="22"/>
+        <v>0.581631060238336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="16"/>
+      <c r="N47" s="25">
+        <f>N46</f>
+        <v>0.54410796513143289</v>
+      </c>
+      <c r="O47" s="25">
+        <f>O46*$Q$12</f>
+        <v>0</v>
+      </c>
+      <c r="P47" s="25">
+        <f t="shared" ref="P47:S47" si="23">P46*$Q$12</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="N49" s="23">
+        <f ca="1">N50*N43</f>
+        <v>1013.1481278962851</v>
+      </c>
+      <c r="O49" s="23">
+        <f t="shared" ref="O49:S49" ca="1" si="24">O50*O43</f>
+        <v>1305.7890287206153</v>
+      </c>
+      <c r="P49" s="23">
+        <f t="shared" ca="1" si="24"/>
+        <v>1173.4439526010219</v>
+      </c>
+      <c r="Q49" s="23">
+        <f t="shared" ca="1" si="24"/>
+        <v>899.42417988692921</v>
+      </c>
+      <c r="R49" s="23">
+        <f t="shared" ca="1" si="24"/>
+        <v>494.62116103816771</v>
+      </c>
+      <c r="S49" s="23">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B50" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="16"/>
+      <c r="N50" s="25">
+        <f>[1]Taxes!W45</f>
+        <v>3.5950440635313753E-2</v>
+      </c>
+      <c r="O50" s="25">
+        <f>N50+($S$50-$N$50)/($S$36-$N$36)</f>
+        <v>2.8760352508251003E-2</v>
+      </c>
+      <c r="P50" s="25">
+        <f t="shared" ref="P50:R50" si="25">O50+($S$50-$N$50)/($S$36-$N$36)</f>
+        <v>2.1570264381188253E-2</v>
+      </c>
+      <c r="Q50" s="25">
+        <f t="shared" si="25"/>
+        <v>1.4380176254125503E-2</v>
+      </c>
+      <c r="R50" s="25">
+        <f t="shared" si="25"/>
+        <v>7.1900881270627525E-3</v>
+      </c>
+      <c r="S50" s="25">
+        <f>M14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B52" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="28">
+        <f ca="1">N43-N49</f>
+        <v>27168.651872103714</v>
+      </c>
+      <c r="O52" s="28">
+        <f t="shared" ref="O52:S52" ca="1" si="26">O43-O49</f>
+        <v>44096.610971279384</v>
+      </c>
+      <c r="P52" s="28">
+        <f t="shared" ca="1" si="26"/>
+        <v>53227.556047398968</v>
+      </c>
+      <c r="Q52" s="28">
+        <f t="shared" ca="1" si="26"/>
+        <v>61646.692362244816</v>
+      </c>
+      <c r="R52" s="28">
+        <f t="shared" ca="1" si="26"/>
+        <v>68297.464874244833</v>
+      </c>
+      <c r="S52" s="29">
+        <f t="shared" ca="1" si="26"/>
+        <v>72231.690337047155</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="22">
+        <f>E26</f>
+        <v>223</v>
+      </c>
+      <c r="F54" s="22">
+        <f t="shared" ref="F54:M54" si="27">F26</f>
+        <v>201</v>
+      </c>
+      <c r="G54" s="22">
+        <f t="shared" si="27"/>
+        <v>195</v>
+      </c>
+      <c r="H54" s="22">
+        <f t="shared" si="27"/>
+        <v>201</v>
+      </c>
+      <c r="I54" s="22">
+        <f t="shared" si="27"/>
+        <v>240</v>
+      </c>
+      <c r="J54" s="22">
+        <f t="shared" si="27"/>
+        <v>351</v>
+      </c>
+      <c r="K54" s="22">
+        <f t="shared" si="27"/>
+        <v>1017</v>
+      </c>
+      <c r="L54" s="22">
+        <f t="shared" si="27"/>
+        <v>1138</v>
+      </c>
+      <c r="M54" s="22">
+        <f t="shared" si="27"/>
+        <v>1552</v>
+      </c>
+      <c r="N54" s="23">
+        <f ca="1">N55*N$37</f>
+        <v>2823.3807804479393</v>
+      </c>
+      <c r="O54" s="23">
+        <f t="shared" ref="O54:S54" ca="1" si="28">O55*O$37</f>
+        <v>4250.2443655137877</v>
+      </c>
+      <c r="P54" s="23">
+        <f t="shared" ca="1" si="28"/>
+        <v>5098.5314363629459</v>
+      </c>
+      <c r="Q54" s="23">
+        <f t="shared" ca="1" si="28"/>
+        <v>5861.902196880189</v>
+      </c>
+      <c r="R54" s="23">
+        <f t="shared" ca="1" si="28"/>
+        <v>6447.2824621583204</v>
+      </c>
+      <c r="S54" s="23">
+        <f t="shared" ca="1" si="28"/>
+        <v>6769.6465852662368</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="18">
+        <f>E54/E37</f>
+        <v>4.7997503268888256E-2</v>
+      </c>
+      <c r="F55" s="18">
+        <f t="shared" ref="F55:M55" si="29">F54/F37</f>
+        <v>4.0525517164068665E-2</v>
+      </c>
+      <c r="G55" s="18">
+        <f t="shared" si="29"/>
+        <v>2.9311554262485641E-2</v>
+      </c>
+      <c r="H55" s="18">
+        <f t="shared" si="29"/>
+        <v>2.1229404309252218E-2</v>
+      </c>
+      <c r="I55" s="18">
+        <f t="shared" si="29"/>
+        <v>2.0081441401798444E-2</v>
+      </c>
+      <c r="J55" s="18">
+        <f t="shared" si="29"/>
+        <v>3.3057072895083819E-2</v>
+      </c>
+      <c r="K55" s="18">
+        <f t="shared" si="29"/>
+        <v>6.3394768010958391E-2</v>
+      </c>
+      <c r="L55" s="18">
+        <f t="shared" si="29"/>
+        <v>4.3712068833064457E-2</v>
+      </c>
+      <c r="M55" s="18">
+        <f t="shared" si="29"/>
+        <v>5.642678818071567E-2</v>
+      </c>
+      <c r="N55" s="25">
+        <f>AVERAGE(K55:M55)</f>
+        <v>5.4511208341579499E-2</v>
+      </c>
+      <c r="O55" s="25">
+        <f>N55</f>
+        <v>5.4511208341579499E-2</v>
+      </c>
+      <c r="P55" s="25">
+        <f t="shared" ref="P55:S55" si="30">O55</f>
+        <v>5.4511208341579499E-2</v>
+      </c>
+      <c r="Q55" s="25">
+        <f t="shared" si="30"/>
+        <v>5.4511208341579499E-2</v>
+      </c>
+      <c r="R55" s="25">
+        <f t="shared" si="30"/>
+        <v>5.4511208341579499E-2</v>
+      </c>
+      <c r="S55" s="25">
+        <f t="shared" si="30"/>
+        <v>5.4511208341579499E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="22">
+        <f>E29</f>
+        <v>134.15733399999999</v>
+      </c>
+      <c r="F57" s="22">
+        <f t="shared" ref="F57:M57" si="31">F29</f>
+        <v>91.348332999999997</v>
+      </c>
+      <c r="G57" s="22">
+        <f t="shared" si="31"/>
+        <v>164</v>
+      </c>
+      <c r="H57" s="22">
+        <f t="shared" si="31"/>
+        <v>471.33333299999998</v>
+      </c>
+      <c r="I57" s="22">
+        <f t="shared" si="31"/>
+        <v>671</v>
+      </c>
+      <c r="J57" s="22">
+        <f t="shared" si="31"/>
+        <v>508.33333399999998</v>
+      </c>
+      <c r="K57" s="22">
+        <f t="shared" si="31"/>
+        <v>1082</v>
+      </c>
+      <c r="L57" s="22">
+        <f t="shared" si="31"/>
+        <v>979.33333300000004</v>
+      </c>
+      <c r="M57" s="22">
+        <f t="shared" si="31"/>
+        <v>1754.333333</v>
+      </c>
+      <c r="N57" s="23">
+        <f ca="1">N58*N$37</f>
+        <v>2915.1176934223399</v>
+      </c>
+      <c r="O57" s="23">
+        <f t="shared" ref="O57:S57" ca="1" si="32">O58*O$37</f>
+        <v>4388.3427404050472</v>
+      </c>
+      <c r="P57" s="23">
+        <f t="shared" ca="1" si="32"/>
+        <v>5264.1922419878483</v>
+      </c>
+      <c r="Q57" s="23">
+        <f t="shared" ca="1" si="32"/>
+        <v>6052.3663437723162</v>
+      </c>
+      <c r="R57" s="23">
+        <f t="shared" ca="1" si="32"/>
+        <v>6656.7667068086512</v>
+      </c>
+      <c r="S57" s="23">
+        <f t="shared" ca="1" si="32"/>
+        <v>6989.6050421490836</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B58" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="16"/>
+      <c r="E58" s="18">
+        <f>E57/E$37</f>
+        <v>2.887541290228849E-2</v>
+      </c>
+      <c r="F58" s="18">
+        <f t="shared" ref="F58:M58" si="33">F57/F$37</f>
+        <v>1.8417604163684379E-2</v>
+      </c>
+      <c r="G58" s="18">
+        <f t="shared" si="33"/>
+        <v>2.4651768713064848E-2</v>
+      </c>
+      <c r="H58" s="18">
+        <f t="shared" si="33"/>
+        <v>4.9781720849176168E-2</v>
+      </c>
+      <c r="I58" s="18">
+        <f t="shared" si="33"/>
+        <v>5.6144363252528147E-2</v>
+      </c>
+      <c r="J58" s="18">
+        <f t="shared" si="33"/>
+        <v>4.7874678282162367E-2</v>
+      </c>
+      <c r="K58" s="18">
+        <f t="shared" si="33"/>
+        <v>6.7446547677342164E-2</v>
+      </c>
+      <c r="L58" s="18">
+        <f t="shared" si="33"/>
+        <v>3.7617474571713917E-2</v>
+      </c>
+      <c r="M58" s="18">
+        <f t="shared" si="33"/>
+        <v>6.3783115579613359E-2</v>
+      </c>
+      <c r="N58" s="25">
+        <f>AVERAGE(K58:M58)</f>
+        <v>5.6282379276223149E-2</v>
+      </c>
+      <c r="O58" s="25">
+        <f>N58</f>
+        <v>5.6282379276223149E-2</v>
+      </c>
+      <c r="P58" s="25">
+        <f t="shared" ref="P58:S58" si="34">O58</f>
+        <v>5.6282379276223149E-2</v>
+      </c>
+      <c r="Q58" s="25">
+        <f t="shared" si="34"/>
+        <v>5.6282379276223149E-2</v>
+      </c>
+      <c r="R58" s="25">
+        <f t="shared" si="34"/>
+        <v>5.6282379276223149E-2</v>
+      </c>
+      <c r="S58" s="25">
+        <f t="shared" si="34"/>
+        <v>5.6282379276223149E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="30">
+        <f>E32</f>
+        <v>181.39975733333333</v>
+      </c>
+      <c r="F60" s="30">
+        <f t="shared" ref="F60:L60" si="35">F32</f>
+        <v>-9.8333333333333286</v>
+      </c>
+      <c r="G60" s="30">
+        <f t="shared" si="35"/>
+        <v>637.83333333333326</v>
+      </c>
+      <c r="H60" s="30">
+        <f t="shared" si="35"/>
+        <v>-240.99999999999997</v>
+      </c>
+      <c r="I60" s="30">
+        <f t="shared" si="35"/>
+        <v>845.33333333333326</v>
+      </c>
+      <c r="J60" s="30">
+        <f t="shared" si="35"/>
+        <v>-715.83333333333337</v>
+      </c>
+      <c r="K60" s="30">
+        <f t="shared" si="35"/>
+        <v>364.16666666666663</v>
+      </c>
+      <c r="L60" s="30">
+        <f t="shared" si="35"/>
+        <v>2898.8333333333335</v>
+      </c>
+      <c r="M60" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N60" s="23">
+        <f ca="1">N61*N$37</f>
+        <v>1150.379519464426</v>
+      </c>
+      <c r="O60" s="23">
+        <f t="shared" ref="O60:S60" ca="1" si="36">O61*O$37</f>
+        <v>1731.7515599261167</v>
+      </c>
+      <c r="P60" s="23">
+        <f t="shared" ca="1" si="36"/>
+        <v>2077.3840299383683</v>
+      </c>
+      <c r="Q60" s="23">
+        <f t="shared" ca="1" si="36"/>
+        <v>2388.4175592229644</v>
+      </c>
+      <c r="R60" s="23">
+        <f t="shared" ca="1" si="36"/>
+        <v>2626.9293012231969</v>
+      </c>
+      <c r="S60" s="23">
+        <f t="shared" ca="1" si="36"/>
+        <v>2758.2757662843574</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B61" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="16"/>
+      <c r="E61" s="18">
+        <f>E60/E$37</f>
+        <v>3.9043656706646647E-2</v>
+      </c>
+      <c r="F61" s="18">
+        <f t="shared" ref="F61:L61" si="37">F60/F$37</f>
+        <v>-1.9825916357214348E-3</v>
+      </c>
+      <c r="G61" s="18">
+        <f t="shared" si="37"/>
+        <v>9.5876340309856867E-2</v>
+      </c>
+      <c r="H61" s="18">
+        <f t="shared" si="37"/>
+        <v>-2.545416138572032E-2</v>
+      </c>
+      <c r="I61" s="18">
+        <f t="shared" si="37"/>
+        <v>7.0731299159667846E-2</v>
+      </c>
+      <c r="J61" s="18">
+        <f t="shared" si="37"/>
+        <v>-6.7416964902367052E-2</v>
+      </c>
+      <c r="K61" s="18">
+        <f t="shared" si="37"/>
+        <v>2.2700355310380872E-2</v>
+      </c>
+      <c r="L61" s="18">
+        <f t="shared" si="37"/>
+        <v>0.11134798084556094</v>
+      </c>
+      <c r="M61" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N61" s="25">
+        <f>AVERAGE(J61:L61)</f>
+        <v>2.2210457084524921E-2</v>
+      </c>
+      <c r="O61" s="25">
+        <f>N61</f>
+        <v>2.2210457084524921E-2</v>
+      </c>
+      <c r="P61" s="25">
+        <f t="shared" ref="P61:S61" si="38">O61</f>
+        <v>2.2210457084524921E-2</v>
+      </c>
+      <c r="Q61" s="25">
+        <f t="shared" si="38"/>
+        <v>2.2210457084524921E-2</v>
+      </c>
+      <c r="R61" s="25">
+        <f t="shared" si="38"/>
+        <v>2.2210457084524921E-2</v>
+      </c>
+      <c r="S61" s="25">
+        <f t="shared" si="38"/>
+        <v>2.2210457084524921E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B63" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="34">
+        <f ca="1">N52+N54-N57-N60</f>
+        <v>25926.535439664887</v>
+      </c>
+      <c r="O63" s="34">
+        <f t="shared" ref="O63:S63" ca="1" si="39">O52+O54-O57-O60</f>
+        <v>42226.761036462012</v>
+      </c>
+      <c r="P63" s="34">
+        <f t="shared" ca="1" si="39"/>
+        <v>50984.511211835699</v>
+      </c>
+      <c r="Q63" s="34">
+        <f t="shared" ca="1" si="39"/>
+        <v>59067.810656129725</v>
+      </c>
+      <c r="R63" s="34">
+        <f t="shared" ca="1" si="39"/>
+        <v>65461.051328371308</v>
+      </c>
+      <c r="S63" s="35">
+        <f t="shared" ca="1" si="39"/>
+        <v>69253.456113879962</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B64" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="37">
+        <f t="shared" ref="N64:S64" ca="1" si="40">N63/(1+wacc)^N67</f>
+        <v>25926.535439664887</v>
+      </c>
+      <c r="O64" s="37">
+        <f t="shared" ca="1" si="40"/>
+        <v>42226.761036462012</v>
+      </c>
+      <c r="P64" s="37">
+        <f t="shared" ca="1" si="40"/>
+        <v>50984.511211835699</v>
+      </c>
+      <c r="Q64" s="37">
+        <f t="shared" ca="1" si="40"/>
+        <v>59067.810656129725</v>
+      </c>
+      <c r="R64" s="37">
+        <f t="shared" ca="1" si="40"/>
+        <v>65461.051328371308</v>
+      </c>
+      <c r="S64" s="38">
+        <f t="shared" ca="1" si="40"/>
+        <v>69253.456113879962</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>39</v>
+      </c>
+      <c r="N66" s="39">
+        <f>YEARFRAC(D5,D6)</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="O66" s="39">
+        <f>N66+1</f>
+        <v>1.2777777777777777</v>
+      </c>
+      <c r="P66" s="39">
+        <f t="shared" ref="P66:S66" si="41">O66+1</f>
+        <v>2.2777777777777777</v>
+      </c>
+      <c r="Q66" s="39">
+        <f t="shared" si="41"/>
+        <v>3.2777777777777777</v>
+      </c>
+      <c r="R66" s="39">
+        <f t="shared" si="41"/>
+        <v>4.2777777777777777</v>
+      </c>
+      <c r="S66" s="39">
+        <f t="shared" si="41"/>
+        <v>5.2777777777777777</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>40</v>
+      </c>
+      <c r="N67" s="39">
+        <f>N66/2</f>
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="O67" s="39">
+        <f>N66+0.5</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="P67" s="39">
+        <f>O67+1</f>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="Q67" s="39">
+        <f>P67+1</f>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="R67" s="39">
+        <f>Q67+1</f>
+        <v>3.7777777777777777</v>
+      </c>
+      <c r="S67" s="39">
+        <f>R67+1</f>
+        <v>4.7777777777777777</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>41</v>
+      </c>
+      <c r="S69" s="23" t="e">
+        <f ca="1">(S63*(1+tgr))/(wacc-tgr)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>42</v>
+      </c>
+      <c r="S70" s="23" t="e">
+        <f ca="1">S69/(1+wacc)^S67</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>43</v>
+      </c>
+      <c r="S71" s="30" t="e">
+        <f ca="1">SUM(N64:S64,S70)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>44</v>
+      </c>
+      <c r="S72" s="23">
+        <f>5783+10240</f>
+        <v>16023</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>45</v>
+      </c>
+      <c r="S73" s="23">
+        <f>[1]WACC!F15</f>
+        <v>9705</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>46</v>
+      </c>
+      <c r="S74" s="30" t="e">
+        <f ca="1">S71+S72-S73</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>47</v>
+      </c>
+      <c r="S76" s="30">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>48</v>
+      </c>
+      <c r="S77" s="4" t="e">
+        <f ca="1">S74/S76</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MSFT Models.xlsx
+++ b/MSFT Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE79FDB-B056-4323-8AF4-D4D6F989FA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49D003D-7701-4823-8FBB-909980ABFAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A6FAC41-C2C4-48E5-AA85-8063DD4A5C11}"/>
   </bookViews>
@@ -48,6 +48,41 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Jovany Valdez</author>
+  </authors>
+  <commentList>
+    <comment ref="B54" authorId="0" shapeId="0" xr:uid="{0B4D796D-B945-4BF1-A618-6195F7D63FBF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jovany Valdez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+FIX LONG TERM DEBT
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>Author</author>
   </authors>
   <commentList>
@@ -69,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="108">
   <si>
     <t>Ticker</t>
   </si>
@@ -137,9 +172,6 @@
     <t>Taxes</t>
   </si>
   <si>
-    <t>Income Statement (12/31 CYE)</t>
-  </si>
-  <si>
     <t>% growth</t>
   </si>
   <si>
@@ -239,12 +271,6 @@
     <t>Tax Margin</t>
   </si>
   <si>
-    <t xml:space="preserve">Conservative </t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
     <t>COGS</t>
   </si>
   <si>
@@ -273,6 +299,135 @@
   </si>
   <si>
     <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Conservative  Case</t>
+  </si>
+  <si>
+    <t>Base Case</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Account Receivebles</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Other current assets</t>
+  </si>
+  <si>
+    <t>Property, plant, and equipment</t>
+  </si>
+  <si>
+    <t>Other non-current assets</t>
+  </si>
+  <si>
+    <t>Total assets</t>
+  </si>
+  <si>
+    <t>Accounts payable</t>
+  </si>
+  <si>
+    <t>Other current liabilities</t>
+  </si>
+  <si>
+    <t>Deferred revenue (current and non current)</t>
+  </si>
+  <si>
+    <t>Commercial paper / revolver</t>
+  </si>
+  <si>
+    <t>Long term debt (includes current portion)</t>
+  </si>
+  <si>
+    <t>Other non current liabilities</t>
+  </si>
+  <si>
+    <t>Total liabilities</t>
+  </si>
+  <si>
+    <t>Common stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retained earnings </t>
+  </si>
+  <si>
+    <t>Other comprehensive income</t>
+  </si>
+  <si>
+    <t>Total equity</t>
+  </si>
+  <si>
+    <t>Cashflow Statement</t>
+  </si>
+  <si>
+    <t>Net income</t>
+  </si>
+  <si>
+    <t>Depreciation and amortization</t>
+  </si>
+  <si>
+    <t>Stock based compensation</t>
+  </si>
+  <si>
+    <t>Decreases / (Increases) in working capital assets</t>
+  </si>
+  <si>
+    <t>Increases / (Decreases) in working capital liabilities</t>
+  </si>
+  <si>
+    <t>Other non current assets</t>
+  </si>
+  <si>
+    <t>Cash from operating activities</t>
+  </si>
+  <si>
+    <t>Capital expenditures</t>
+  </si>
+  <si>
+    <t>Cash from investing activities</t>
+  </si>
+  <si>
+    <t>Long term debt</t>
+  </si>
+  <si>
+    <t>Revolver</t>
+  </si>
+  <si>
+    <t>Share repurchases</t>
+  </si>
+  <si>
+    <t>Common dividends</t>
+  </si>
+  <si>
+    <t>Cash from financing activities</t>
+  </si>
+  <si>
+    <t>Net change in cash during period</t>
+  </si>
+  <si>
+    <t>Balance Check</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>Depreciation &amp; amortization</t>
+  </si>
+  <si>
+    <t>Adjusted EBITDA</t>
+  </si>
+  <si>
+    <t>Schedules</t>
+  </si>
+  <si>
+    <t>Plant, Property, and Equipment</t>
+  </si>
+  <si>
+    <t>Beginning</t>
   </si>
 </sst>
 </file>
@@ -284,7 +439,7 @@
     <numFmt numFmtId="165" formatCode="0%;\(0%\)"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0&quot;E&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.0%_);\(0.0%\);@_)"/>
+    <numFmt numFmtId="168" formatCode="0.0%_);\(0.0%\);@_)"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -391,13 +546,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -410,6 +558,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -438,7 +593,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -560,12 +715,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -625,15 +860,43 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,88 +957,6 @@
           <cell r="C10">
             <v>4646.0749999999998</v>
           </cell>
-          <cell r="D10">
-            <v>4959.8379999999997</v>
-          </cell>
-          <cell r="E10">
-            <v>6652.6666670000004</v>
-          </cell>
-          <cell r="F10">
-            <v>9468</v>
-          </cell>
-          <cell r="G10">
-            <v>11951.333333</v>
-          </cell>
-          <cell r="H10">
-            <v>10618</v>
-          </cell>
-          <cell r="I10">
-            <v>16042.333333</v>
-          </cell>
-          <cell r="J10">
-            <v>26034</v>
-          </cell>
-          <cell r="K10">
-            <v>27504.666667000001</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>771.88367000000005</v>
-          </cell>
-          <cell r="D12">
-            <v>916.43499999999995</v>
-          </cell>
-          <cell r="E12">
-            <v>1829.3333299999999</v>
-          </cell>
-          <cell r="F12">
-            <v>3094.6666700000001</v>
-          </cell>
-          <cell r="G12">
-            <v>4063.6666700000001</v>
-          </cell>
-          <cell r="H12">
-            <v>2614</v>
-          </cell>
-          <cell r="I12">
-            <v>4437.3333300000004</v>
-          </cell>
-          <cell r="J12">
-            <v>9569.6666700000005</v>
-          </cell>
-          <cell r="K12">
-            <v>6149</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>-134.15733399999999</v>
-          </cell>
-          <cell r="D24">
-            <v>-91.348332999999997</v>
-          </cell>
-          <cell r="E24">
-            <v>-164</v>
-          </cell>
-          <cell r="F24">
-            <v>-471.33333299999998</v>
-          </cell>
-          <cell r="G24">
-            <v>-671</v>
-          </cell>
-          <cell r="H24">
-            <v>-508.33333399999998</v>
-          </cell>
-          <cell r="I24">
-            <v>-1082</v>
-          </cell>
-          <cell r="J24">
-            <v>-979.33333300000004</v>
-          </cell>
-          <cell r="K24">
-            <v>-1754.333333</v>
-          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
@@ -824,15 +1005,6 @@
         <row r="32">
           <cell r="C32">
             <v>-202.527008</v>
-          </cell>
-          <cell r="D32">
-            <v>-51</v>
-          </cell>
-          <cell r="E32">
-            <v>-679</v>
-          </cell>
-          <cell r="F32">
-            <v>185</v>
           </cell>
           <cell r="G32">
             <v>-857</v>
@@ -1152,11 +1324,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE4A0FA-AB59-483B-85AC-2FAFADB2EC7A}">
-  <dimension ref="A2:U37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE4A0FA-AB59-483B-85AC-2FAFADB2EC7A}">
+  <dimension ref="A2:U88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,18 +1336,19 @@
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="51"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:21" s="40" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C3" s="33"/>
+      <c r="C3" s="51"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="41" t="s">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1200,7 +1373,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="5">
         <v>45107</v>
@@ -1211,6 +1384,2397 @@
       <c r="I6" s="5"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" ref="G16:N16" si="0">G16+1</f>
+        <v>2017</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="K16" s="7">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="M16" s="7">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="N16" s="52">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="O16" s="12">
+        <f>N16+1</f>
+        <v>2024</v>
+      </c>
+      <c r="P16" s="12">
+        <f t="shared" ref="P16:S16" si="1">O16+1</f>
+        <v>2025</v>
+      </c>
+      <c r="Q16" s="12">
+        <f t="shared" si="1"/>
+        <v>2026</v>
+      </c>
+      <c r="R16" s="12">
+        <f t="shared" si="1"/>
+        <v>2027</v>
+      </c>
+      <c r="S16" s="12">
+        <f t="shared" si="1"/>
+        <v>2028</v>
+      </c>
+      <c r="U16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43">
+        <v>85320</v>
+      </c>
+      <c r="H17" s="43">
+        <v>89950</v>
+      </c>
+      <c r="I17" s="43">
+        <v>110360</v>
+      </c>
+      <c r="J17" s="43">
+        <v>125843</v>
+      </c>
+      <c r="K17" s="43">
+        <v>143015</v>
+      </c>
+      <c r="L17" s="43">
+        <v>168088</v>
+      </c>
+      <c r="M17" s="43">
+        <v>198270</v>
+      </c>
+      <c r="N17" s="53">
+        <v>211915</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43">
+        <v>-32780</v>
+      </c>
+      <c r="H18" s="43">
+        <v>-34261</v>
+      </c>
+      <c r="I18" s="43">
+        <v>-38353</v>
+      </c>
+      <c r="J18" s="43">
+        <v>-42910</v>
+      </c>
+      <c r="K18" s="43">
+        <v>-46078</v>
+      </c>
+      <c r="L18" s="43">
+        <v>-52232</v>
+      </c>
+      <c r="M18" s="43">
+        <v>-62650</v>
+      </c>
+      <c r="N18" s="53">
+        <v>-65863</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42">
+        <f t="shared" ref="F19:N19" si="2">SUM(G17:G18)</f>
+        <v>52540</v>
+      </c>
+      <c r="H19" s="42">
+        <f t="shared" si="2"/>
+        <v>55689</v>
+      </c>
+      <c r="I19" s="42">
+        <f t="shared" si="2"/>
+        <v>72007</v>
+      </c>
+      <c r="J19" s="42">
+        <f t="shared" si="2"/>
+        <v>82933</v>
+      </c>
+      <c r="K19" s="42">
+        <f t="shared" si="2"/>
+        <v>96937</v>
+      </c>
+      <c r="L19" s="42">
+        <f t="shared" si="2"/>
+        <v>115856</v>
+      </c>
+      <c r="M19" s="42">
+        <f t="shared" si="2"/>
+        <v>135620</v>
+      </c>
+      <c r="N19" s="54">
+        <f t="shared" si="2"/>
+        <v>146052</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43">
+        <v>-11988</v>
+      </c>
+      <c r="H20" s="43">
+        <v>-13037</v>
+      </c>
+      <c r="I20" s="43">
+        <v>-14726</v>
+      </c>
+      <c r="J20" s="43">
+        <v>-16876</v>
+      </c>
+      <c r="K20" s="43">
+        <v>-19269</v>
+      </c>
+      <c r="L20" s="43">
+        <v>-20716</v>
+      </c>
+      <c r="M20" s="43">
+        <v>-24512</v>
+      </c>
+      <c r="N20" s="53">
+        <v>-27195</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43">
+        <v>-20370</v>
+      </c>
+      <c r="H21" s="43">
+        <v>-20326</v>
+      </c>
+      <c r="I21" s="43">
+        <v>-22223</v>
+      </c>
+      <c r="J21" s="43">
+        <v>-23098</v>
+      </c>
+      <c r="K21" s="43">
+        <v>-24709</v>
+      </c>
+      <c r="L21" s="43">
+        <v>-25224</v>
+      </c>
+      <c r="M21" s="43">
+        <v>-27725</v>
+      </c>
+      <c r="N21" s="53">
+        <v>-30334</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42">
+        <f t="shared" ref="G22:H22" si="3">SUM(G19:G21)</f>
+        <v>20182</v>
+      </c>
+      <c r="H22" s="42">
+        <f t="shared" si="3"/>
+        <v>22326</v>
+      </c>
+      <c r="I22" s="42">
+        <f t="shared" ref="I22" si="4">SUM(I19:I21)</f>
+        <v>35058</v>
+      </c>
+      <c r="J22" s="42">
+        <f t="shared" ref="J22" si="5">SUM(J19:J21)</f>
+        <v>42959</v>
+      </c>
+      <c r="K22" s="42">
+        <f t="shared" ref="K22" si="6">SUM(K19:K21)</f>
+        <v>52959</v>
+      </c>
+      <c r="L22" s="42">
+        <f t="shared" ref="L22" si="7">SUM(L19:L21)</f>
+        <v>69916</v>
+      </c>
+      <c r="M22" s="42">
+        <f t="shared" ref="M22" si="8">SUM(M19:M21)</f>
+        <v>83383</v>
+      </c>
+      <c r="N22" s="54">
+        <f t="shared" ref="N22" si="9">SUM(N19:N21)</f>
+        <v>88523</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43">
+        <v>903</v>
+      </c>
+      <c r="H23" s="43">
+        <v>1387</v>
+      </c>
+      <c r="I23" s="43">
+        <v>2214</v>
+      </c>
+      <c r="J23" s="43">
+        <v>2762</v>
+      </c>
+      <c r="K23" s="43">
+        <v>2680</v>
+      </c>
+      <c r="L23" s="43">
+        <v>2131</v>
+      </c>
+      <c r="M23" s="43">
+        <v>2094</v>
+      </c>
+      <c r="N23" s="53">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43">
+        <v>-1243</v>
+      </c>
+      <c r="H24" s="43">
+        <v>-2222</v>
+      </c>
+      <c r="I24" s="43">
+        <v>-2733</v>
+      </c>
+      <c r="J24" s="43">
+        <v>-2686</v>
+      </c>
+      <c r="K24" s="43">
+        <v>-2591</v>
+      </c>
+      <c r="L24" s="43">
+        <v>-2346</v>
+      </c>
+      <c r="M24" s="43">
+        <v>-2063</v>
+      </c>
+      <c r="N24" s="53">
+        <v>-1968</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42">
+        <f t="shared" ref="G25:H25" si="10">SUM(G22:G24)</f>
+        <v>19842</v>
+      </c>
+      <c r="H25" s="42">
+        <f t="shared" si="10"/>
+        <v>21491</v>
+      </c>
+      <c r="I25" s="42">
+        <f t="shared" ref="I25" si="11">SUM(I22:I24)</f>
+        <v>34539</v>
+      </c>
+      <c r="J25" s="42">
+        <f t="shared" ref="J25" si="12">SUM(J22:J24)</f>
+        <v>43035</v>
+      </c>
+      <c r="K25" s="42">
+        <f t="shared" ref="K25" si="13">SUM(K22:K24)</f>
+        <v>53048</v>
+      </c>
+      <c r="L25" s="42">
+        <f t="shared" ref="L25" si="14">SUM(L22:L24)</f>
+        <v>69701</v>
+      </c>
+      <c r="M25" s="42">
+        <f t="shared" ref="M25" si="15">SUM(M22:M24)</f>
+        <v>83414</v>
+      </c>
+      <c r="N25" s="54">
+        <f t="shared" ref="N25" si="16">SUM(N22:N24)</f>
+        <v>89549</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43">
+        <v>-2953</v>
+      </c>
+      <c r="H26" s="43">
+        <v>-1945</v>
+      </c>
+      <c r="I26" s="43">
+        <v>-19903</v>
+      </c>
+      <c r="J26" s="43">
+        <v>-4448</v>
+      </c>
+      <c r="K26" s="43">
+        <v>-8755</v>
+      </c>
+      <c r="L26" s="43">
+        <v>-9831</v>
+      </c>
+      <c r="M26" s="43">
+        <v>-10978</v>
+      </c>
+      <c r="N26" s="53">
+        <v>-16950</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42">
+        <f t="shared" ref="G27:H27" si="17">SUM(G25:G26)</f>
+        <v>16889</v>
+      </c>
+      <c r="H27" s="42">
+        <f t="shared" si="17"/>
+        <v>19546</v>
+      </c>
+      <c r="I27" s="42">
+        <f t="shared" ref="I27" si="18">SUM(I25:I26)</f>
+        <v>14636</v>
+      </c>
+      <c r="J27" s="42">
+        <f t="shared" ref="J27" si="19">SUM(J25:J26)</f>
+        <v>38587</v>
+      </c>
+      <c r="K27" s="42">
+        <f t="shared" ref="K27" si="20">SUM(K25:K26)</f>
+        <v>44293</v>
+      </c>
+      <c r="L27" s="42">
+        <f t="shared" ref="L27" si="21">SUM(L25:L26)</f>
+        <v>59870</v>
+      </c>
+      <c r="M27" s="42">
+        <f t="shared" ref="M27" si="22">SUM(M25:M26)</f>
+        <v>72436</v>
+      </c>
+      <c r="N27" s="54">
+        <f t="shared" ref="N27" si="23">SUM(N25:N26)</f>
+        <v>72599</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="41"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="55"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43">
+        <v>6622</v>
+      </c>
+      <c r="H29" s="43">
+        <v>8778</v>
+      </c>
+      <c r="I29" s="43">
+        <v>10261</v>
+      </c>
+      <c r="J29" s="43">
+        <v>11682</v>
+      </c>
+      <c r="K29" s="43">
+        <v>12796</v>
+      </c>
+      <c r="L29" s="43">
+        <v>11686</v>
+      </c>
+      <c r="M29" s="43">
+        <v>14460</v>
+      </c>
+      <c r="N29" s="43">
+        <v>13861</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42">
+        <f t="shared" ref="G30:N30" si="24">G29+G22</f>
+        <v>26804</v>
+      </c>
+      <c r="H30" s="42">
+        <f t="shared" si="24"/>
+        <v>31104</v>
+      </c>
+      <c r="I30" s="42">
+        <f t="shared" si="24"/>
+        <v>45319</v>
+      </c>
+      <c r="J30" s="42">
+        <f t="shared" si="24"/>
+        <v>54641</v>
+      </c>
+      <c r="K30" s="42">
+        <f t="shared" si="24"/>
+        <v>65755</v>
+      </c>
+      <c r="L30" s="42">
+        <f t="shared" si="24"/>
+        <v>81602</v>
+      </c>
+      <c r="M30" s="42">
+        <f t="shared" si="24"/>
+        <v>97843</v>
+      </c>
+      <c r="N30" s="54">
+        <f t="shared" si="24"/>
+        <v>102384</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43">
+        <v>2668</v>
+      </c>
+      <c r="H31" s="43">
+        <v>3266</v>
+      </c>
+      <c r="I31" s="43">
+        <v>3940</v>
+      </c>
+      <c r="J31" s="43">
+        <v>4652</v>
+      </c>
+      <c r="K31" s="43">
+        <v>5289</v>
+      </c>
+      <c r="L31" s="43">
+        <v>6118</v>
+      </c>
+      <c r="M31" s="43">
+        <v>7502</v>
+      </c>
+      <c r="N31" s="43">
+        <v>9611</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42">
+        <f t="shared" ref="G32:N32" si="25">G31+G30</f>
+        <v>29472</v>
+      </c>
+      <c r="H32" s="42">
+        <f t="shared" si="25"/>
+        <v>34370</v>
+      </c>
+      <c r="I32" s="42">
+        <f t="shared" si="25"/>
+        <v>49259</v>
+      </c>
+      <c r="J32" s="42">
+        <f t="shared" si="25"/>
+        <v>59293</v>
+      </c>
+      <c r="K32" s="42">
+        <f t="shared" si="25"/>
+        <v>71044</v>
+      </c>
+      <c r="L32" s="42">
+        <f t="shared" si="25"/>
+        <v>87720</v>
+      </c>
+      <c r="M32" s="42">
+        <f t="shared" si="25"/>
+        <v>105345</v>
+      </c>
+      <c r="N32" s="54">
+        <f t="shared" si="25"/>
+        <v>111995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="41"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="55"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="55"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="43"/>
+      <c r="G35" s="60">
+        <f t="shared" ref="G35:N35" si="26">(G17-F17)/G17</f>
+        <v>1</v>
+      </c>
+      <c r="H35" s="61">
+        <f t="shared" si="26"/>
+        <v>5.1473040578098941E-2</v>
+      </c>
+      <c r="I35" s="61">
+        <f t="shared" si="26"/>
+        <v>0.18494019572308806</v>
+      </c>
+      <c r="J35" s="61">
+        <f t="shared" si="26"/>
+        <v>0.12303425697098766</v>
+      </c>
+      <c r="K35" s="61">
+        <f t="shared" si="26"/>
+        <v>0.12007132119008496</v>
+      </c>
+      <c r="L35" s="61">
+        <f t="shared" si="26"/>
+        <v>0.1491659130931417</v>
+      </c>
+      <c r="M35" s="61">
+        <f t="shared" si="26"/>
+        <v>0.15222676148686135</v>
+      </c>
+      <c r="N35" s="62">
+        <f t="shared" si="26"/>
+        <v>6.4389023901092413E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="43"/>
+      <c r="G36" s="63">
+        <f>(G19-F19)/G19</f>
+        <v>1</v>
+      </c>
+      <c r="H36" s="50">
+        <f>(H19-G19)/H19</f>
+        <v>5.6546176085043726E-2</v>
+      </c>
+      <c r="I36" s="50">
+        <f>(I19-H19)/I19</f>
+        <v>0.22661685669448803</v>
+      </c>
+      <c r="J36" s="50">
+        <f>(J19-I19)/J19</f>
+        <v>0.13174490251166604</v>
+      </c>
+      <c r="K36" s="50">
+        <f>(K19-J19)/K19</f>
+        <v>0.14446496177929996</v>
+      </c>
+      <c r="L36" s="50">
+        <f>(L19-K19)/L19</f>
+        <v>0.16329754177599778</v>
+      </c>
+      <c r="M36" s="50">
+        <f>(M19-L19)/M19</f>
+        <v>0.14573071818315883</v>
+      </c>
+      <c r="N36" s="59">
+        <f>(N19-M19)/N19</f>
+        <v>7.1426615178155725E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="43"/>
+      <c r="G37" s="63">
+        <f>(G20-F20)/G20</f>
+        <v>1</v>
+      </c>
+      <c r="H37" s="50">
+        <f>(H20-G20)/H20</f>
+        <v>8.0463296770729456E-2</v>
+      </c>
+      <c r="I37" s="50">
+        <f>(I20-H20)/I20</f>
+        <v>0.1146950971071574</v>
+      </c>
+      <c r="J37" s="50">
+        <f>(J20-I20)/J20</f>
+        <v>0.12739985778620527</v>
+      </c>
+      <c r="K37" s="50">
+        <f>(K20-J20)/K20</f>
+        <v>0.12418911204525404</v>
+      </c>
+      <c r="L37" s="50">
+        <f>(L20-K20)/L20</f>
+        <v>6.9849391774473843E-2</v>
+      </c>
+      <c r="M37" s="50">
+        <f>(M20-L20)/M20</f>
+        <v>0.15486292428198434</v>
+      </c>
+      <c r="N37" s="59">
+        <f>(N20-M20)/N20</f>
+        <v>9.8657841514984371E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="43"/>
+      <c r="G38" s="63">
+        <f>(G21-F21)/G21</f>
+        <v>1</v>
+      </c>
+      <c r="H38" s="50">
+        <f>(H21-G21)/H21</f>
+        <v>-2.1647151431663878E-3</v>
+      </c>
+      <c r="I38" s="50">
+        <f>(I21-H21)/I21</f>
+        <v>8.5362012329568471E-2</v>
+      </c>
+      <c r="J38" s="50">
+        <f>(J21-I21)/J21</f>
+        <v>3.7882067711490171E-2</v>
+      </c>
+      <c r="K38" s="50">
+        <f>(K21-J21)/K21</f>
+        <v>6.5198915374964583E-2</v>
+      </c>
+      <c r="L38" s="50">
+        <f>(L21-K21)/L21</f>
+        <v>2.0417063114494132E-2</v>
+      </c>
+      <c r="M38" s="50">
+        <f>(M21-L21)/M21</f>
+        <v>9.0207394048692519E-2</v>
+      </c>
+      <c r="N38" s="59">
+        <f>(N21-M21)/N21</f>
+        <v>8.6009098701127454E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="43"/>
+      <c r="G39" s="64">
+        <f t="shared" ref="G39:N39" si="27">(G26/G25)*-1</f>
+        <v>0.14882572321338575</v>
+      </c>
+      <c r="H39" s="65">
+        <f t="shared" si="27"/>
+        <v>9.0503001256339866E-2</v>
+      </c>
+      <c r="I39" s="65">
+        <f t="shared" si="27"/>
+        <v>0.57624714091317064</v>
+      </c>
+      <c r="J39" s="65">
+        <f t="shared" si="27"/>
+        <v>0.10335773207854072</v>
+      </c>
+      <c r="K39" s="65">
+        <f t="shared" si="27"/>
+        <v>0.1650392097722817</v>
+      </c>
+      <c r="L39" s="65">
+        <f t="shared" si="27"/>
+        <v>0.14104532216180543</v>
+      </c>
+      <c r="M39" s="65">
+        <f t="shared" si="27"/>
+        <v>0.13160860287241949</v>
+      </c>
+      <c r="N39" s="66">
+        <f t="shared" si="27"/>
+        <v>0.18928184569341924</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" ref="H41:N41" si="28">G41+1</f>
+        <v>2017</v>
+      </c>
+      <c r="I41" s="7">
+        <f t="shared" si="28"/>
+        <v>2018</v>
+      </c>
+      <c r="J41" s="7">
+        <f t="shared" si="28"/>
+        <v>2019</v>
+      </c>
+      <c r="K41" s="7">
+        <f t="shared" si="28"/>
+        <v>2020</v>
+      </c>
+      <c r="L41" s="7">
+        <f t="shared" si="28"/>
+        <v>2021</v>
+      </c>
+      <c r="M41" s="7">
+        <f t="shared" si="28"/>
+        <v>2022</v>
+      </c>
+      <c r="N41" s="52">
+        <f t="shared" si="28"/>
+        <v>2023</v>
+      </c>
+      <c r="O41" s="12">
+        <f>N41+1</f>
+        <v>2024</v>
+      </c>
+      <c r="P41" s="12">
+        <f t="shared" ref="P41:S41" si="29">O41+1</f>
+        <v>2025</v>
+      </c>
+      <c r="Q41" s="12">
+        <f t="shared" si="29"/>
+        <v>2026</v>
+      </c>
+      <c r="R41" s="12">
+        <f t="shared" si="29"/>
+        <v>2027</v>
+      </c>
+      <c r="S41" s="12">
+        <f t="shared" si="29"/>
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="43">
+        <v>113240</v>
+      </c>
+      <c r="H42" s="23">
+        <f ca="1">G42+H84</f>
+        <v>132981</v>
+      </c>
+      <c r="I42" s="23">
+        <f t="shared" ref="I42:N42" ca="1" si="30">H42+I84</f>
+        <v>133768</v>
+      </c>
+      <c r="J42" s="23">
+        <f t="shared" ca="1" si="30"/>
+        <v>133819</v>
+      </c>
+      <c r="K42" s="23">
+        <f t="shared" ca="1" si="30"/>
+        <v>136527</v>
+      </c>
+      <c r="L42" s="23">
+        <f t="shared" ca="1" si="30"/>
+        <v>130334</v>
+      </c>
+      <c r="M42" s="23">
+        <f t="shared" ca="1" si="30"/>
+        <v>104757</v>
+      </c>
+      <c r="N42" s="23">
+        <f t="shared" ca="1" si="30"/>
+        <v>111262</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" s="43">
+        <v>18277</v>
+      </c>
+      <c r="H43" s="43">
+        <v>19792</v>
+      </c>
+      <c r="I43" s="43">
+        <v>26481</v>
+      </c>
+      <c r="J43" s="43">
+        <v>29524</v>
+      </c>
+      <c r="K43" s="43">
+        <v>32011</v>
+      </c>
+      <c r="L43" s="43">
+        <v>38043</v>
+      </c>
+      <c r="M43" s="43">
+        <v>44261</v>
+      </c>
+      <c r="N43" s="43">
+        <v>48688</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" s="43">
+        <v>2251</v>
+      </c>
+      <c r="H44" s="43">
+        <v>2181</v>
+      </c>
+      <c r="I44" s="43">
+        <v>2662</v>
+      </c>
+      <c r="J44" s="43">
+        <v>2063</v>
+      </c>
+      <c r="K44" s="43">
+        <v>1895</v>
+      </c>
+      <c r="L44" s="43">
+        <v>2636</v>
+      </c>
+      <c r="M44" s="43">
+        <v>3742</v>
+      </c>
+      <c r="N44" s="43">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="43">
+        <v>5892</v>
+      </c>
+      <c r="H45" s="43">
+        <v>4897</v>
+      </c>
+      <c r="I45" s="43">
+        <v>6751</v>
+      </c>
+      <c r="J45" s="43">
+        <v>10146</v>
+      </c>
+      <c r="K45" s="43">
+        <v>11482</v>
+      </c>
+      <c r="L45" s="43">
+        <v>13393</v>
+      </c>
+      <c r="M45" s="43">
+        <v>16924</v>
+      </c>
+      <c r="N45" s="43">
+        <v>21807</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" s="43">
+        <v>18356</v>
+      </c>
+      <c r="H46" s="43">
+        <v>23734</v>
+      </c>
+      <c r="I46" s="43">
+        <v>29460</v>
+      </c>
+      <c r="J46" s="43">
+        <v>36477</v>
+      </c>
+      <c r="K46" s="43">
+        <v>44151</v>
+      </c>
+      <c r="L46" s="43">
+        <v>59715</v>
+      </c>
+      <c r="M46" s="43">
+        <v>74398</v>
+      </c>
+      <c r="N46" s="43">
+        <v>95641</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="G47" s="43">
+        <v>35452</v>
+      </c>
+      <c r="H47" s="43">
+        <v>57501</v>
+      </c>
+      <c r="I47" s="43">
+        <v>59726</v>
+      </c>
+      <c r="J47" s="43">
+        <v>74527</v>
+      </c>
+      <c r="K47" s="43">
+        <v>75245</v>
+      </c>
+      <c r="L47" s="43">
+        <v>89658</v>
+      </c>
+      <c r="M47" s="43">
+        <v>120758</v>
+      </c>
+      <c r="N47" s="43">
+        <v>132078</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B48" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" s="49">
+        <f>SUM(G42:G47)</f>
+        <v>193468</v>
+      </c>
+      <c r="H48" s="49">
+        <f t="shared" ref="H48:S48" ca="1" si="31">SUM(H42:H47)</f>
+        <v>241086</v>
+      </c>
+      <c r="I48" s="49">
+        <f t="shared" ca="1" si="31"/>
+        <v>258848</v>
+      </c>
+      <c r="J48" s="49">
+        <f t="shared" ca="1" si="31"/>
+        <v>286556</v>
+      </c>
+      <c r="K48" s="49">
+        <f t="shared" ca="1" si="31"/>
+        <v>301311</v>
+      </c>
+      <c r="L48" s="49">
+        <f t="shared" ca="1" si="31"/>
+        <v>333779</v>
+      </c>
+      <c r="M48" s="49">
+        <f t="shared" ca="1" si="31"/>
+        <v>364840</v>
+      </c>
+      <c r="N48" s="56">
+        <f t="shared" ca="1" si="31"/>
+        <v>411976</v>
+      </c>
+      <c r="O48" s="49">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="49">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="49">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="49">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="49">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B50" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50" s="43">
+        <v>6898</v>
+      </c>
+      <c r="H50" s="43">
+        <v>7390</v>
+      </c>
+      <c r="I50" s="43">
+        <v>8617</v>
+      </c>
+      <c r="J50" s="43">
+        <v>9382</v>
+      </c>
+      <c r="K50" s="43">
+        <v>12530</v>
+      </c>
+      <c r="L50" s="43">
+        <v>15163</v>
+      </c>
+      <c r="M50" s="43">
+        <v>19000</v>
+      </c>
+      <c r="N50" s="43">
+        <v>18095</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B51" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="G51" s="43">
+        <v>24991</v>
+      </c>
+      <c r="H51" s="43">
+        <v>23035</v>
+      </c>
+      <c r="I51" s="43">
+        <v>20966</v>
+      </c>
+      <c r="J51" s="43">
+        <v>27362</v>
+      </c>
+      <c r="K51" s="43">
+        <v>23780</v>
+      </c>
+      <c r="L51" s="43">
+        <v>31969</v>
+      </c>
+      <c r="M51" s="43">
+        <v>27795</v>
+      </c>
+      <c r="N51" s="43">
+        <v>29906</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B52" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" s="43">
+        <v>33909</v>
+      </c>
+      <c r="H52" s="43">
+        <v>44479</v>
+      </c>
+      <c r="I52" s="43">
+        <v>32720</v>
+      </c>
+      <c r="J52" s="43">
+        <v>37206</v>
+      </c>
+      <c r="K52" s="43">
+        <v>39180</v>
+      </c>
+      <c r="L52" s="43">
+        <v>44141</v>
+      </c>
+      <c r="M52" s="43">
+        <v>48408</v>
+      </c>
+      <c r="N52" s="43">
+        <v>53813</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B53" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="43"/>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B54" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="G54" s="43">
+        <v>40557</v>
+      </c>
+      <c r="H54" s="43">
+        <v>76073</v>
+      </c>
+      <c r="I54" s="43">
+        <v>72242</v>
+      </c>
+      <c r="J54" s="43">
+        <v>66662</v>
+      </c>
+      <c r="K54" s="43">
+        <v>59578</v>
+      </c>
+      <c r="L54" s="43">
+        <v>50074</v>
+      </c>
+      <c r="M54" s="43">
+        <v>49781</v>
+      </c>
+      <c r="N54" s="43">
+        <v>47237</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B55" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="G55" s="43">
+        <v>15116</v>
+      </c>
+      <c r="H55" s="43">
+        <v>17715</v>
+      </c>
+      <c r="I55" s="43">
+        <v>41585</v>
+      </c>
+      <c r="J55" s="43">
+        <v>43614</v>
+      </c>
+      <c r="K55" s="43">
+        <v>47939</v>
+      </c>
+      <c r="L55" s="43">
+        <v>50444</v>
+      </c>
+      <c r="M55" s="43">
+        <v>53314</v>
+      </c>
+      <c r="N55" s="43">
+        <v>56702</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B56" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="G56" s="49">
+        <f>SUM(G50:G55)</f>
+        <v>121471</v>
+      </c>
+      <c r="H56" s="49">
+        <f>SUM(H50:H55)</f>
+        <v>168692</v>
+      </c>
+      <c r="I56" s="49">
+        <f>SUM(I50:I55)</f>
+        <v>176130</v>
+      </c>
+      <c r="J56" s="49">
+        <f>SUM(J50:J55)</f>
+        <v>184226</v>
+      </c>
+      <c r="K56" s="49">
+        <f>SUM(K50:K55)</f>
+        <v>183007</v>
+      </c>
+      <c r="L56" s="49">
+        <f>SUM(L50:L55)</f>
+        <v>191791</v>
+      </c>
+      <c r="M56" s="49">
+        <f>SUM(M50:M55)</f>
+        <v>198298</v>
+      </c>
+      <c r="N56" s="56">
+        <f>SUM(N50:N55)</f>
+        <v>205753</v>
+      </c>
+      <c r="O56" s="49">
+        <f>SUM(O50:O55)</f>
+        <v>0</v>
+      </c>
+      <c r="P56" s="49">
+        <f>SUM(P50:P55)</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="49">
+        <f>SUM(Q50:Q55)</f>
+        <v>0</v>
+      </c>
+      <c r="R56" s="49">
+        <f>SUM(R50:R55)</f>
+        <v>0</v>
+      </c>
+      <c r="S56" s="49">
+        <f>SUM(S50:S55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B58" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58" s="43">
+        <v>68178</v>
+      </c>
+      <c r="H58" s="43">
+        <v>69315</v>
+      </c>
+      <c r="I58" s="43">
+        <v>71223</v>
+      </c>
+      <c r="J58" s="43">
+        <v>78520</v>
+      </c>
+      <c r="K58" s="43">
+        <v>80552</v>
+      </c>
+      <c r="L58" s="43">
+        <v>83111</v>
+      </c>
+      <c r="M58" s="43">
+        <v>86939</v>
+      </c>
+      <c r="N58" s="43">
+        <v>93718</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B59" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="G59" s="43">
+        <v>2282</v>
+      </c>
+      <c r="H59" s="43">
+        <v>2648</v>
+      </c>
+      <c r="I59" s="43">
+        <v>13682</v>
+      </c>
+      <c r="J59" s="43">
+        <v>24150</v>
+      </c>
+      <c r="K59" s="43">
+        <v>34566</v>
+      </c>
+      <c r="L59" s="43">
+        <v>57055</v>
+      </c>
+      <c r="M59" s="43">
+        <v>84281</v>
+      </c>
+      <c r="N59" s="43">
+        <v>118848</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B60" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="G60" s="43">
+        <v>1537</v>
+      </c>
+      <c r="H60" s="43">
+        <v>431</v>
+      </c>
+      <c r="I60" s="43">
+        <v>-2187</v>
+      </c>
+      <c r="J60" s="43">
+        <v>-340</v>
+      </c>
+      <c r="K60" s="43">
+        <v>3186</v>
+      </c>
+      <c r="L60" s="43">
+        <v>1822</v>
+      </c>
+      <c r="M60" s="43">
+        <v>-4678</v>
+      </c>
+      <c r="N60" s="43">
+        <v>-6343</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B61" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="G61" s="49">
+        <f>SUM(G58:G60)</f>
+        <v>71997</v>
+      </c>
+      <c r="H61" s="49">
+        <f t="shared" ref="H61:S61" si="32">SUM(H58:H60)</f>
+        <v>72394</v>
+      </c>
+      <c r="I61" s="49">
+        <f t="shared" si="32"/>
+        <v>82718</v>
+      </c>
+      <c r="J61" s="49">
+        <f t="shared" si="32"/>
+        <v>102330</v>
+      </c>
+      <c r="K61" s="49">
+        <f t="shared" si="32"/>
+        <v>118304</v>
+      </c>
+      <c r="L61" s="49">
+        <f t="shared" si="32"/>
+        <v>141988</v>
+      </c>
+      <c r="M61" s="49">
+        <f t="shared" si="32"/>
+        <v>166542</v>
+      </c>
+      <c r="N61" s="56">
+        <f t="shared" si="32"/>
+        <v>206223</v>
+      </c>
+      <c r="O61" s="49">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="49">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="49">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R61" s="49">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="S61" s="49">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B63" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="G63" s="48">
+        <f>ROUND(G48-(G56+G61), 3)</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="48">
+        <f ca="1">ROUND(H48-(H56+H61), 3)</f>
+        <v>0</v>
+      </c>
+      <c r="I63" s="48">
+        <f ca="1">ROUND(I48-(I56+I61), 3)</f>
+        <v>0</v>
+      </c>
+      <c r="J63" s="48">
+        <f ca="1">ROUND(J48-(J56+J61), 3)</f>
+        <v>0</v>
+      </c>
+      <c r="K63" s="48">
+        <f ca="1">ROUND(K48-(K56+K61), 3)</f>
+        <v>0</v>
+      </c>
+      <c r="L63" s="48">
+        <f ca="1">ROUND(L48-(L56+L61), 3)</f>
+        <v>0</v>
+      </c>
+      <c r="M63" s="48">
+        <f ca="1">ROUND(M48-(M56+M61), 3)</f>
+        <v>0</v>
+      </c>
+      <c r="N63" s="57">
+        <f ca="1">ROUND(N48-(N56+N61), 3)</f>
+        <v>0</v>
+      </c>
+      <c r="O63" s="48">
+        <f>ROUND(O48-(O56+O61), 3)</f>
+        <v>0</v>
+      </c>
+      <c r="P63" s="48">
+        <f>ROUND(P48-(P56+P61), 3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="48">
+        <f>ROUND(Q48-(Q56+Q61), 3)</f>
+        <v>0</v>
+      </c>
+      <c r="R63" s="48">
+        <f>ROUND(R48-(R56+R61), 3)</f>
+        <v>0</v>
+      </c>
+      <c r="S63" s="48">
+        <f>ROUND(S48-(S56+S61), 3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H65" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I65" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J65" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K65" s="7">
+        <v>2020</v>
+      </c>
+      <c r="L65" s="7">
+        <v>2021</v>
+      </c>
+      <c r="M65" s="7">
+        <v>2022</v>
+      </c>
+      <c r="N65" s="52">
+        <v>2023</v>
+      </c>
+      <c r="O65" s="12">
+        <v>2024</v>
+      </c>
+      <c r="P65" s="12">
+        <v>2025</v>
+      </c>
+      <c r="Q65" s="12">
+        <v>2026</v>
+      </c>
+      <c r="R65" s="12">
+        <v>2027</v>
+      </c>
+      <c r="S65" s="12">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>86</v>
+      </c>
+      <c r="H66" s="30">
+        <f>H27</f>
+        <v>19546</v>
+      </c>
+      <c r="I66" s="30">
+        <f t="shared" ref="I66:S66" si="33">I27</f>
+        <v>14636</v>
+      </c>
+      <c r="J66" s="30">
+        <f t="shared" si="33"/>
+        <v>38587</v>
+      </c>
+      <c r="K66" s="30">
+        <f t="shared" si="33"/>
+        <v>44293</v>
+      </c>
+      <c r="L66" s="30">
+        <f t="shared" si="33"/>
+        <v>59870</v>
+      </c>
+      <c r="M66" s="30">
+        <f t="shared" si="33"/>
+        <v>72436</v>
+      </c>
+      <c r="N66" s="58">
+        <f t="shared" si="33"/>
+        <v>72599</v>
+      </c>
+      <c r="O66" s="30">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="30">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="30">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R66" s="30">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S66" s="30">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>87</v>
+      </c>
+      <c r="H67" s="30">
+        <f>H29</f>
+        <v>8778</v>
+      </c>
+      <c r="I67" s="30">
+        <f t="shared" ref="I67:S67" si="34">I29</f>
+        <v>10261</v>
+      </c>
+      <c r="J67" s="30">
+        <f t="shared" si="34"/>
+        <v>11682</v>
+      </c>
+      <c r="K67" s="30">
+        <f t="shared" si="34"/>
+        <v>12796</v>
+      </c>
+      <c r="L67" s="30">
+        <f t="shared" si="34"/>
+        <v>11686</v>
+      </c>
+      <c r="M67" s="30">
+        <f t="shared" si="34"/>
+        <v>14460</v>
+      </c>
+      <c r="N67" s="30">
+        <f t="shared" si="34"/>
+        <v>13861</v>
+      </c>
+      <c r="O67" s="30">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="30">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="30">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="R67" s="30">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S67" s="30">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>88</v>
+      </c>
+      <c r="H68" s="30">
+        <f>H31</f>
+        <v>3266</v>
+      </c>
+      <c r="I68" s="30">
+        <f t="shared" ref="I68:S68" si="35">I31</f>
+        <v>3940</v>
+      </c>
+      <c r="J68" s="30">
+        <f t="shared" si="35"/>
+        <v>4652</v>
+      </c>
+      <c r="K68" s="30">
+        <f t="shared" si="35"/>
+        <v>5289</v>
+      </c>
+      <c r="L68" s="30">
+        <f t="shared" si="35"/>
+        <v>6118</v>
+      </c>
+      <c r="M68" s="30">
+        <f t="shared" si="35"/>
+        <v>7502</v>
+      </c>
+      <c r="N68" s="30">
+        <f t="shared" si="35"/>
+        <v>9611</v>
+      </c>
+      <c r="O68" s="30">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="30">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="30">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="R68" s="30">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="S68" s="30">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>89</v>
+      </c>
+      <c r="H69" s="30">
+        <f ca="1">-1*(SUM(H42:H45)-SUM(G42:G45))</f>
+        <v>-20191</v>
+      </c>
+      <c r="I69" s="30">
+        <f ca="1">-1*(SUM(I42:I45)-SUM(H42:H45))</f>
+        <v>-9811</v>
+      </c>
+      <c r="J69" s="30">
+        <f ca="1">-1*(SUM(J42:J45)-SUM(I42:I45))</f>
+        <v>-5890</v>
+      </c>
+      <c r="K69" s="30">
+        <f ca="1">-1*(SUM(K42:K45)-SUM(J42:J45))</f>
+        <v>-6363</v>
+      </c>
+      <c r="L69" s="30">
+        <f ca="1">-1*(SUM(L42:L45)-SUM(K42:K45))</f>
+        <v>-2491</v>
+      </c>
+      <c r="M69" s="30">
+        <f ca="1">-1*(SUM(M42:M45)-SUM(L42:L45))</f>
+        <v>14722</v>
+      </c>
+      <c r="N69" s="58">
+        <f ca="1">-1*(SUM(N42:N45)-SUM(M42:M45))</f>
+        <v>-14573</v>
+      </c>
+      <c r="O69" s="30">
+        <f ca="1">-1*(SUM(O42:O45)-SUM(N42:N45))</f>
+        <v>184257</v>
+      </c>
+      <c r="P69" s="30">
+        <f>-1*(SUM(P42:P45)-SUM(O42:O45))</f>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="30">
+        <f>-1*(SUM(Q42:Q45)-SUM(P42:P45))</f>
+        <v>0</v>
+      </c>
+      <c r="R69" s="30">
+        <f>-1*(SUM(R42:R45)-SUM(Q42:Q45))</f>
+        <v>0</v>
+      </c>
+      <c r="S69" s="30">
+        <f>-1*(SUM(S42:S45)-SUM(R42:R45))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H70" s="30">
+        <f>(SUM(H50:H52)-SUM(G50:G52))</f>
+        <v>9106</v>
+      </c>
+      <c r="I70" s="30">
+        <f t="shared" ref="I70:S70" si="36">(SUM(I50:I52)-SUM(H50:H52))</f>
+        <v>-12601</v>
+      </c>
+      <c r="J70" s="30">
+        <f t="shared" si="36"/>
+        <v>11647</v>
+      </c>
+      <c r="K70" s="30">
+        <f t="shared" si="36"/>
+        <v>1540</v>
+      </c>
+      <c r="L70" s="30">
+        <f t="shared" si="36"/>
+        <v>15783</v>
+      </c>
+      <c r="M70" s="30">
+        <f t="shared" si="36"/>
+        <v>3930</v>
+      </c>
+      <c r="N70" s="30">
+        <f t="shared" si="36"/>
+        <v>6611</v>
+      </c>
+      <c r="O70" s="30">
+        <f t="shared" si="36"/>
+        <v>-101814</v>
+      </c>
+      <c r="P70" s="30">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="30">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="R70" s="30">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="S70" s="30">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+      <c r="H72" s="30">
+        <f>H55-G55</f>
+        <v>2599</v>
+      </c>
+      <c r="I72" s="30">
+        <f t="shared" ref="I72:S72" si="37">I55-H55</f>
+        <v>23870</v>
+      </c>
+      <c r="J72" s="30">
+        <f t="shared" si="37"/>
+        <v>2029</v>
+      </c>
+      <c r="K72" s="30">
+        <f t="shared" si="37"/>
+        <v>4325</v>
+      </c>
+      <c r="L72" s="30">
+        <f t="shared" si="37"/>
+        <v>2505</v>
+      </c>
+      <c r="M72" s="30">
+        <f t="shared" si="37"/>
+        <v>2870</v>
+      </c>
+      <c r="N72" s="58">
+        <f t="shared" si="37"/>
+        <v>3388</v>
+      </c>
+      <c r="O72" s="30">
+        <f t="shared" si="37"/>
+        <v>-56702</v>
+      </c>
+      <c r="P72" s="30">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="30">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="R72" s="30">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="S72" s="30">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B73" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="H73" s="42">
+        <f ca="1">SUM(H66:H72)</f>
+        <v>23104</v>
+      </c>
+      <c r="I73" s="42">
+        <f t="shared" ref="I73:S73" ca="1" si="38">SUM(I66:I72)</f>
+        <v>30295</v>
+      </c>
+      <c r="J73" s="42">
+        <f t="shared" ca="1" si="38"/>
+        <v>62707</v>
+      </c>
+      <c r="K73" s="42">
+        <f t="shared" ca="1" si="38"/>
+        <v>61880</v>
+      </c>
+      <c r="L73" s="42">
+        <f t="shared" ca="1" si="38"/>
+        <v>93471</v>
+      </c>
+      <c r="M73" s="42">
+        <f t="shared" ca="1" si="38"/>
+        <v>115920</v>
+      </c>
+      <c r="N73" s="42">
+        <f t="shared" ca="1" si="38"/>
+        <v>91497</v>
+      </c>
+      <c r="O73" s="42">
+        <f t="shared" ca="1" si="38"/>
+        <v>25741</v>
+      </c>
+      <c r="P73" s="42">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="42">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="R73" s="42">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="S73" s="42">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>93</v>
+      </c>
+      <c r="H75" s="30">
+        <f>-(H46-G46)</f>
+        <v>-5378</v>
+      </c>
+      <c r="I75" s="30">
+        <f>-(I46-H46)</f>
+        <v>-5726</v>
+      </c>
+      <c r="J75" s="30">
+        <f>-(J46-I46)</f>
+        <v>-7017</v>
+      </c>
+      <c r="K75" s="30">
+        <f>-(K46-J46)</f>
+        <v>-7674</v>
+      </c>
+      <c r="L75" s="30">
+        <f>-(L46-K46)</f>
+        <v>-15564</v>
+      </c>
+      <c r="M75" s="30">
+        <f>-(M46-L46)</f>
+        <v>-14683</v>
+      </c>
+      <c r="N75" s="30">
+        <f>-(N46-M46)</f>
+        <v>-21243</v>
+      </c>
+      <c r="O75" s="30">
+        <f>-(O46-N46)</f>
+        <v>95641</v>
+      </c>
+      <c r="P75" s="30">
+        <f>-(P46-O46)</f>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="30">
+        <f>-(Q46-P46)</f>
+        <v>0</v>
+      </c>
+      <c r="R75" s="30">
+        <f>-(R46-Q46)</f>
+        <v>0</v>
+      </c>
+      <c r="S75" s="30">
+        <f>-(S46-R46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B76" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="H76" s="42">
+        <f>IFERROR(H75, "NA")</f>
+        <v>-5378</v>
+      </c>
+      <c r="I76" s="42">
+        <f t="shared" ref="I76:S76" si="39">IFERROR(I75, "NA")</f>
+        <v>-5726</v>
+      </c>
+      <c r="J76" s="42">
+        <f t="shared" si="39"/>
+        <v>-7017</v>
+      </c>
+      <c r="K76" s="42">
+        <f t="shared" si="39"/>
+        <v>-7674</v>
+      </c>
+      <c r="L76" s="42">
+        <f t="shared" si="39"/>
+        <v>-15564</v>
+      </c>
+      <c r="M76" s="42">
+        <f t="shared" si="39"/>
+        <v>-14683</v>
+      </c>
+      <c r="N76" s="42">
+        <f t="shared" si="39"/>
+        <v>-21243</v>
+      </c>
+      <c r="O76" s="42">
+        <f t="shared" si="39"/>
+        <v>95641</v>
+      </c>
+      <c r="P76" s="42">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="42">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R76" s="42">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="S76" s="42">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>95</v>
+      </c>
+      <c r="H78" s="67">
+        <f>H54-G54</f>
+        <v>35516</v>
+      </c>
+      <c r="I78" s="30">
+        <f t="shared" ref="I78:S78" si="40">I54-H54</f>
+        <v>-3831</v>
+      </c>
+      <c r="J78" s="30">
+        <f t="shared" si="40"/>
+        <v>-5580</v>
+      </c>
+      <c r="K78" s="30">
+        <f t="shared" si="40"/>
+        <v>-7084</v>
+      </c>
+      <c r="L78" s="30">
+        <f t="shared" si="40"/>
+        <v>-9504</v>
+      </c>
+      <c r="M78" s="30">
+        <f t="shared" si="40"/>
+        <v>-293</v>
+      </c>
+      <c r="N78" s="30">
+        <f t="shared" si="40"/>
+        <v>-2544</v>
+      </c>
+      <c r="O78" s="30">
+        <f t="shared" si="40"/>
+        <v>-47237</v>
+      </c>
+      <c r="P78" s="30">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="Q78" s="30">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="R78" s="30">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S78" s="30">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B82" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="H82" s="42">
+        <f>SUM(H78:H81)</f>
+        <v>35516</v>
+      </c>
+      <c r="I82" s="42">
+        <f t="shared" ref="I82:S82" si="41">SUM(I78:I81)</f>
+        <v>-3831</v>
+      </c>
+      <c r="J82" s="42">
+        <f t="shared" si="41"/>
+        <v>-5580</v>
+      </c>
+      <c r="K82" s="42">
+        <f t="shared" si="41"/>
+        <v>-7084</v>
+      </c>
+      <c r="L82" s="42">
+        <f t="shared" si="41"/>
+        <v>-9504</v>
+      </c>
+      <c r="M82" s="42">
+        <f t="shared" si="41"/>
+        <v>-293</v>
+      </c>
+      <c r="N82" s="42">
+        <f t="shared" si="41"/>
+        <v>-2544</v>
+      </c>
+      <c r="O82" s="42">
+        <f t="shared" si="41"/>
+        <v>-47237</v>
+      </c>
+      <c r="P82" s="42">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="42">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="R82" s="42">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="S82" s="42">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B84" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="H84" s="42">
+        <f ca="1">H82+H76+H73</f>
+        <v>53242</v>
+      </c>
+      <c r="I84" s="42">
+        <f t="shared" ref="I84:S84" ca="1" si="42">I82+I76+I73</f>
+        <v>20738</v>
+      </c>
+      <c r="J84" s="42">
+        <f t="shared" ca="1" si="42"/>
+        <v>50110</v>
+      </c>
+      <c r="K84" s="42">
+        <f t="shared" ca="1" si="42"/>
+        <v>47122</v>
+      </c>
+      <c r="L84" s="42">
+        <f t="shared" ca="1" si="42"/>
+        <v>68403</v>
+      </c>
+      <c r="M84" s="42">
+        <f t="shared" ca="1" si="42"/>
+        <v>100944</v>
+      </c>
+      <c r="N84" s="42">
+        <f t="shared" ca="1" si="42"/>
+        <v>67710</v>
+      </c>
+      <c r="O84" s="42">
+        <f t="shared" ca="1" si="42"/>
+        <v>74145</v>
+      </c>
+      <c r="P84" s="42">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Q84" s="42">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="R84" s="42">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="S84" s="42">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B87" s="41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5A53F4-E670-41A9-B096-B6E375EAE8AA}">
+  <dimension ref="A2:S77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="e">
+        <f ca="1">S77</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>45209</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>410.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>45107</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="6" t="e">
+        <f ca="1">I4/I5-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1235,1025 +3799,6 @@
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7">
-        <v>2015</v>
-      </c>
-      <c r="G16" s="7">
-        <f t="shared" ref="G16:N16" si="0">F16+1</f>
-        <v>2016</v>
-      </c>
-      <c r="H16" s="7">
-        <f t="shared" si="0"/>
-        <v>2017</v>
-      </c>
-      <c r="I16" s="7">
-        <f t="shared" si="0"/>
-        <v>2018</v>
-      </c>
-      <c r="J16" s="7">
-        <f t="shared" si="0"/>
-        <v>2019</v>
-      </c>
-      <c r="K16" s="7">
-        <f t="shared" si="0"/>
-        <v>2020</v>
-      </c>
-      <c r="L16" s="7">
-        <f t="shared" si="0"/>
-        <v>2021</v>
-      </c>
-      <c r="M16" s="7">
-        <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="N16" s="7">
-        <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="O16" s="12">
-        <f>N16+1</f>
-        <v>2024</v>
-      </c>
-      <c r="P16" s="12">
-        <f t="shared" ref="P16:S16" si="1">O16+1</f>
-        <v>2025</v>
-      </c>
-      <c r="Q16" s="12">
-        <f t="shared" si="1"/>
-        <v>2026</v>
-      </c>
-      <c r="R16" s="12">
-        <f t="shared" si="1"/>
-        <v>2027</v>
-      </c>
-      <c r="S16" s="12">
-        <f t="shared" si="1"/>
-        <v>2028</v>
-      </c>
-      <c r="U16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="47">
-        <v>93580</v>
-      </c>
-      <c r="G18" s="47">
-        <v>85320</v>
-      </c>
-      <c r="H18" s="47">
-        <v>89950</v>
-      </c>
-      <c r="I18" s="47">
-        <v>110360</v>
-      </c>
-      <c r="J18" s="47">
-        <v>125843</v>
-      </c>
-      <c r="K18" s="47">
-        <v>143015</v>
-      </c>
-      <c r="L18" s="47">
-        <v>168088</v>
-      </c>
-      <c r="M18" s="47">
-        <v>198270</v>
-      </c>
-      <c r="N18" s="47">
-        <v>211915</v>
-      </c>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="47">
-        <v>-33038</v>
-      </c>
-      <c r="G19" s="47">
-        <v>-32780</v>
-      </c>
-      <c r="H19" s="47">
-        <v>-34261</v>
-      </c>
-      <c r="I19" s="47">
-        <v>-38353</v>
-      </c>
-      <c r="J19" s="47">
-        <v>-42910</v>
-      </c>
-      <c r="K19" s="47">
-        <v>-46078</v>
-      </c>
-      <c r="L19" s="47">
-        <v>-52232</v>
-      </c>
-      <c r="M19" s="47">
-        <v>-62650</v>
-      </c>
-      <c r="N19" s="47">
-        <v>-65863</v>
-      </c>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="45">
-        <f>SUM(F18:F19)</f>
-        <v>60542</v>
-      </c>
-      <c r="G20" s="45">
-        <f>SUM(G18:G19)</f>
-        <v>52540</v>
-      </c>
-      <c r="H20" s="45">
-        <f>SUM(H18:H19)</f>
-        <v>55689</v>
-      </c>
-      <c r="I20" s="45">
-        <f>SUM(I18:I19)</f>
-        <v>72007</v>
-      </c>
-      <c r="J20" s="45">
-        <f>SUM(J18:J19)</f>
-        <v>82933</v>
-      </c>
-      <c r="K20" s="45">
-        <f>SUM(K18:K19)</f>
-        <v>96937</v>
-      </c>
-      <c r="L20" s="45">
-        <f>SUM(L18:L19)</f>
-        <v>115856</v>
-      </c>
-      <c r="M20" s="45">
-        <f>SUM(M18:M19)</f>
-        <v>135620</v>
-      </c>
-      <c r="N20" s="45">
-        <f>SUM(N18:N19)</f>
-        <v>146052</v>
-      </c>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="47">
-        <v>-12046</v>
-      </c>
-      <c r="G21" s="47">
-        <v>-11988</v>
-      </c>
-      <c r="H21" s="47">
-        <v>-13037</v>
-      </c>
-      <c r="I21" s="47">
-        <v>-14726</v>
-      </c>
-      <c r="J21" s="47">
-        <v>-16876</v>
-      </c>
-      <c r="K21" s="47">
-        <v>-19269</v>
-      </c>
-      <c r="L21" s="47">
-        <v>-20716</v>
-      </c>
-      <c r="M21" s="47">
-        <v>-24512</v>
-      </c>
-      <c r="N21" s="47">
-        <v>-27195</v>
-      </c>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="47">
-        <v>-30335</v>
-      </c>
-      <c r="G22" s="47">
-        <v>-20370</v>
-      </c>
-      <c r="H22" s="47">
-        <v>-20326</v>
-      </c>
-      <c r="I22" s="47">
-        <v>-22223</v>
-      </c>
-      <c r="J22" s="47">
-        <v>-23098</v>
-      </c>
-      <c r="K22" s="47">
-        <v>-24709</v>
-      </c>
-      <c r="L22" s="47">
-        <v>-25224</v>
-      </c>
-      <c r="M22" s="47">
-        <v>-27725</v>
-      </c>
-      <c r="N22" s="47">
-        <v>-30334</v>
-      </c>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="45">
-        <f>SUM(F20:F22)</f>
-        <v>18161</v>
-      </c>
-      <c r="G23" s="45">
-        <f t="shared" ref="G23:H23" si="2">SUM(G20:G22)</f>
-        <v>20182</v>
-      </c>
-      <c r="H23" s="45">
-        <f t="shared" si="2"/>
-        <v>22326</v>
-      </c>
-      <c r="I23" s="45">
-        <f t="shared" ref="I23" si="3">SUM(I20:I22)</f>
-        <v>35058</v>
-      </c>
-      <c r="J23" s="45">
-        <f t="shared" ref="J23" si="4">SUM(J20:J22)</f>
-        <v>42959</v>
-      </c>
-      <c r="K23" s="45">
-        <f t="shared" ref="K23" si="5">SUM(K20:K22)</f>
-        <v>52959</v>
-      </c>
-      <c r="L23" s="45">
-        <f t="shared" ref="L23" si="6">SUM(L20:L22)</f>
-        <v>69916</v>
-      </c>
-      <c r="M23" s="45">
-        <f t="shared" ref="M23" si="7">SUM(M20:M22)</f>
-        <v>83383</v>
-      </c>
-      <c r="N23" s="45">
-        <f t="shared" ref="N23" si="8">SUM(N20:N22)</f>
-        <v>88523</v>
-      </c>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="47">
-        <v>766</v>
-      </c>
-      <c r="G24" s="47">
-        <v>903</v>
-      </c>
-      <c r="H24" s="47">
-        <v>1387</v>
-      </c>
-      <c r="I24" s="47">
-        <v>2214</v>
-      </c>
-      <c r="J24" s="47">
-        <v>2762</v>
-      </c>
-      <c r="K24" s="47">
-        <v>2680</v>
-      </c>
-      <c r="L24" s="47">
-        <v>2131</v>
-      </c>
-      <c r="M24" s="47">
-        <v>2094</v>
-      </c>
-      <c r="N24" s="47">
-        <v>2994</v>
-      </c>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="47">
-        <v>-781</v>
-      </c>
-      <c r="G25" s="47">
-        <v>-1243</v>
-      </c>
-      <c r="H25" s="47">
-        <v>-2222</v>
-      </c>
-      <c r="I25" s="47">
-        <v>-2733</v>
-      </c>
-      <c r="J25" s="47">
-        <v>-2686</v>
-      </c>
-      <c r="K25" s="47">
-        <v>-2591</v>
-      </c>
-      <c r="L25" s="47">
-        <v>-2346</v>
-      </c>
-      <c r="M25" s="47">
-        <v>-2063</v>
-      </c>
-      <c r="N25" s="47">
-        <v>-1968</v>
-      </c>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="45">
-        <f>SUM(F23:F25)</f>
-        <v>18146</v>
-      </c>
-      <c r="G26" s="45">
-        <f t="shared" ref="G26:H26" si="9">SUM(G23:G25)</f>
-        <v>19842</v>
-      </c>
-      <c r="H26" s="45">
-        <f t="shared" si="9"/>
-        <v>21491</v>
-      </c>
-      <c r="I26" s="45">
-        <f t="shared" ref="I26" si="10">SUM(I23:I25)</f>
-        <v>34539</v>
-      </c>
-      <c r="J26" s="45">
-        <f t="shared" ref="J26" si="11">SUM(J23:J25)</f>
-        <v>43035</v>
-      </c>
-      <c r="K26" s="45">
-        <f t="shared" ref="K26" si="12">SUM(K23:K25)</f>
-        <v>53048</v>
-      </c>
-      <c r="L26" s="45">
-        <f t="shared" ref="L26" si="13">SUM(L23:L25)</f>
-        <v>69701</v>
-      </c>
-      <c r="M26" s="45">
-        <f t="shared" ref="M26" si="14">SUM(M23:M25)</f>
-        <v>83414</v>
-      </c>
-      <c r="N26" s="45">
-        <f t="shared" ref="N26" si="15">SUM(N23:N25)</f>
-        <v>89549</v>
-      </c>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="47">
-        <v>-6314</v>
-      </c>
-      <c r="G27" s="47">
-        <v>-2953</v>
-      </c>
-      <c r="H27" s="47">
-        <v>-1945</v>
-      </c>
-      <c r="I27" s="47">
-        <v>-19903</v>
-      </c>
-      <c r="J27" s="47">
-        <v>-4448</v>
-      </c>
-      <c r="K27" s="47">
-        <v>-8755</v>
-      </c>
-      <c r="L27" s="47">
-        <v>-9831</v>
-      </c>
-      <c r="M27" s="47">
-        <v>-10978</v>
-      </c>
-      <c r="N27" s="47">
-        <v>-16950</v>
-      </c>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="45">
-        <f>SUM(F26:F27)</f>
-        <v>11832</v>
-      </c>
-      <c r="G28" s="45">
-        <f t="shared" ref="G28:H28" si="16">SUM(G26:G27)</f>
-        <v>16889</v>
-      </c>
-      <c r="H28" s="45">
-        <f t="shared" si="16"/>
-        <v>19546</v>
-      </c>
-      <c r="I28" s="45">
-        <f t="shared" ref="I28" si="17">SUM(I26:I27)</f>
-        <v>14636</v>
-      </c>
-      <c r="J28" s="45">
-        <f t="shared" ref="J28" si="18">SUM(J26:J27)</f>
-        <v>38587</v>
-      </c>
-      <c r="K28" s="45">
-        <f t="shared" ref="K28" si="19">SUM(K26:K27)</f>
-        <v>44293</v>
-      </c>
-      <c r="L28" s="45">
-        <f t="shared" ref="L28" si="20">SUM(L26:L27)</f>
-        <v>59870</v>
-      </c>
-      <c r="M28" s="45">
-        <f t="shared" ref="M28" si="21">SUM(M26:M27)</f>
-        <v>72436</v>
-      </c>
-      <c r="N28" s="45">
-        <f t="shared" ref="N28" si="22">SUM(N26:N27)</f>
-        <v>72599</v>
-      </c>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="43"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="49">
-        <f>(G18-F18)/G18</f>
-        <v>-9.6812001875293013E-2</v>
-      </c>
-      <c r="H31" s="49">
-        <f>(H18-G18)/H18</f>
-        <v>5.1473040578098941E-2</v>
-      </c>
-      <c r="I31" s="49">
-        <f>(I18-H18)/I18</f>
-        <v>0.18494019572308806</v>
-      </c>
-      <c r="J31" s="49">
-        <f>(J18-I18)/J18</f>
-        <v>0.12303425697098766</v>
-      </c>
-      <c r="K31" s="49">
-        <f>(K18-J18)/K18</f>
-        <v>0.12007132119008496</v>
-      </c>
-      <c r="L31" s="49">
-        <f>(L18-K18)/L18</f>
-        <v>0.1491659130931417</v>
-      </c>
-      <c r="M31" s="49">
-        <f>(M18-L18)/M18</f>
-        <v>0.15222676148686135</v>
-      </c>
-      <c r="N31" s="49">
-        <f>(N18-M18)/N18</f>
-        <v>6.4389023901092413E-2</v>
-      </c>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="49">
-        <f>(G20-F20)/G20</f>
-        <v>-0.15230300723258469</v>
-      </c>
-      <c r="H32" s="49">
-        <f t="shared" ref="H32:N32" si="23">(H20-G20)/H20</f>
-        <v>5.6546176085043726E-2</v>
-      </c>
-      <c r="I32" s="49">
-        <f t="shared" si="23"/>
-        <v>0.22661685669448803</v>
-      </c>
-      <c r="J32" s="49">
-        <f t="shared" si="23"/>
-        <v>0.13174490251166604</v>
-      </c>
-      <c r="K32" s="49">
-        <f t="shared" si="23"/>
-        <v>0.14446496177929996</v>
-      </c>
-      <c r="L32" s="49">
-        <f t="shared" si="23"/>
-        <v>0.16329754177599778</v>
-      </c>
-      <c r="M32" s="49">
-        <f t="shared" si="23"/>
-        <v>0.14573071818315883</v>
-      </c>
-      <c r="N32" s="49">
-        <f t="shared" si="23"/>
-        <v>7.1426615178155725E-2</v>
-      </c>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="49">
-        <f>(G21-F21)/G21</f>
-        <v>-4.8381715048381718E-3</v>
-      </c>
-      <c r="H33" s="49">
-        <f t="shared" ref="H33:N33" si="24">(H21-G21)/H21</f>
-        <v>8.0463296770729456E-2</v>
-      </c>
-      <c r="I33" s="49">
-        <f t="shared" si="24"/>
-        <v>0.1146950971071574</v>
-      </c>
-      <c r="J33" s="49">
-        <f t="shared" si="24"/>
-        <v>0.12739985778620527</v>
-      </c>
-      <c r="K33" s="49">
-        <f t="shared" si="24"/>
-        <v>0.12418911204525404</v>
-      </c>
-      <c r="L33" s="49">
-        <f t="shared" si="24"/>
-        <v>6.9849391774473843E-2</v>
-      </c>
-      <c r="M33" s="49">
-        <f t="shared" si="24"/>
-        <v>0.15486292428198434</v>
-      </c>
-      <c r="N33" s="49">
-        <f t="shared" si="24"/>
-        <v>9.8657841514984371E-2</v>
-      </c>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="44"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B34" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="49">
-        <f>(G22-F22)/G22</f>
-        <v>-0.48919980363279331</v>
-      </c>
-      <c r="H34" s="49">
-        <f t="shared" ref="H34:N34" si="25">(H22-G22)/H22</f>
-        <v>-2.1647151431663878E-3</v>
-      </c>
-      <c r="I34" s="49">
-        <f t="shared" si="25"/>
-        <v>8.5362012329568471E-2</v>
-      </c>
-      <c r="J34" s="49">
-        <f t="shared" si="25"/>
-        <v>3.7882067711490171E-2</v>
-      </c>
-      <c r="K34" s="49">
-        <f t="shared" si="25"/>
-        <v>6.5198915374964583E-2</v>
-      </c>
-      <c r="L34" s="49">
-        <f t="shared" si="25"/>
-        <v>2.0417063114494132E-2</v>
-      </c>
-      <c r="M34" s="49">
-        <f t="shared" si="25"/>
-        <v>9.0207394048692519E-2</v>
-      </c>
-      <c r="N34" s="49">
-        <f t="shared" si="25"/>
-        <v>8.6009098701127454E-2</v>
-      </c>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="44"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B35" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="F35" s="47"/>
-      <c r="G35" s="49">
-        <f>(G27/G26)*-1</f>
-        <v>0.14882572321338575</v>
-      </c>
-      <c r="H35" s="49">
-        <f>(H27/H26)*-1</f>
-        <v>9.0503001256339866E-2</v>
-      </c>
-      <c r="I35" s="49">
-        <f>(I27/I26)*-1</f>
-        <v>0.57624714091317064</v>
-      </c>
-      <c r="J35" s="49">
-        <f>(J27/J26)*-1</f>
-        <v>0.10335773207854072</v>
-      </c>
-      <c r="K35" s="49">
-        <f>(K27/K26)*-1</f>
-        <v>0.1650392097722817</v>
-      </c>
-      <c r="L35" s="49">
-        <f>(L27/L26)*-1</f>
-        <v>0.14104532216180543</v>
-      </c>
-      <c r="M35" s="49">
-        <f>(M27/M26)*-1</f>
-        <v>0.13160860287241949</v>
-      </c>
-      <c r="N35" s="49">
-        <f>(N27/N26)*-1</f>
-        <v>0.18928184569341924</v>
-      </c>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="44"/>
-      <c r="S35" s="44"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7">
-        <v>2015</v>
-      </c>
-      <c r="G37" s="7">
-        <f t="shared" ref="G37:N37" si="26">F37+1</f>
-        <v>2016</v>
-      </c>
-      <c r="H37" s="7">
-        <f t="shared" si="26"/>
-        <v>2017</v>
-      </c>
-      <c r="I37" s="7">
-        <f t="shared" si="26"/>
-        <v>2018</v>
-      </c>
-      <c r="J37" s="7">
-        <f t="shared" si="26"/>
-        <v>2019</v>
-      </c>
-      <c r="K37" s="7">
-        <f t="shared" si="26"/>
-        <v>2020</v>
-      </c>
-      <c r="L37" s="7">
-        <f t="shared" si="26"/>
-        <v>2021</v>
-      </c>
-      <c r="M37" s="7">
-        <f t="shared" si="26"/>
-        <v>2022</v>
-      </c>
-      <c r="N37" s="7">
-        <f t="shared" si="26"/>
-        <v>2023</v>
-      </c>
-      <c r="O37" s="12">
-        <f>N37+1</f>
-        <v>2024</v>
-      </c>
-      <c r="P37" s="12">
-        <f t="shared" ref="P37:S37" si="27">O37+1</f>
-        <v>2025</v>
-      </c>
-      <c r="Q37" s="12">
-        <f t="shared" si="27"/>
-        <v>2026</v>
-      </c>
-      <c r="R37" s="12">
-        <f t="shared" si="27"/>
-        <v>2027</v>
-      </c>
-      <c r="S37" s="12">
-        <f t="shared" si="27"/>
-        <v>2028</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5A53F4-E670-41A9-B096-B6E375EAE8AA}">
-  <dimension ref="A2:S77"/>
-  <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:19" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="e">
-        <f ca="1">S77</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>45209</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4">
-        <v>410.17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="5">
-        <v>45107</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="6" t="e">
-        <f ca="1">I4/I5-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-    </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>10</v>
@@ -2368,23 +3913,17 @@
         <v>8</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="7">
-        <v>2014</v>
-      </c>
-      <c r="F18" s="7">
-        <f>E18+1</f>
-        <v>2015</v>
-      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="7">
-        <f t="shared" ref="G18:S18" si="0">F18+1</f>
         <v>2016</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G18:S18" si="0">G18+1</f>
         <v>2017</v>
       </c>
       <c r="I18" s="7">
@@ -2436,41 +3975,35 @@
       <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="13">
-        <f>[1]Historicals!C10</f>
-        <v>4646.0749999999998</v>
-      </c>
-      <c r="F19" s="13">
-        <f>[1]Historicals!D10</f>
-        <v>4959.8379999999997</v>
-      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="13">
-        <f>[1]Historicals!E10</f>
-        <v>6652.6666670000004</v>
+        <f>Historicals!G17</f>
+        <v>85320</v>
       </c>
       <c r="H19" s="13">
-        <f>[1]Historicals!F10</f>
-        <v>9468</v>
+        <f>Historicals!H17</f>
+        <v>89950</v>
       </c>
       <c r="I19" s="13">
-        <f>[1]Historicals!G10</f>
-        <v>11951.333333</v>
+        <f>Historicals!I17</f>
+        <v>110360</v>
       </c>
       <c r="J19" s="13">
-        <f>[1]Historicals!H10</f>
-        <v>10618</v>
+        <f>Historicals!J17</f>
+        <v>125843</v>
       </c>
       <c r="K19" s="13">
-        <f>[1]Historicals!I10</f>
-        <v>16042.333333</v>
+        <f>Historicals!K17</f>
+        <v>143015</v>
       </c>
       <c r="L19" s="13">
-        <f>[1]Historicals!J10</f>
-        <v>26034</v>
+        <f>Historicals!L17</f>
+        <v>168088</v>
       </c>
       <c r="M19" s="13">
-        <f>[1]Historicals!K10</f>
-        <v>27504.666667000001</v>
+        <f>Historicals!M17</f>
+        <v>198270</v>
       </c>
       <c r="N19" s="14">
         <f>[1]Estimates!K5</f>
@@ -2499,48 +4032,40 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
-      <c r="E20" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="18">
-        <f>F19/E19-1</f>
-        <v>6.7532917570207074E-2</v>
-      </c>
-      <c r="G20" s="18">
-        <f t="shared" ref="G20:S20" si="1">G19/F19-1</f>
-        <v>0.34130724975291549</v>
-      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="18">
-        <f t="shared" si="1"/>
-        <v>0.42318869619084132</v>
+        <f t="shared" ref="G20:S20" si="1">H19/G19-1</f>
+        <v>5.4266291608063844E-2</v>
       </c>
       <c r="I20" s="18">
         <f t="shared" si="1"/>
-        <v>0.26228700179552189</v>
+        <v>0.22690383546414683</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" si="1"/>
-        <v>-0.11156356331543382</v>
+        <v>0.14029539688292858</v>
       </c>
       <c r="K20" s="18">
         <f t="shared" si="1"/>
-        <v>0.51086205810887186</v>
+        <v>0.13645574247276371</v>
       </c>
       <c r="L20" s="18">
         <f t="shared" si="1"/>
-        <v>0.62283125899438629</v>
+        <v>0.17531727441177503</v>
       </c>
       <c r="M20" s="18">
         <f t="shared" si="1"/>
-        <v>5.6490230736728986E-2</v>
+        <v>0.17956070629670173</v>
       </c>
       <c r="N20" s="18">
         <f t="shared" si="1"/>
-        <v>0.88311680439824602</v>
+        <v>-0.73876784183184552</v>
       </c>
       <c r="O20" s="18">
         <f t="shared" si="1"/>
@@ -2567,41 +4092,35 @@
       <c r="B22" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="13">
-        <f>[1]Historicals!C12</f>
-        <v>771.88367000000005</v>
-      </c>
-      <c r="F22" s="13">
-        <f>[1]Historicals!D12</f>
-        <v>916.43499999999995</v>
-      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
       <c r="G22" s="13">
-        <f>[1]Historicals!E12</f>
-        <v>1829.3333299999999</v>
+        <f>Historicals!G22</f>
+        <v>20182</v>
       </c>
       <c r="H22" s="13">
-        <f>[1]Historicals!F12</f>
-        <v>3094.6666700000001</v>
+        <f>Historicals!H22</f>
+        <v>22326</v>
       </c>
       <c r="I22" s="13">
-        <f>[1]Historicals!G12</f>
-        <v>4063.6666700000001</v>
+        <f>Historicals!I22</f>
+        <v>35058</v>
       </c>
       <c r="J22" s="13">
-        <f>[1]Historicals!H12</f>
-        <v>2614</v>
+        <f>Historicals!J22</f>
+        <v>42959</v>
       </c>
       <c r="K22" s="13">
-        <f>[1]Historicals!I12</f>
-        <v>4437.3333300000004</v>
+        <f>Historicals!K22</f>
+        <v>52959</v>
       </c>
       <c r="L22" s="13">
-        <f>[1]Historicals!J12</f>
-        <v>9569.6666700000005</v>
+        <f>Historicals!L22</f>
+        <v>69916</v>
       </c>
       <c r="M22" s="13">
-        <f>[1]Historicals!K12</f>
-        <v>6149</v>
+        <f>Historicals!M22</f>
+        <v>83383</v>
       </c>
       <c r="N22" s="14">
         <f>[1]Estimates!K9</f>
@@ -2630,45 +4149,36 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
-      <c r="E23" s="18">
-        <f>E22/E19</f>
-        <v>0.16613672185662093</v>
-      </c>
-      <c r="F23" s="18">
-        <f t="shared" ref="F23:S23" si="2">F22/F19</f>
-        <v>0.18477115583210579</v>
-      </c>
-      <c r="G23" s="18">
-        <f t="shared" si="2"/>
-        <v>0.27497745213573616</v>
-      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
       <c r="H23" s="18">
-        <f t="shared" si="2"/>
-        <v>0.32685537283481203</v>
+        <f t="shared" ref="F23:S23" si="2">H22/H19</f>
+        <v>0.24820455808782657</v>
       </c>
       <c r="I23" s="18">
         <f t="shared" si="2"/>
-        <v>0.34001785045852673</v>
+        <v>0.31766944545125048</v>
       </c>
       <c r="J23" s="18">
         <f t="shared" si="2"/>
-        <v>0.24618572235825956</v>
+        <v>0.3413698020549415</v>
       </c>
       <c r="K23" s="18">
         <f t="shared" si="2"/>
-        <v>0.27660149168401527</v>
+        <v>0.37030381428521486</v>
       </c>
       <c r="L23" s="18">
         <f t="shared" si="2"/>
-        <v>0.36758341668587236</v>
+        <v>0.41594878872971303</v>
       </c>
       <c r="M23" s="18">
         <f t="shared" si="2"/>
-        <v>0.22356206219279681</v>
+        <v>0.4205527815604983</v>
       </c>
       <c r="N23" s="18">
         <f t="shared" si="2"/>
@@ -2700,24 +4210,15 @@
         <v>8</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="7">
-        <f>E18</f>
-        <v>2014</v>
-      </c>
-      <c r="F25" s="7">
-        <f t="shared" ref="F25:M25" si="3">F18</f>
-        <v>2015</v>
-      </c>
-      <c r="G25" s="7">
-        <f t="shared" si="3"/>
-        <v>2016</v>
-      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F25:M25" si="3">H18</f>
         <v>2017</v>
       </c>
       <c r="I25" s="7">
@@ -2767,35 +4268,34 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="19"/>
-      <c r="E26" s="14">
-        <v>223</v>
-      </c>
-      <c r="F26" s="14">
-        <v>201</v>
-      </c>
-      <c r="G26" s="14">
-        <v>195</v>
-      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
       <c r="H26" s="14">
-        <v>201</v>
+        <f>Historicals!H67</f>
+        <v>8778</v>
       </c>
       <c r="I26" s="14">
-        <v>240</v>
+        <f>Historicals!I67</f>
+        <v>10261</v>
       </c>
       <c r="J26" s="14">
-        <v>351</v>
+        <f>Historicals!J67</f>
+        <v>11682</v>
       </c>
       <c r="K26" s="14">
-        <v>1017</v>
+        <f>Historicals!K67</f>
+        <v>12796</v>
       </c>
       <c r="L26" s="14">
-        <v>1138</v>
+        <f>Historicals!L67</f>
+        <v>11686</v>
       </c>
       <c r="M26" s="14">
-        <v>1552</v>
+        <f>Historicals!M67</f>
+        <v>14460</v>
       </c>
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
@@ -2806,44 +4306,32 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="19"/>
-      <c r="E27" s="18">
-        <f>E26/E19</f>
-        <v>4.7997503268888256E-2</v>
-      </c>
-      <c r="F27" s="18">
-        <f t="shared" ref="F27:M27" si="5">F26/F19</f>
-        <v>4.0525517164068665E-2</v>
-      </c>
-      <c r="G27" s="18">
-        <f t="shared" si="5"/>
-        <v>2.9311554262485641E-2</v>
-      </c>
-      <c r="H27" s="18">
-        <f t="shared" si="5"/>
-        <v>2.1229404309252218E-2</v>
-      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="18">
-        <f t="shared" si="5"/>
-        <v>2.0081441401798444E-2</v>
+        <f t="shared" ref="F27:M27" si="5">I26/I19</f>
+        <v>9.2977528089887643E-2</v>
       </c>
       <c r="J27" s="18">
         <f t="shared" si="5"/>
-        <v>3.3057072895083819E-2</v>
+        <v>9.2829954784930432E-2</v>
       </c>
       <c r="K27" s="18">
         <f t="shared" si="5"/>
-        <v>6.3394768010958391E-2</v>
+        <v>8.9473132188931229E-2</v>
       </c>
       <c r="L27" s="18">
         <f t="shared" si="5"/>
-        <v>4.3712068833064457E-2</v>
+        <v>6.9523106943981727E-2</v>
       </c>
       <c r="M27" s="18">
         <f t="shared" si="5"/>
-        <v>5.642678818071567E-2</v>
+        <v>7.2930851868663937E-2</v>
       </c>
       <c r="N27" s="19"/>
       <c r="O27" s="19"/>
@@ -2872,44 +4360,35 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="19"/>
-      <c r="E29" s="13">
-        <f>-[1]Historicals!C24</f>
-        <v>134.15733399999999</v>
-      </c>
-      <c r="F29" s="13">
-        <f>-[1]Historicals!D24</f>
-        <v>91.348332999999997</v>
-      </c>
-      <c r="G29" s="13">
-        <f>-[1]Historicals!E24</f>
-        <v>164</v>
-      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
       <c r="H29" s="13">
-        <f>-[1]Historicals!F24</f>
-        <v>471.33333299999998</v>
+        <f>Historicals!H75*-1</f>
+        <v>5378</v>
       </c>
       <c r="I29" s="13">
-        <f>-[1]Historicals!G24</f>
-        <v>671</v>
+        <f>Historicals!I75*-1</f>
+        <v>5726</v>
       </c>
       <c r="J29" s="13">
-        <f>-[1]Historicals!H24</f>
-        <v>508.33333399999998</v>
+        <f>Historicals!J75*-1</f>
+        <v>7017</v>
       </c>
       <c r="K29" s="13">
-        <f>-[1]Historicals!I24</f>
-        <v>1082</v>
+        <f>Historicals!K75*-1</f>
+        <v>7674</v>
       </c>
       <c r="L29" s="13">
-        <f>-[1]Historicals!J24</f>
-        <v>979.33333300000004</v>
+        <f>Historicals!L75*-1</f>
+        <v>15564</v>
       </c>
       <c r="M29" s="13">
-        <f>-[1]Historicals!K24</f>
-        <v>1754.333333</v>
+        <f>Historicals!M75*-1</f>
+        <v>14683</v>
       </c>
       <c r="N29" s="21"/>
       <c r="O29" s="19"/>
@@ -2920,45 +4399,33 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="18">
-        <f t="shared" ref="E30:M30" si="6">E29/E19</f>
-        <v>2.887541290228849E-2</v>
-      </c>
-      <c r="F30" s="18">
-        <f t="shared" si="6"/>
-        <v>1.8417604163684379E-2</v>
-      </c>
-      <c r="G30" s="18">
-        <f t="shared" si="6"/>
-        <v>2.4651768713064848E-2</v>
-      </c>
-      <c r="H30" s="18">
-        <f t="shared" si="6"/>
-        <v>4.9781720849176168E-2</v>
-      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="18">
-        <f t="shared" si="6"/>
-        <v>5.6144363252528147E-2</v>
+        <f t="shared" ref="E30:M30" si="6">I29/I19</f>
+        <v>5.1884740848133382E-2</v>
       </c>
       <c r="J30" s="18">
         <f t="shared" si="6"/>
-        <v>4.7874678282162367E-2</v>
+        <v>5.5759954864394522E-2</v>
       </c>
       <c r="K30" s="18">
         <f t="shared" si="6"/>
-        <v>6.7446547677342164E-2</v>
+        <v>5.3658707128622869E-2</v>
       </c>
       <c r="L30" s="18">
         <f t="shared" si="6"/>
-        <v>3.7617474571713917E-2</v>
+        <v>9.2594355337680262E-2</v>
       </c>
       <c r="M30" s="18">
         <f t="shared" si="6"/>
-        <v>6.3783115579613359E-2</v>
+        <v>7.4055580773692439E-2</v>
       </c>
       <c r="N30" s="19"/>
       <c r="O30" s="19"/>
@@ -2987,24 +4454,15 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="19"/>
-      <c r="E32" s="13">
-        <f>-(11/12)*[1]CFS!C32+(1/12)*[1]CFS!D32</f>
-        <v>181.39975733333333</v>
-      </c>
-      <c r="F32" s="13">
-        <f>-(11/12)*[1]CFS!D32+(1/12)*[1]CFS!E32</f>
-        <v>-9.8333333333333286</v>
-      </c>
-      <c r="G32" s="13">
-        <f>-(11/12)*[1]CFS!E32+(1/12)*[1]CFS!F32</f>
-        <v>637.83333333333326</v>
-      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="13">
-        <f>-(11/12)*[1]CFS!F32+(1/12)*[1]CFS!G32</f>
-        <v>-240.99999999999997</v>
+        <f>SUM(Historicals!G42:G45)</f>
+        <v>139660</v>
       </c>
       <c r="I32" s="13">
         <f>-(11/12)*[1]CFS!G32+(1/12)*[1]CFS!H32</f>
@@ -3032,41 +4490,29 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="18">
-        <f>E32/E19</f>
-        <v>3.9043656706646647E-2</v>
-      </c>
-      <c r="F33" s="18">
-        <f t="shared" ref="F33:L33" si="7">F32/F19</f>
-        <v>-1.9825916357214348E-3</v>
-      </c>
-      <c r="G33" s="18">
-        <f t="shared" si="7"/>
-        <v>9.5876340309856867E-2</v>
-      </c>
-      <c r="H33" s="18">
-        <f t="shared" si="7"/>
-        <v>-2.545416138572032E-2</v>
-      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
       <c r="I33" s="18">
-        <f t="shared" si="7"/>
-        <v>7.0731299159667846E-2</v>
+        <f t="shared" ref="F33:L33" si="7">I32/I19</f>
+        <v>7.6597801135677174E-3</v>
       </c>
       <c r="J33" s="18">
         <f t="shared" si="7"/>
-        <v>-6.7416964902367052E-2</v>
+        <v>-5.6883047395034558E-3</v>
       </c>
       <c r="K33" s="18">
         <f t="shared" si="7"/>
-        <v>2.2700355310380872E-2</v>
+        <v>2.5463529466606062E-3</v>
       </c>
       <c r="L33" s="18">
         <f t="shared" si="7"/>
-        <v>0.11134798084556094</v>
+        <v>1.7245926736788667E-2</v>
       </c>
       <c r="M33" s="18"/>
       <c r="N33" s="19"/>
@@ -3078,36 +4524,27 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="16"/>
-      <c r="F34" s="18">
-        <f>F32/(F19-E19)</f>
-        <v>-3.1340002910901957E-2</v>
-      </c>
-      <c r="G34" s="18">
-        <f t="shared" ref="G34:L34" si="8">G32/(G19-F19)</f>
-        <v>0.37678552222516976</v>
-      </c>
-      <c r="H34" s="18">
-        <f t="shared" si="8"/>
-        <v>-8.5602652153161582E-2</v>
-      </c>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
       <c r="I34" s="18">
-        <f t="shared" si="8"/>
-        <v>0.34040268460944995</v>
+        <f t="shared" ref="G34:L34" si="8">I32/(I19-H19)</f>
+        <v>4.1417605748815936E-2</v>
       </c>
       <c r="J34" s="18">
         <f t="shared" si="8"/>
-        <v>0.53687500013421863</v>
+        <v>-4.6233503412344723E-2</v>
       </c>
       <c r="K34" s="18">
         <f t="shared" si="8"/>
-        <v>6.713574633239941E-2</v>
+        <v>2.1207003649351654E-2</v>
       </c>
       <c r="L34" s="18">
         <f t="shared" si="8"/>
-        <v>0.29012510424386573</v>
+        <v>0.1156157353860062</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -3140,175 +4577,155 @@
         <v>8</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="7">
-        <f>E25</f>
-        <v>2014</v>
-      </c>
-      <c r="F36" s="7">
-        <f>E36+1</f>
-        <v>2015</v>
-      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
       <c r="G36" s="7">
         <f t="shared" ref="G36:O36" si="10">F36+1</f>
-        <v>2016</v>
+        <v>1</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="10"/>
-        <v>2017</v>
+        <v>2</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="10"/>
-        <v>2018</v>
+        <v>3</v>
       </c>
       <c r="J36" s="7">
         <f t="shared" si="10"/>
-        <v>2019</v>
+        <v>4</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="10"/>
-        <v>2020</v>
+        <v>5</v>
       </c>
       <c r="L36" s="7">
         <f t="shared" si="10"/>
-        <v>2021</v>
+        <v>6</v>
       </c>
       <c r="M36" s="7">
         <f t="shared" si="10"/>
-        <v>2022</v>
+        <v>7</v>
       </c>
       <c r="N36" s="12">
         <f t="shared" si="10"/>
-        <v>2023</v>
+        <v>8</v>
       </c>
       <c r="O36" s="12">
         <f t="shared" si="10"/>
-        <v>2024</v>
+        <v>9</v>
       </c>
       <c r="P36" s="12">
         <f t="shared" si="9"/>
-        <v>2025</v>
+        <v>10</v>
       </c>
       <c r="Q36" s="12">
         <f t="shared" si="9"/>
-        <v>2026</v>
+        <v>11</v>
       </c>
       <c r="R36" s="12">
         <f t="shared" si="9"/>
-        <v>2027</v>
+        <v>12</v>
       </c>
       <c r="S36" s="12">
         <f t="shared" si="9"/>
-        <v>2028</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="22">
-        <f>E19</f>
-        <v>4646.0749999999998</v>
-      </c>
-      <c r="F37" s="22">
-        <f t="shared" ref="F37:M37" si="11">F19</f>
-        <v>4959.8379999999997</v>
-      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
       <c r="G37" s="22">
-        <f t="shared" si="11"/>
-        <v>6652.6666670000004</v>
+        <f t="shared" ref="F37:M37" si="11">G19</f>
+        <v>85320</v>
       </c>
       <c r="H37" s="22">
         <f t="shared" si="11"/>
-        <v>9468</v>
+        <v>89950</v>
       </c>
       <c r="I37" s="22">
         <f t="shared" si="11"/>
-        <v>11951.333333</v>
+        <v>110360</v>
       </c>
       <c r="J37" s="22">
         <f t="shared" si="11"/>
-        <v>10618</v>
+        <v>125843</v>
       </c>
       <c r="K37" s="22">
         <f t="shared" si="11"/>
-        <v>16042.333333</v>
+        <v>143015</v>
       </c>
       <c r="L37" s="22">
         <f t="shared" si="11"/>
-        <v>26034</v>
+        <v>168088</v>
       </c>
       <c r="M37" s="22">
         <f t="shared" si="11"/>
-        <v>27504.666667000001</v>
+        <v>198270</v>
       </c>
       <c r="N37" s="23">
         <f ca="1">M37*(1+N38)</f>
-        <v>51794.5</v>
+        <v>373365.56880804023</v>
       </c>
       <c r="O37" s="23">
         <f t="shared" ref="O37:S37" ca="1" si="12">N37*(1+O38)</f>
-        <v>77970.100000000006</v>
+        <v>562054.86560387257</v>
       </c>
       <c r="P37" s="23">
         <f t="shared" ca="1" si="12"/>
-        <v>93531.8</v>
+        <v>674232.85693731683</v>
       </c>
       <c r="Q37" s="23">
         <f t="shared" ca="1" si="12"/>
-        <v>107535.72293147843</v>
+        <v>775181.46443146013</v>
       </c>
       <c r="R37" s="23">
         <f t="shared" ca="1" si="12"/>
-        <v>118274.43673158367</v>
+        <v>852592.50201736286</v>
       </c>
       <c r="S37" s="23">
         <f t="shared" ca="1" si="12"/>
-        <v>124188.15856816286</v>
+        <v>895222.12711823103</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" s="16"/>
-      <c r="E38" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="18">
-        <f>F37/E37-1</f>
-        <v>6.7532917570207074E-2</v>
-      </c>
-      <c r="G38" s="18">
-        <f t="shared" ref="G38:M38" si="13">G37/F37-1</f>
-        <v>0.34130724975291549</v>
-      </c>
+      <c r="E38" s="24"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
       <c r="H38" s="18">
-        <f t="shared" si="13"/>
-        <v>0.42318869619084132</v>
+        <f t="shared" ref="G38:M38" si="13">H37/G37-1</f>
+        <v>5.4266291608063844E-2</v>
       </c>
       <c r="I38" s="18">
         <f t="shared" si="13"/>
-        <v>0.26228700179552189</v>
+        <v>0.22690383546414683</v>
       </c>
       <c r="J38" s="18">
         <f t="shared" si="13"/>
-        <v>-0.11156356331543382</v>
+        <v>0.14029539688292858</v>
       </c>
       <c r="K38" s="18">
         <f t="shared" si="13"/>
-        <v>0.51086205810887186</v>
+        <v>0.13645574247276371</v>
       </c>
       <c r="L38" s="18">
         <f t="shared" si="13"/>
-        <v>0.62283125899438629</v>
+        <v>0.17531727441177503</v>
       </c>
       <c r="M38" s="18">
         <f t="shared" si="13"/>
-        <v>5.6490230736728986E-2</v>
+        <v>0.17956070629670173</v>
       </c>
       <c r="N38" s="18">
         <f ca="1">OFFSET(N38,$E$10,0)</f>
@@ -3337,11 +4754,11 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N39" s="25">
         <f>N40</f>
-        <v>0.88311680439824602</v>
+        <v>-0.73876784183184552</v>
       </c>
       <c r="O39" s="25">
         <f>O40*$I$10</f>
@@ -3366,11 +4783,11 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N40" s="25">
         <f>N20</f>
-        <v>0.88311680439824602</v>
+        <v>-0.73876784183184552</v>
       </c>
       <c r="O40" s="25">
         <f t="shared" ref="O40:P40" si="15">O20</f>
@@ -3395,11 +4812,11 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N41" s="25">
         <f>N40</f>
-        <v>0.88311680439824602</v>
+        <v>-0.73876784183184552</v>
       </c>
       <c r="O41" s="25">
         <f>O40*$Q$10</f>
@@ -3426,107 +4843,92 @@
       <c r="B43" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="22">
-        <f>E22</f>
-        <v>771.88367000000005</v>
-      </c>
-      <c r="F43" s="22">
-        <f t="shared" ref="F43:M43" si="16">F22</f>
-        <v>916.43499999999995</v>
-      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
       <c r="G43" s="22">
-        <f t="shared" si="16"/>
-        <v>1829.3333299999999</v>
+        <f t="shared" ref="F43:M43" si="16">G22</f>
+        <v>20182</v>
       </c>
       <c r="H43" s="22">
         <f t="shared" si="16"/>
-        <v>3094.6666700000001</v>
+        <v>22326</v>
       </c>
       <c r="I43" s="22">
         <f t="shared" si="16"/>
-        <v>4063.6666700000001</v>
+        <v>35058</v>
       </c>
       <c r="J43" s="22">
         <f t="shared" si="16"/>
-        <v>2614</v>
+        <v>42959</v>
       </c>
       <c r="K43" s="22">
         <f t="shared" si="16"/>
-        <v>4437.3333300000004</v>
+        <v>52959</v>
       </c>
       <c r="L43" s="22">
         <f t="shared" si="16"/>
-        <v>9569.6666700000005</v>
+        <v>69916</v>
       </c>
       <c r="M43" s="22">
         <f t="shared" si="16"/>
-        <v>6149</v>
+        <v>83383</v>
       </c>
       <c r="N43" s="23">
         <f ca="1">N44*N37</f>
-        <v>28181.8</v>
+        <v>203151.17989428277</v>
       </c>
       <c r="O43" s="23">
         <f t="shared" ref="O43:S43" ca="1" si="17">O44*O37</f>
-        <v>45402.400000000001</v>
+        <v>327287.50931566412</v>
       </c>
       <c r="P43" s="23">
         <f t="shared" ca="1" si="17"/>
-        <v>54400.999999999993</v>
+        <v>392154.77142797387</v>
       </c>
       <c r="Q43" s="23">
         <f t="shared" ca="1" si="17"/>
-        <v>62546.116542131742</v>
+        <v>450869.61703437608</v>
       </c>
       <c r="R43" s="23">
         <f t="shared" ca="1" si="17"/>
-        <v>68792.086035283006</v>
+        <v>495894.28089961439</v>
       </c>
       <c r="S43" s="23">
         <f t="shared" ca="1" si="17"/>
-        <v>72231.690337047155</v>
+        <v>520688.99494459509</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C44" s="16"/>
-      <c r="E44" s="18">
-        <f>E43/E19</f>
-        <v>0.16613672185662093</v>
-      </c>
-      <c r="F44" s="18">
-        <f t="shared" ref="F44:M44" si="18">F43/F19</f>
-        <v>0.18477115583210579</v>
-      </c>
-      <c r="G44" s="18">
-        <f t="shared" si="18"/>
-        <v>0.27497745213573616</v>
-      </c>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
       <c r="H44" s="18">
-        <f t="shared" si="18"/>
-        <v>0.32685537283481203</v>
+        <f t="shared" ref="F44:M44" si="18">H43/H19</f>
+        <v>0.24820455808782657</v>
       </c>
       <c r="I44" s="18">
         <f t="shared" si="18"/>
-        <v>0.34001785045852673</v>
+        <v>0.31766944545125048</v>
       </c>
       <c r="J44" s="18">
         <f t="shared" si="18"/>
-        <v>0.24618572235825956</v>
+        <v>0.3413698020549415</v>
       </c>
       <c r="K44" s="18">
         <f t="shared" si="18"/>
-        <v>0.27660149168401527</v>
+        <v>0.37030381428521486</v>
       </c>
       <c r="L44" s="18">
         <f t="shared" si="18"/>
-        <v>0.36758341668587236</v>
+        <v>0.41594878872971303</v>
       </c>
       <c r="M44" s="18">
         <f t="shared" si="18"/>
-        <v>0.22356206219279681</v>
+        <v>0.4205527815604983</v>
       </c>
       <c r="N44" s="18">
         <f ca="1">OFFSET(N44,$E$11,0)</f>
@@ -3555,7 +4957,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45" s="16"/>
       <c r="N45" s="25">
@@ -3585,7 +4987,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C46" s="16"/>
       <c r="N46" s="25">
@@ -3615,7 +5017,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C47" s="16"/>
       <c r="N47" s="25">
@@ -3649,23 +5051,23 @@
       </c>
       <c r="N49" s="23">
         <f ca="1">N50*N43</f>
-        <v>1013.1481278962851</v>
+        <v>7303.3744327833574</v>
       </c>
       <c r="O49" s="23">
         <f t="shared" ref="O49:S49" ca="1" si="24">O50*O43</f>
-        <v>1305.7890287206153</v>
+        <v>9412.9041394659835</v>
       </c>
       <c r="P49" s="23">
         <f t="shared" ca="1" si="24"/>
-        <v>1173.4439526010219</v>
+        <v>8458.8820980458459</v>
       </c>
       <c r="Q49" s="23">
         <f t="shared" ca="1" si="24"/>
-        <v>899.42417988692921</v>
+        <v>6483.5845605843942</v>
       </c>
       <c r="R49" s="23">
         <f t="shared" ca="1" si="24"/>
-        <v>494.62116103816771</v>
+        <v>3565.523581374639</v>
       </c>
       <c r="S49" s="23">
         <f t="shared" ca="1" si="24"/>
@@ -3674,7 +5076,7 @@
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B50" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C50" s="16"/>
       <c r="N50" s="25">
@@ -3704,7 +5106,7 @@
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B52" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
@@ -3719,309 +5121,273 @@
       <c r="M52" s="27"/>
       <c r="N52" s="28">
         <f ca="1">N43-N49</f>
-        <v>27168.651872103714</v>
+        <v>195847.8054614994</v>
       </c>
       <c r="O52" s="28">
         <f t="shared" ref="O52:S52" ca="1" si="26">O43-O49</f>
-        <v>44096.610971279384</v>
+        <v>317874.60517619812</v>
       </c>
       <c r="P52" s="28">
         <f t="shared" ca="1" si="26"/>
-        <v>53227.556047398968</v>
+        <v>383695.88932992803</v>
       </c>
       <c r="Q52" s="28">
         <f t="shared" ca="1" si="26"/>
-        <v>61646.692362244816</v>
+        <v>444386.03247379168</v>
       </c>
       <c r="R52" s="28">
         <f t="shared" ca="1" si="26"/>
-        <v>68297.464874244833</v>
+        <v>492328.75731823978</v>
       </c>
       <c r="S52" s="29">
         <f t="shared" ca="1" si="26"/>
-        <v>72231.690337047155</v>
+        <v>520688.99494459509</v>
       </c>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>27</v>
-      </c>
-      <c r="E54" s="22">
-        <f>E26</f>
-        <v>223</v>
-      </c>
-      <c r="F54" s="22">
-        <f t="shared" ref="F54:M54" si="27">F26</f>
-        <v>201</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
       <c r="G54" s="22">
-        <f t="shared" si="27"/>
-        <v>195</v>
-      </c>
-      <c r="H54" s="22">
-        <f t="shared" si="27"/>
-        <v>201</v>
+        <f>H26</f>
+        <v>8778</v>
+      </c>
+      <c r="H54" s="22" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="I54" s="22">
-        <f t="shared" si="27"/>
-        <v>240</v>
+        <f t="shared" ref="F54:M54" si="27">I26</f>
+        <v>10261</v>
       </c>
       <c r="J54" s="22">
         <f t="shared" si="27"/>
-        <v>351</v>
+        <v>11682</v>
       </c>
       <c r="K54" s="22">
         <f t="shared" si="27"/>
-        <v>1017</v>
+        <v>12796</v>
       </c>
       <c r="L54" s="22">
         <f t="shared" si="27"/>
-        <v>1138</v>
+        <v>11686</v>
       </c>
       <c r="M54" s="22">
         <f t="shared" si="27"/>
-        <v>1552</v>
+        <v>14460</v>
       </c>
       <c r="N54" s="23">
         <f ca="1">N55*N$37</f>
-        <v>2823.3807804479393</v>
+        <v>28864.530084599286</v>
       </c>
       <c r="O54" s="23">
         <f t="shared" ref="O54:S54" ca="1" si="28">O55*O$37</f>
-        <v>4250.2443655137877</v>
+        <v>43451.916654262801</v>
       </c>
       <c r="P54" s="23">
         <f t="shared" ca="1" si="28"/>
-        <v>5098.5314363629459</v>
+        <v>52124.288389051413</v>
       </c>
       <c r="Q54" s="23">
         <f t="shared" ca="1" si="28"/>
-        <v>5861.902196880189</v>
+        <v>59928.52734797696</v>
       </c>
       <c r="R54" s="23">
         <f t="shared" ca="1" si="28"/>
-        <v>6447.2824621583204</v>
+        <v>65913.099600881003</v>
       </c>
       <c r="S54" s="23">
         <f t="shared" ca="1" si="28"/>
-        <v>6769.6465852662368</v>
+        <v>69208.754580925059</v>
       </c>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>25</v>
-      </c>
-      <c r="E55" s="18">
-        <f>E54/E37</f>
-        <v>4.7997503268888256E-2</v>
-      </c>
-      <c r="F55" s="18">
-        <f t="shared" ref="F55:M55" si="29">F54/F37</f>
-        <v>4.0525517164068665E-2</v>
-      </c>
-      <c r="G55" s="18">
-        <f t="shared" si="29"/>
-        <v>2.9311554262485641E-2</v>
-      </c>
-      <c r="H55" s="18">
-        <f t="shared" si="29"/>
-        <v>2.1229404309252218E-2</v>
+        <v>24</v>
+      </c>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18" t="e">
+        <f t="shared" ref="F55:M55" si="29">H54/H37</f>
+        <v>#REF!</v>
       </c>
       <c r="I55" s="18">
         <f t="shared" si="29"/>
-        <v>2.0081441401798444E-2</v>
+        <v>9.2977528089887643E-2</v>
       </c>
       <c r="J55" s="18">
         <f t="shared" si="29"/>
-        <v>3.3057072895083819E-2</v>
+        <v>9.2829954784930432E-2</v>
       </c>
       <c r="K55" s="18">
         <f t="shared" si="29"/>
-        <v>6.3394768010958391E-2</v>
+        <v>8.9473132188931229E-2</v>
       </c>
       <c r="L55" s="18">
         <f t="shared" si="29"/>
-        <v>4.3712068833064457E-2</v>
+        <v>6.9523106943981727E-2</v>
       </c>
       <c r="M55" s="18">
         <f t="shared" si="29"/>
-        <v>5.642678818071567E-2</v>
+        <v>7.2930851868663937E-2</v>
       </c>
       <c r="N55" s="25">
         <f>AVERAGE(K55:M55)</f>
-        <v>5.4511208341579499E-2</v>
+        <v>7.7309030333858955E-2</v>
       </c>
       <c r="O55" s="25">
         <f>N55</f>
-        <v>5.4511208341579499E-2</v>
+        <v>7.7309030333858955E-2</v>
       </c>
       <c r="P55" s="25">
         <f t="shared" ref="P55:S55" si="30">O55</f>
-        <v>5.4511208341579499E-2</v>
+        <v>7.7309030333858955E-2</v>
       </c>
       <c r="Q55" s="25">
         <f t="shared" si="30"/>
-        <v>5.4511208341579499E-2</v>
+        <v>7.7309030333858955E-2</v>
       </c>
       <c r="R55" s="25">
         <f t="shared" si="30"/>
-        <v>5.4511208341579499E-2</v>
+        <v>7.7309030333858955E-2</v>
       </c>
       <c r="S55" s="25">
         <f t="shared" si="30"/>
-        <v>5.4511208341579499E-2</v>
+        <v>7.7309030333858955E-2</v>
       </c>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="22">
-        <f>E29</f>
-        <v>134.15733399999999</v>
-      </c>
-      <c r="F57" s="22">
-        <f t="shared" ref="F57:M57" si="31">F29</f>
-        <v>91.348332999999997</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
       <c r="G57" s="22">
-        <f t="shared" si="31"/>
-        <v>164</v>
+        <f t="shared" ref="F57:M57" si="31">G29</f>
+        <v>0</v>
       </c>
       <c r="H57" s="22">
         <f t="shared" si="31"/>
-        <v>471.33333299999998</v>
+        <v>5378</v>
       </c>
       <c r="I57" s="22">
         <f t="shared" si="31"/>
-        <v>671</v>
+        <v>5726</v>
       </c>
       <c r="J57" s="22">
         <f t="shared" si="31"/>
-        <v>508.33333399999998</v>
+        <v>7017</v>
       </c>
       <c r="K57" s="22">
         <f t="shared" si="31"/>
-        <v>1082</v>
+        <v>7674</v>
       </c>
       <c r="L57" s="22">
         <f t="shared" si="31"/>
-        <v>979.33333300000004</v>
+        <v>15564</v>
       </c>
       <c r="M57" s="22">
         <f t="shared" si="31"/>
-        <v>1754.333333</v>
+        <v>14683</v>
       </c>
       <c r="N57" s="23">
         <f ca="1">N58*N$37</f>
-        <v>2915.1176934223399</v>
+        <v>27418.553965542851</v>
       </c>
       <c r="O57" s="23">
         <f t="shared" ref="O57:S57" ca="1" si="32">O58*O$37</f>
-        <v>4388.3427404050472</v>
+        <v>41275.181622542405</v>
       </c>
       <c r="P57" s="23">
         <f t="shared" ca="1" si="32"/>
-        <v>5264.1922419878483</v>
+        <v>49513.108646562097</v>
       </c>
       <c r="Q57" s="23">
         <f t="shared" ca="1" si="32"/>
-        <v>6052.3663437723162</v>
+        <v>56926.392231229285</v>
       </c>
       <c r="R57" s="23">
         <f t="shared" ca="1" si="32"/>
-        <v>6656.7667068086512</v>
+        <v>62611.165785346129</v>
       </c>
       <c r="S57" s="23">
         <f t="shared" ca="1" si="32"/>
-        <v>6989.6050421490836</v>
+        <v>65741.724074613434</v>
       </c>
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B58" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C58" s="16"/>
-      <c r="E58" s="18">
-        <f>E57/E$37</f>
-        <v>2.887541290228849E-2</v>
-      </c>
-      <c r="F58" s="18">
-        <f t="shared" ref="F58:M58" si="33">F57/F$37</f>
-        <v>1.8417604163684379E-2</v>
-      </c>
-      <c r="G58" s="18">
-        <f t="shared" si="33"/>
-        <v>2.4651768713064848E-2</v>
-      </c>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
       <c r="H58" s="18">
-        <f t="shared" si="33"/>
-        <v>4.9781720849176168E-2</v>
+        <f t="shared" ref="F58:M58" si="33">H57/H$37</f>
+        <v>5.9788771539744302E-2</v>
       </c>
       <c r="I58" s="18">
         <f t="shared" si="33"/>
-        <v>5.6144363252528147E-2</v>
+        <v>5.1884740848133382E-2</v>
       </c>
       <c r="J58" s="18">
         <f t="shared" si="33"/>
-        <v>4.7874678282162367E-2</v>
+        <v>5.5759954864394522E-2</v>
       </c>
       <c r="K58" s="18">
         <f t="shared" si="33"/>
-        <v>6.7446547677342164E-2</v>
+        <v>5.3658707128622869E-2</v>
       </c>
       <c r="L58" s="18">
         <f t="shared" si="33"/>
-        <v>3.7617474571713917E-2</v>
+        <v>9.2594355337680262E-2</v>
       </c>
       <c r="M58" s="18">
         <f t="shared" si="33"/>
-        <v>6.3783115579613359E-2</v>
+        <v>7.4055580773692439E-2</v>
       </c>
       <c r="N58" s="25">
         <f>AVERAGE(K58:M58)</f>
-        <v>5.6282379276223149E-2</v>
+        <v>7.3436214413331855E-2</v>
       </c>
       <c r="O58" s="25">
         <f>N58</f>
-        <v>5.6282379276223149E-2</v>
+        <v>7.3436214413331855E-2</v>
       </c>
       <c r="P58" s="25">
         <f t="shared" ref="P58:S58" si="34">O58</f>
-        <v>5.6282379276223149E-2</v>
+        <v>7.3436214413331855E-2</v>
       </c>
       <c r="Q58" s="25">
         <f t="shared" si="34"/>
-        <v>5.6282379276223149E-2</v>
+        <v>7.3436214413331855E-2</v>
       </c>
       <c r="R58" s="25">
         <f t="shared" si="34"/>
-        <v>5.6282379276223149E-2</v>
+        <v>7.3436214413331855E-2</v>
       </c>
       <c r="S58" s="25">
         <f t="shared" si="34"/>
-        <v>5.6282379276223149E-2</v>
+        <v>7.3436214413331855E-2</v>
       </c>
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>29</v>
-      </c>
-      <c r="E60" s="30">
-        <f>E32</f>
-        <v>181.39975733333333</v>
-      </c>
-      <c r="F60" s="30">
-        <f t="shared" ref="F60:L60" si="35">F32</f>
-        <v>-9.8333333333333286</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
       <c r="G60" s="30">
-        <f t="shared" si="35"/>
-        <v>637.83333333333326</v>
+        <f t="shared" ref="F60:L60" si="35">G32</f>
+        <v>0</v>
       </c>
       <c r="H60" s="30">
         <f t="shared" si="35"/>
-        <v>-240.99999999999997</v>
+        <v>139660</v>
       </c>
       <c r="I60" s="30">
         <f t="shared" si="35"/>
@@ -4040,101 +5406,92 @@
         <v>2898.8333333333335</v>
       </c>
       <c r="M60" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N60" s="23">
         <f ca="1">N61*N$37</f>
-        <v>1150.379519464426</v>
+        <v>1755.312875800226</v>
       </c>
       <c r="O60" s="23">
         <f t="shared" ref="O60:S60" ca="1" si="36">O61*O$37</f>
-        <v>1731.7515599261167</v>
+        <v>2642.4025805332844</v>
       </c>
       <c r="P60" s="23">
         <f t="shared" ca="1" si="36"/>
-        <v>2077.3840299383683</v>
+        <v>3169.7877735429738</v>
       </c>
       <c r="Q60" s="23">
         <f t="shared" ca="1" si="36"/>
-        <v>2388.4175592229644</v>
+        <v>3644.3799837841802</v>
       </c>
       <c r="R60" s="23">
         <f t="shared" ca="1" si="36"/>
-        <v>2626.9293012231969</v>
+        <v>4008.3144286163201</v>
       </c>
       <c r="S60" s="23">
         <f t="shared" ca="1" si="36"/>
-        <v>2758.2757662843574</v>
+        <v>4208.7301500471358</v>
       </c>
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C61" s="16"/>
-      <c r="E61" s="18">
-        <f>E60/E$37</f>
-        <v>3.9043656706646647E-2</v>
-      </c>
-      <c r="F61" s="18">
-        <f t="shared" ref="F61:L61" si="37">F60/F$37</f>
-        <v>-1.9825916357214348E-3</v>
-      </c>
-      <c r="G61" s="18">
-        <f t="shared" si="37"/>
-        <v>9.5876340309856867E-2</v>
-      </c>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
       <c r="H61" s="18">
-        <f t="shared" si="37"/>
-        <v>-2.545416138572032E-2</v>
+        <f t="shared" ref="F61:L61" si="37">H60/H$37</f>
+        <v>1.5526403557531963</v>
       </c>
       <c r="I61" s="18">
         <f t="shared" si="37"/>
-        <v>7.0731299159667846E-2</v>
+        <v>7.6597801135677174E-3</v>
       </c>
       <c r="J61" s="18">
         <f t="shared" si="37"/>
-        <v>-6.7416964902367052E-2</v>
+        <v>-5.6883047395034558E-3</v>
       </c>
       <c r="K61" s="18">
         <f t="shared" si="37"/>
-        <v>2.2700355310380872E-2</v>
+        <v>2.5463529466606062E-3</v>
       </c>
       <c r="L61" s="18">
         <f t="shared" si="37"/>
-        <v>0.11134798084556094</v>
+        <v>1.7245926736788667E-2</v>
       </c>
       <c r="M61" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N61" s="25">
         <f>AVERAGE(J61:L61)</f>
-        <v>2.2210457084524921E-2</v>
+        <v>4.7013249813152727E-3</v>
       </c>
       <c r="O61" s="25">
         <f>N61</f>
-        <v>2.2210457084524921E-2</v>
+        <v>4.7013249813152727E-3</v>
       </c>
       <c r="P61" s="25">
         <f t="shared" ref="P61:S61" si="38">O61</f>
-        <v>2.2210457084524921E-2</v>
+        <v>4.7013249813152727E-3</v>
       </c>
       <c r="Q61" s="25">
         <f t="shared" si="38"/>
-        <v>2.2210457084524921E-2</v>
+        <v>4.7013249813152727E-3</v>
       </c>
       <c r="R61" s="25">
         <f t="shared" si="38"/>
-        <v>2.2210457084524921E-2</v>
+        <v>4.7013249813152727E-3</v>
       </c>
       <c r="S61" s="25">
         <f t="shared" si="38"/>
-        <v>2.2210457084524921E-2</v>
+        <v>4.7013249813152727E-3</v>
       </c>
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B63" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C63" s="33"/>
       <c r="D63" s="33"/>
@@ -4149,32 +5506,32 @@
       <c r="M63" s="33"/>
       <c r="N63" s="34">
         <f ca="1">N52+N54-N57-N60</f>
-        <v>25926.535439664887</v>
+        <v>195538.46870475562</v>
       </c>
       <c r="O63" s="34">
         <f t="shared" ref="O63:S63" ca="1" si="39">O52+O54-O57-O60</f>
-        <v>42226.761036462012</v>
+        <v>317408.93762738525</v>
       </c>
       <c r="P63" s="34">
         <f t="shared" ca="1" si="39"/>
-        <v>50984.511211835699</v>
+        <v>383137.28129887435</v>
       </c>
       <c r="Q63" s="34">
         <f t="shared" ca="1" si="39"/>
-        <v>59067.810656129725</v>
+        <v>443743.78760675521</v>
       </c>
       <c r="R63" s="34">
         <f t="shared" ca="1" si="39"/>
-        <v>65461.051328371308</v>
+        <v>491622.37670515833</v>
       </c>
       <c r="S63" s="35">
         <f t="shared" ca="1" si="39"/>
-        <v>69253.456113879962</v>
+        <v>519947.29530085961</v>
       </c>
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B64" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -4189,32 +5546,32 @@
       <c r="M64" s="2"/>
       <c r="N64" s="37">
         <f t="shared" ref="N64:S64" ca="1" si="40">N63/(1+wacc)^N67</f>
-        <v>25926.535439664887</v>
+        <v>195538.46870475562</v>
       </c>
       <c r="O64" s="37">
         <f t="shared" ca="1" si="40"/>
-        <v>42226.761036462012</v>
+        <v>317408.93762738525</v>
       </c>
       <c r="P64" s="37">
         <f t="shared" ca="1" si="40"/>
-        <v>50984.511211835699</v>
+        <v>383137.28129887435</v>
       </c>
       <c r="Q64" s="37">
         <f t="shared" ca="1" si="40"/>
-        <v>59067.810656129725</v>
+        <v>443743.78760675521</v>
       </c>
       <c r="R64" s="37">
         <f t="shared" ca="1" si="40"/>
-        <v>65461.051328371308</v>
+        <v>491622.37670515833</v>
       </c>
       <c r="S64" s="38">
         <f t="shared" ca="1" si="40"/>
-        <v>69253.456113879962</v>
+        <v>519947.29530085961</v>
       </c>
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N66" s="39">
         <f>YEARFRAC(D5,D6)</f>
@@ -4243,7 +5600,7 @@
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N67" s="39">
         <f>N66/2</f>
@@ -4272,7 +5629,7 @@
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S69" s="23" t="e">
         <f ca="1">(S63*(1+tgr))/(wacc-tgr)</f>
@@ -4281,7 +5638,7 @@
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S70" s="23" t="e">
         <f ca="1">S69/(1+wacc)^S67</f>
@@ -4290,7 +5647,7 @@
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S71" s="30" t="e">
         <f ca="1">SUM(N64:S64,S70)</f>
@@ -4299,7 +5656,7 @@
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S72" s="23">
         <f>5783+10240</f>
@@ -4308,7 +5665,7 @@
     </row>
     <row r="73" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S73" s="23">
         <f>[1]WACC!F15</f>
@@ -4317,7 +5674,7 @@
     </row>
     <row r="74" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S74" s="30" t="e">
         <f ca="1">S71+S72-S73</f>
@@ -4326,7 +5683,7 @@
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S76" s="30">
         <v>2516</v>
@@ -4334,7 +5691,7 @@
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S77" s="4" t="e">
         <f ca="1">S74/S76</f>

--- a/MSFT Models.xlsx
+++ b/MSFT Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49D003D-7701-4823-8FBB-909980ABFAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F680024F-39FD-4DCD-8BD2-9AD8BBCBEEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A6FAC41-C2C4-48E5-AA85-8063DD4A5C11}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="111">
   <si>
     <t>Ticker</t>
   </si>
@@ -427,7 +427,16 @@
     <t>Plant, Property, and Equipment</t>
   </si>
   <si>
-    <t>Beginning</t>
+    <t>Beginning of period</t>
+  </si>
+  <si>
+    <t>Capital Expenditure</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>End of Period</t>
   </si>
 </sst>
 </file>
@@ -800,7 +809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -877,17 +886,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -896,7 +895,8 @@
     <xf numFmtId="168" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1325,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE4A0FA-AB59-483B-85AC-2FAFADB2EC7A}">
-  <dimension ref="A2:U88"/>
+  <dimension ref="A2:U91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,16 +1336,12 @@
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="51"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:21" s="40" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C3" s="51"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -1401,7 +1397,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="52"/>
+      <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -1467,7 +1463,7 @@
         <v>2016</v>
       </c>
       <c r="H16" s="7">
-        <f t="shared" ref="G16:N16" si="0">G16+1</f>
+        <f t="shared" ref="H16:N16" si="0">G16+1</f>
         <v>2017</v>
       </c>
       <c r="I16" s="7">
@@ -1490,7 +1486,7 @@
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="N16" s="52">
+      <c r="N16" s="7">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
@@ -1544,7 +1540,7 @@
       <c r="M17" s="43">
         <v>198270</v>
       </c>
-      <c r="N17" s="53">
+      <c r="N17" s="43">
         <v>211915</v>
       </c>
     </row>
@@ -1574,7 +1570,7 @@
       <c r="M18" s="43">
         <v>-62650</v>
       </c>
-      <c r="N18" s="53">
+      <c r="N18" s="43">
         <v>-65863</v>
       </c>
     </row>
@@ -1584,7 +1580,7 @@
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="42">
-        <f t="shared" ref="F19:N19" si="2">SUM(G17:G18)</f>
+        <f t="shared" ref="G19:N19" si="2">SUM(G17:G18)</f>
         <v>52540</v>
       </c>
       <c r="H19" s="42">
@@ -1611,7 +1607,7 @@
         <f t="shared" si="2"/>
         <v>135620</v>
       </c>
-      <c r="N19" s="54">
+      <c r="N19" s="42">
         <f t="shared" si="2"/>
         <v>146052</v>
       </c>
@@ -1642,7 +1638,7 @@
       <c r="M20" s="43">
         <v>-24512</v>
       </c>
-      <c r="N20" s="53">
+      <c r="N20" s="43">
         <v>-27195</v>
       </c>
     </row>
@@ -1672,7 +1668,7 @@
       <c r="M21" s="43">
         <v>-27725</v>
       </c>
-      <c r="N21" s="53">
+      <c r="N21" s="43">
         <v>-30334</v>
       </c>
     </row>
@@ -1709,7 +1705,7 @@
         <f t="shared" ref="M22" si="8">SUM(M19:M21)</f>
         <v>83383</v>
       </c>
-      <c r="N22" s="54">
+      <c r="N22" s="42">
         <f t="shared" ref="N22" si="9">SUM(N19:N21)</f>
         <v>88523</v>
       </c>
@@ -1740,7 +1736,7 @@
       <c r="M23" s="43">
         <v>2094</v>
       </c>
-      <c r="N23" s="53">
+      <c r="N23" s="43">
         <v>2994</v>
       </c>
     </row>
@@ -1770,7 +1766,7 @@
       <c r="M24" s="43">
         <v>-2063</v>
       </c>
-      <c r="N24" s="53">
+      <c r="N24" s="43">
         <v>-1968</v>
       </c>
     </row>
@@ -1807,7 +1803,7 @@
         <f t="shared" ref="M25" si="15">SUM(M22:M24)</f>
         <v>83414</v>
       </c>
-      <c r="N25" s="54">
+      <c r="N25" s="42">
         <f t="shared" ref="N25" si="16">SUM(N22:N24)</f>
         <v>89549</v>
       </c>
@@ -1838,7 +1834,7 @@
       <c r="M26" s="43">
         <v>-10978</v>
       </c>
-      <c r="N26" s="53">
+      <c r="N26" s="43">
         <v>-16950</v>
       </c>
     </row>
@@ -1875,7 +1871,7 @@
         <f t="shared" ref="M27" si="22">SUM(M25:M26)</f>
         <v>72436</v>
       </c>
-      <c r="N27" s="54">
+      <c r="N27" s="42">
         <f t="shared" ref="N27" si="23">SUM(N25:N26)</f>
         <v>72599</v>
       </c>
@@ -1890,7 +1886,7 @@
       <c r="K28" s="44"/>
       <c r="L28" s="44"/>
       <c r="M28" s="44"/>
-      <c r="N28" s="55"/>
+      <c r="N28" s="44"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="45" t="s">
@@ -1955,7 +1951,7 @@
         <f t="shared" si="24"/>
         <v>97843</v>
       </c>
-      <c r="N30" s="54">
+      <c r="N30" s="42">
         <f t="shared" si="24"/>
         <v>102384</v>
       </c>
@@ -2023,7 +2019,7 @@
         <f t="shared" si="25"/>
         <v>105345</v>
       </c>
-      <c r="N32" s="54">
+      <c r="N32" s="42">
         <f t="shared" si="25"/>
         <v>111995</v>
       </c>
@@ -2038,7 +2034,7 @@
       <c r="K33" s="44"/>
       <c r="L33" s="44"/>
       <c r="M33" s="44"/>
-      <c r="N33" s="55"/>
+      <c r="N33" s="44"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
@@ -2052,42 +2048,42 @@
       <c r="K34" s="44"/>
       <c r="L34" s="44"/>
       <c r="M34" s="44"/>
-      <c r="N34" s="55"/>
+      <c r="N34" s="44"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>14</v>
       </c>
       <c r="F35" s="43"/>
-      <c r="G35" s="60">
+      <c r="G35" s="52">
         <f t="shared" ref="G35:N35" si="26">(G17-F17)/G17</f>
         <v>1</v>
       </c>
-      <c r="H35" s="61">
+      <c r="H35" s="53">
         <f t="shared" si="26"/>
         <v>5.1473040578098941E-2</v>
       </c>
-      <c r="I35" s="61">
+      <c r="I35" s="53">
         <f t="shared" si="26"/>
         <v>0.18494019572308806</v>
       </c>
-      <c r="J35" s="61">
+      <c r="J35" s="53">
         <f t="shared" si="26"/>
         <v>0.12303425697098766</v>
       </c>
-      <c r="K35" s="61">
+      <c r="K35" s="53">
         <f t="shared" si="26"/>
         <v>0.12007132119008496</v>
       </c>
-      <c r="L35" s="61">
+      <c r="L35" s="53">
         <f t="shared" si="26"/>
         <v>0.1491659130931417</v>
       </c>
-      <c r="M35" s="61">
+      <c r="M35" s="53">
         <f t="shared" si="26"/>
         <v>0.15222676148686135</v>
       </c>
-      <c r="N35" s="62">
+      <c r="N35" s="54">
         <f t="shared" si="26"/>
         <v>6.4389023901092413E-2</v>
       </c>
@@ -2097,36 +2093,36 @@
         <v>51</v>
       </c>
       <c r="F36" s="43"/>
-      <c r="G36" s="63">
-        <f>(G19-F19)/G19</f>
+      <c r="G36" s="55">
+        <f t="shared" ref="G36:N38" si="27">(G19-F19)/G19</f>
         <v>1</v>
       </c>
       <c r="H36" s="50">
-        <f>(H19-G19)/H19</f>
+        <f t="shared" si="27"/>
         <v>5.6546176085043726E-2</v>
       </c>
       <c r="I36" s="50">
-        <f>(I19-H19)/I19</f>
+        <f t="shared" si="27"/>
         <v>0.22661685669448803</v>
       </c>
       <c r="J36" s="50">
-        <f>(J19-I19)/J19</f>
+        <f t="shared" si="27"/>
         <v>0.13174490251166604</v>
       </c>
       <c r="K36" s="50">
-        <f>(K19-J19)/K19</f>
+        <f t="shared" si="27"/>
         <v>0.14446496177929996</v>
       </c>
       <c r="L36" s="50">
-        <f>(L19-K19)/L19</f>
+        <f t="shared" si="27"/>
         <v>0.16329754177599778</v>
       </c>
       <c r="M36" s="50">
-        <f>(M19-L19)/M19</f>
+        <f t="shared" si="27"/>
         <v>0.14573071818315883</v>
       </c>
-      <c r="N36" s="59">
-        <f>(N19-M19)/N19</f>
+      <c r="N36" s="51">
+        <f t="shared" si="27"/>
         <v>7.1426615178155725E-2</v>
       </c>
     </row>
@@ -2135,36 +2131,36 @@
         <v>52</v>
       </c>
       <c r="F37" s="43"/>
-      <c r="G37" s="63">
-        <f>(G20-F20)/G20</f>
+      <c r="G37" s="55">
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="H37" s="50">
-        <f>(H20-G20)/H20</f>
+        <f t="shared" si="27"/>
         <v>8.0463296770729456E-2</v>
       </c>
       <c r="I37" s="50">
-        <f>(I20-H20)/I20</f>
+        <f t="shared" si="27"/>
         <v>0.1146950971071574</v>
       </c>
       <c r="J37" s="50">
-        <f>(J20-I20)/J20</f>
+        <f t="shared" si="27"/>
         <v>0.12739985778620527</v>
       </c>
       <c r="K37" s="50">
-        <f>(K20-J20)/K20</f>
+        <f t="shared" si="27"/>
         <v>0.12418911204525404</v>
       </c>
       <c r="L37" s="50">
-        <f>(L20-K20)/L20</f>
+        <f t="shared" si="27"/>
         <v>6.9849391774473843E-2</v>
       </c>
       <c r="M37" s="50">
-        <f>(M20-L20)/M20</f>
+        <f t="shared" si="27"/>
         <v>0.15486292428198434</v>
       </c>
-      <c r="N37" s="59">
-        <f>(N20-M20)/N20</f>
+      <c r="N37" s="51">
+        <f t="shared" si="27"/>
         <v>9.8657841514984371E-2</v>
       </c>
     </row>
@@ -2173,36 +2169,36 @@
         <v>53</v>
       </c>
       <c r="F38" s="43"/>
-      <c r="G38" s="63">
-        <f>(G21-F21)/G21</f>
+      <c r="G38" s="55">
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="H38" s="50">
-        <f>(H21-G21)/H21</f>
+        <f t="shared" si="27"/>
         <v>-2.1647151431663878E-3</v>
       </c>
       <c r="I38" s="50">
-        <f>(I21-H21)/I21</f>
+        <f t="shared" si="27"/>
         <v>8.5362012329568471E-2</v>
       </c>
       <c r="J38" s="50">
-        <f>(J21-I21)/J21</f>
+        <f t="shared" si="27"/>
         <v>3.7882067711490171E-2</v>
       </c>
       <c r="K38" s="50">
-        <f>(K21-J21)/K21</f>
+        <f t="shared" si="27"/>
         <v>6.5198915374964583E-2</v>
       </c>
       <c r="L38" s="50">
-        <f>(L21-K21)/L21</f>
+        <f t="shared" si="27"/>
         <v>2.0417063114494132E-2</v>
       </c>
       <c r="M38" s="50">
-        <f>(M21-L21)/M21</f>
+        <f t="shared" si="27"/>
         <v>9.0207394048692519E-2</v>
       </c>
-      <c r="N38" s="59">
-        <f>(N21-M21)/N21</f>
+      <c r="N38" s="51">
+        <f t="shared" si="27"/>
         <v>8.6009098701127454E-2</v>
       </c>
     </row>
@@ -2211,36 +2207,36 @@
         <v>64</v>
       </c>
       <c r="F39" s="43"/>
-      <c r="G39" s="64">
-        <f t="shared" ref="G39:N39" si="27">(G26/G25)*-1</f>
+      <c r="G39" s="56">
+        <f t="shared" ref="G39:N39" si="28">(G26/G25)*-1</f>
         <v>0.14882572321338575</v>
       </c>
-      <c r="H39" s="65">
-        <f t="shared" si="27"/>
+      <c r="H39" s="57">
+        <f t="shared" si="28"/>
         <v>9.0503001256339866E-2</v>
       </c>
-      <c r="I39" s="65">
-        <f t="shared" si="27"/>
+      <c r="I39" s="57">
+        <f t="shared" si="28"/>
         <v>0.57624714091317064</v>
       </c>
-      <c r="J39" s="65">
-        <f t="shared" si="27"/>
+      <c r="J39" s="57">
+        <f t="shared" si="28"/>
         <v>0.10335773207854072</v>
       </c>
-      <c r="K39" s="65">
-        <f t="shared" si="27"/>
+      <c r="K39" s="57">
+        <f t="shared" si="28"/>
         <v>0.1650392097722817</v>
       </c>
-      <c r="L39" s="65">
-        <f t="shared" si="27"/>
+      <c r="L39" s="57">
+        <f t="shared" si="28"/>
         <v>0.14104532216180543</v>
       </c>
-      <c r="M39" s="65">
-        <f t="shared" si="27"/>
+      <c r="M39" s="57">
+        <f t="shared" si="28"/>
         <v>0.13160860287241949</v>
       </c>
-      <c r="N39" s="66">
-        <f t="shared" si="27"/>
+      <c r="N39" s="58">
+        <f t="shared" si="28"/>
         <v>0.18928184569341924</v>
       </c>
     </row>
@@ -2259,31 +2255,31 @@
         <v>2016</v>
       </c>
       <c r="H41" s="7">
-        <f t="shared" ref="H41:N41" si="28">G41+1</f>
+        <f t="shared" ref="H41:N41" si="29">G41+1</f>
         <v>2017</v>
       </c>
       <c r="I41" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2018</v>
       </c>
       <c r="J41" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2019</v>
       </c>
       <c r="K41" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2020</v>
       </c>
       <c r="L41" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2021</v>
       </c>
       <c r="M41" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2022</v>
       </c>
-      <c r="N41" s="52">
-        <f t="shared" si="28"/>
+      <c r="N41" s="7">
+        <f t="shared" si="29"/>
         <v>2023</v>
       </c>
       <c r="O41" s="12">
@@ -2291,19 +2287,19 @@
         <v>2024</v>
       </c>
       <c r="P41" s="12">
-        <f t="shared" ref="P41:S41" si="29">O41+1</f>
+        <f t="shared" ref="P41:S41" si="30">O41+1</f>
         <v>2025</v>
       </c>
       <c r="Q41" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2026</v>
       </c>
       <c r="R41" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2027</v>
       </c>
       <c r="S41" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2028</v>
       </c>
     </row>
@@ -2316,31 +2312,31 @@
       </c>
       <c r="H42" s="23">
         <f ca="1">G42+H84</f>
-        <v>132981</v>
+        <v>146488</v>
       </c>
       <c r="I42" s="23">
-        <f t="shared" ref="I42:N42" ca="1" si="30">H42+I84</f>
-        <v>133768</v>
+        <f t="shared" ref="I42:N42" ca="1" si="31">H42+I84</f>
+        <v>164633</v>
       </c>
       <c r="J42" s="23">
-        <f t="shared" ca="1" si="30"/>
-        <v>133819</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>185626</v>
       </c>
       <c r="K42" s="23">
-        <f t="shared" ca="1" si="30"/>
-        <v>136527</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>211449</v>
       </c>
       <c r="L42" s="23">
-        <f t="shared" ca="1" si="30"/>
-        <v>130334</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>241442</v>
       </c>
       <c r="M42" s="23">
-        <f t="shared" ca="1" si="30"/>
-        <v>104757</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>254434</v>
       </c>
       <c r="N42" s="23">
-        <f t="shared" ca="1" si="30"/>
-        <v>111262</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>310289</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -2497,51 +2493,51 @@
         <v>193468</v>
       </c>
       <c r="H48" s="49">
-        <f t="shared" ref="H48:S48" ca="1" si="31">SUM(H42:H47)</f>
-        <v>241086</v>
+        <f t="shared" ref="H48:S48" ca="1" si="32">SUM(H42:H47)</f>
+        <v>254593</v>
       </c>
       <c r="I48" s="49">
-        <f t="shared" ca="1" si="31"/>
-        <v>258848</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>289713</v>
       </c>
       <c r="J48" s="49">
-        <f t="shared" ca="1" si="31"/>
-        <v>286556</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>338363</v>
       </c>
       <c r="K48" s="49">
-        <f t="shared" ca="1" si="31"/>
-        <v>301311</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>376233</v>
       </c>
       <c r="L48" s="49">
-        <f t="shared" ca="1" si="31"/>
-        <v>333779</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>444887</v>
       </c>
       <c r="M48" s="49">
-        <f t="shared" ca="1" si="31"/>
-        <v>364840</v>
-      </c>
-      <c r="N48" s="56">
-        <f t="shared" ca="1" si="31"/>
-        <v>411976</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>514517</v>
+      </c>
+      <c r="N48" s="49">
+        <f t="shared" ca="1" si="32"/>
+        <v>611003</v>
       </c>
       <c r="O48" s="49">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P48" s="49">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q48" s="49">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R48" s="49">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="S48" s="49">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -2708,55 +2704,55 @@
         <v>80</v>
       </c>
       <c r="G56" s="49">
-        <f>SUM(G50:G55)</f>
+        <f t="shared" ref="G56:S56" si="33">SUM(G50:G55)</f>
         <v>121471</v>
       </c>
       <c r="H56" s="49">
-        <f>SUM(H50:H55)</f>
+        <f t="shared" si="33"/>
         <v>168692</v>
       </c>
       <c r="I56" s="49">
-        <f>SUM(I50:I55)</f>
+        <f t="shared" si="33"/>
         <v>176130</v>
       </c>
       <c r="J56" s="49">
-        <f>SUM(J50:J55)</f>
+        <f t="shared" si="33"/>
         <v>184226</v>
       </c>
       <c r="K56" s="49">
-        <f>SUM(K50:K55)</f>
+        <f t="shared" si="33"/>
         <v>183007</v>
       </c>
       <c r="L56" s="49">
-        <f>SUM(L50:L55)</f>
+        <f t="shared" si="33"/>
         <v>191791</v>
       </c>
       <c r="M56" s="49">
-        <f>SUM(M50:M55)</f>
+        <f t="shared" si="33"/>
         <v>198298</v>
       </c>
-      <c r="N56" s="56">
-        <f>SUM(N50:N55)</f>
+      <c r="N56" s="49">
+        <f t="shared" si="33"/>
         <v>205753</v>
       </c>
       <c r="O56" s="49">
-        <f>SUM(O50:O55)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="P56" s="49">
-        <f>SUM(P50:P55)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q56" s="49">
-        <f>SUM(Q50:Q55)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R56" s="49">
-        <f>SUM(R50:R55)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="S56" s="49">
-        <f>SUM(S50:S55)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -2856,51 +2852,51 @@
         <v>71997</v>
       </c>
       <c r="H61" s="49">
-        <f t="shared" ref="H61:S61" si="32">SUM(H58:H60)</f>
+        <f t="shared" ref="H61:S61" si="34">SUM(H58:H60)</f>
         <v>72394</v>
       </c>
       <c r="I61" s="49">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>82718</v>
       </c>
       <c r="J61" s="49">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>102330</v>
       </c>
       <c r="K61" s="49">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>118304</v>
       </c>
       <c r="L61" s="49">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>141988</v>
       </c>
       <c r="M61" s="49">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>166542</v>
       </c>
-      <c r="N61" s="56">
-        <f t="shared" si="32"/>
+      <c r="N61" s="49">
+        <f t="shared" si="34"/>
         <v>206223</v>
       </c>
       <c r="O61" s="49">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="P61" s="49">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q61" s="49">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R61" s="49">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S61" s="49">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -2909,55 +2905,55 @@
         <v>101</v>
       </c>
       <c r="G63" s="48">
-        <f>ROUND(G48-(G56+G61), 3)</f>
+        <f t="shared" ref="G63:S63" si="35">ROUND(G48-(G56+G61), 3)</f>
         <v>0</v>
       </c>
       <c r="H63" s="48">
-        <f ca="1">ROUND(H48-(H56+H61), 3)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="35"/>
+        <v>13507</v>
       </c>
       <c r="I63" s="48">
-        <f ca="1">ROUND(I48-(I56+I61), 3)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="35"/>
+        <v>30865</v>
       </c>
       <c r="J63" s="48">
-        <f ca="1">ROUND(J48-(J56+J61), 3)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="35"/>
+        <v>51807</v>
       </c>
       <c r="K63" s="48">
-        <f ca="1">ROUND(K48-(K56+K61), 3)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="35"/>
+        <v>74922</v>
       </c>
       <c r="L63" s="48">
-        <f ca="1">ROUND(L48-(L56+L61), 3)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="35"/>
+        <v>111108</v>
       </c>
       <c r="M63" s="48">
-        <f ca="1">ROUND(M48-(M56+M61), 3)</f>
-        <v>0</v>
-      </c>
-      <c r="N63" s="57">
-        <f ca="1">ROUND(N48-(N56+N61), 3)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="35"/>
+        <v>149677</v>
+      </c>
+      <c r="N63" s="48">
+        <f t="shared" ca="1" si="35"/>
+        <v>199027</v>
       </c>
       <c r="O63" s="48">
-        <f>ROUND(O48-(O56+O61), 3)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="P63" s="48">
-        <f>ROUND(P48-(P56+P61), 3)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Q63" s="48">
-        <f>ROUND(Q48-(Q56+Q61), 3)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R63" s="48">
-        <f>ROUND(R48-(R56+R61), 3)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="S63" s="48">
-        <f>ROUND(S48-(S56+S61), 3)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -2993,7 +2989,7 @@
       <c r="M65" s="7">
         <v>2022</v>
       </c>
-      <c r="N65" s="52">
+      <c r="N65" s="7">
         <v>2023</v>
       </c>
       <c r="O65" s="12">
@@ -3021,47 +3017,47 @@
         <v>19546</v>
       </c>
       <c r="I66" s="30">
-        <f t="shared" ref="I66:S66" si="33">I27</f>
+        <f t="shared" ref="I66:S66" si="36">I27</f>
         <v>14636</v>
       </c>
       <c r="J66" s="30">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>38587</v>
       </c>
       <c r="K66" s="30">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>44293</v>
       </c>
       <c r="L66" s="30">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>59870</v>
       </c>
       <c r="M66" s="30">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>72436</v>
       </c>
-      <c r="N66" s="58">
-        <f t="shared" si="33"/>
+      <c r="N66" s="30">
+        <f t="shared" si="36"/>
         <v>72599</v>
       </c>
       <c r="O66" s="30">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P66" s="30">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Q66" s="30">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="R66" s="30">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="S66" s="30">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -3074,47 +3070,47 @@
         <v>8778</v>
       </c>
       <c r="I67" s="30">
-        <f t="shared" ref="I67:S67" si="34">I29</f>
+        <f t="shared" ref="I67:S67" si="37">I29</f>
         <v>10261</v>
       </c>
       <c r="J67" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>11682</v>
       </c>
       <c r="K67" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>12796</v>
       </c>
       <c r="L67" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>11686</v>
       </c>
       <c r="M67" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>14460</v>
       </c>
       <c r="N67" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>13861</v>
       </c>
       <c r="O67" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="P67" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Q67" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="R67" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="S67" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -3127,47 +3123,47 @@
         <v>3266</v>
       </c>
       <c r="I68" s="30">
-        <f t="shared" ref="I68:S68" si="35">I31</f>
+        <f t="shared" ref="I68:S68" si="38">I31</f>
         <v>3940</v>
       </c>
       <c r="J68" s="30">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>4652</v>
       </c>
       <c r="K68" s="30">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>5289</v>
       </c>
       <c r="L68" s="30">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>6118</v>
       </c>
       <c r="M68" s="30">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>7502</v>
       </c>
       <c r="N68" s="30">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>9611</v>
       </c>
       <c r="O68" s="30">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P68" s="30">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Q68" s="30">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R68" s="30">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="S68" s="30">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -3176,51 +3172,51 @@
         <v>89</v>
       </c>
       <c r="H69" s="30">
-        <f ca="1">-1*(SUM(H42:H45)-SUM(G42:G45))</f>
-        <v>-20191</v>
+        <f t="shared" ref="H69:S69" ca="1" si="39">-1*(SUM(H42:H45)-SUM(G42:G45))</f>
+        <v>-33698</v>
       </c>
       <c r="I69" s="30">
-        <f ca="1">-1*(SUM(I42:I45)-SUM(H42:H45))</f>
-        <v>-9811</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>-27169</v>
       </c>
       <c r="J69" s="30">
-        <f ca="1">-1*(SUM(J42:J45)-SUM(I42:I45))</f>
-        <v>-5890</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>-26832</v>
       </c>
       <c r="K69" s="30">
-        <f ca="1">-1*(SUM(K42:K45)-SUM(J42:J45))</f>
-        <v>-6363</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>-29478</v>
       </c>
       <c r="L69" s="30">
-        <f ca="1">-1*(SUM(L42:L45)-SUM(K42:K45))</f>
-        <v>-2491</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>-38677</v>
       </c>
       <c r="M69" s="30">
-        <f ca="1">-1*(SUM(M42:M45)-SUM(L42:L45))</f>
-        <v>14722</v>
-      </c>
-      <c r="N69" s="58">
-        <f ca="1">-1*(SUM(N42:N45)-SUM(M42:M45))</f>
-        <v>-14573</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>-23847</v>
+      </c>
+      <c r="N69" s="30">
+        <f t="shared" ca="1" si="39"/>
+        <v>-63923</v>
       </c>
       <c r="O69" s="30">
-        <f ca="1">-1*(SUM(O42:O45)-SUM(N42:N45))</f>
-        <v>184257</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>383284</v>
       </c>
       <c r="P69" s="30">
-        <f>-1*(SUM(P42:P45)-SUM(O42:O45))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q69" s="30">
-        <f>-1*(SUM(Q42:Q45)-SUM(P42:P45))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="R69" s="30">
-        <f>-1*(SUM(R42:R45)-SUM(Q42:Q45))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="S69" s="30">
-        <f>-1*(SUM(S42:S45)-SUM(R42:R45))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -3233,47 +3229,47 @@
         <v>9106</v>
       </c>
       <c r="I70" s="30">
-        <f t="shared" ref="I70:S70" si="36">(SUM(I50:I52)-SUM(H50:H52))</f>
+        <f t="shared" ref="I70:S70" si="40">(SUM(I50:I52)-SUM(H50:H52))</f>
         <v>-12601</v>
       </c>
       <c r="J70" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>11647</v>
       </c>
       <c r="K70" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1540</v>
       </c>
       <c r="L70" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>15783</v>
       </c>
       <c r="M70" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3930</v>
       </c>
       <c r="N70" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>6611</v>
       </c>
       <c r="O70" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-101814</v>
       </c>
       <c r="P70" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Q70" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R70" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="S70" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
@@ -3291,47 +3287,47 @@
         <v>2599</v>
       </c>
       <c r="I72" s="30">
-        <f t="shared" ref="I72:S72" si="37">I55-H55</f>
+        <f t="shared" ref="I72:S72" si="41">I55-H55</f>
         <v>23870</v>
       </c>
       <c r="J72" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>2029</v>
       </c>
       <c r="K72" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>4325</v>
       </c>
       <c r="L72" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>2505</v>
       </c>
       <c r="M72" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>2870</v>
       </c>
-      <c r="N72" s="58">
-        <f t="shared" si="37"/>
+      <c r="N72" s="30">
+        <f t="shared" si="41"/>
         <v>3388</v>
       </c>
       <c r="O72" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-56702</v>
       </c>
       <c r="P72" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Q72" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R72" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="S72" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -3341,50 +3337,50 @@
       </c>
       <c r="H73" s="42">
         <f ca="1">SUM(H66:H72)</f>
-        <v>23104</v>
+        <v>9597</v>
       </c>
       <c r="I73" s="42">
-        <f t="shared" ref="I73:S73" ca="1" si="38">SUM(I66:I72)</f>
-        <v>30295</v>
+        <f t="shared" ref="I73:S73" ca="1" si="42">SUM(I66:I72)</f>
+        <v>12937</v>
       </c>
       <c r="J73" s="42">
-        <f t="shared" ca="1" si="38"/>
-        <v>62707</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>41765</v>
       </c>
       <c r="K73" s="42">
-        <f t="shared" ca="1" si="38"/>
-        <v>61880</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>38765</v>
       </c>
       <c r="L73" s="42">
-        <f t="shared" ca="1" si="38"/>
-        <v>93471</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>57285</v>
       </c>
       <c r="M73" s="42">
-        <f t="shared" ca="1" si="38"/>
-        <v>115920</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>77351</v>
       </c>
       <c r="N73" s="42">
-        <f t="shared" ca="1" si="38"/>
-        <v>91497</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>42147</v>
       </c>
       <c r="O73" s="42">
-        <f t="shared" ca="1" si="38"/>
-        <v>25741</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>224768</v>
       </c>
       <c r="P73" s="42">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Q73" s="42">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="R73" s="42">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="S73" s="42">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
@@ -3393,51 +3389,51 @@
         <v>93</v>
       </c>
       <c r="H75" s="30">
-        <f>-(H46-G46)</f>
-        <v>-5378</v>
+        <f>-H89</f>
+        <v>-8129</v>
       </c>
       <c r="I75" s="30">
-        <f>-(I46-H46)</f>
-        <v>-5726</v>
+        <f t="shared" ref="I75:S75" si="43">-I89</f>
+        <v>-11632</v>
       </c>
       <c r="J75" s="30">
-        <f>-(J46-I46)</f>
-        <v>-7017</v>
+        <f t="shared" si="43"/>
+        <v>-13925</v>
       </c>
       <c r="K75" s="30">
-        <f>-(K46-J46)</f>
-        <v>-7674</v>
+        <f t="shared" si="43"/>
+        <v>-15441</v>
       </c>
       <c r="L75" s="30">
-        <f>-(L46-K46)</f>
-        <v>-15564</v>
+        <f t="shared" si="43"/>
+        <v>-20622</v>
       </c>
       <c r="M75" s="30">
-        <f>-(M46-L46)</f>
-        <v>-14683</v>
+        <f t="shared" si="43"/>
+        <v>-23886</v>
       </c>
       <c r="N75" s="30">
-        <f>-(N46-M46)</f>
-        <v>-21243</v>
+        <f t="shared" si="43"/>
+        <v>-28107</v>
       </c>
       <c r="O75" s="30">
-        <f>-(O46-N46)</f>
-        <v>95641</v>
+        <f t="shared" si="43"/>
+        <v>0</v>
       </c>
       <c r="P75" s="30">
-        <f>-(P46-O46)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q75" s="30">
-        <f>-(Q46-P46)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="R75" s="30">
-        <f>-(R46-Q46)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="S75" s="30">
-        <f>-(S46-R46)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -3446,51 +3442,51 @@
         <v>94</v>
       </c>
       <c r="H76" s="42">
-        <f>IFERROR(H75, "NA")</f>
-        <v>-5378</v>
+        <f>IFERROR(H89, "NA")</f>
+        <v>8129</v>
       </c>
       <c r="I76" s="42">
-        <f t="shared" ref="I76:S76" si="39">IFERROR(I75, "NA")</f>
-        <v>-5726</v>
+        <f>IFERROR(I89, "NA")</f>
+        <v>11632</v>
       </c>
       <c r="J76" s="42">
-        <f t="shared" si="39"/>
-        <v>-7017</v>
+        <f>IFERROR(J89, "NA")</f>
+        <v>13925</v>
       </c>
       <c r="K76" s="42">
-        <f t="shared" si="39"/>
-        <v>-7674</v>
+        <f>IFERROR(K89, "NA")</f>
+        <v>15441</v>
       </c>
       <c r="L76" s="42">
-        <f t="shared" si="39"/>
-        <v>-15564</v>
+        <f>IFERROR(L89, "NA")</f>
+        <v>20622</v>
       </c>
       <c r="M76" s="42">
-        <f t="shared" si="39"/>
-        <v>-14683</v>
+        <f>IFERROR(M89, "NA")</f>
+        <v>23886</v>
       </c>
       <c r="N76" s="42">
-        <f t="shared" si="39"/>
-        <v>-21243</v>
+        <f>IFERROR(N89, "NA")</f>
+        <v>28107</v>
       </c>
       <c r="O76" s="42">
-        <f t="shared" si="39"/>
-        <v>95641</v>
+        <f t="shared" ref="I76:S76" si="44">IFERROR(O75, "NA")</f>
+        <v>0</v>
       </c>
       <c r="P76" s="42">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="Q76" s="42">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R76" s="42">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="S76" s="42">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -3498,52 +3494,52 @@
       <c r="B78" t="s">
         <v>95</v>
       </c>
-      <c r="H78" s="67">
+      <c r="H78" s="30">
         <f>H54-G54</f>
         <v>35516</v>
       </c>
       <c r="I78" s="30">
-        <f t="shared" ref="I78:S78" si="40">I54-H54</f>
+        <f t="shared" ref="I78:S78" si="45">I54-H54</f>
         <v>-3831</v>
       </c>
       <c r="J78" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>-5580</v>
       </c>
       <c r="K78" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>-7084</v>
       </c>
       <c r="L78" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>-9504</v>
       </c>
       <c r="M78" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>-293</v>
       </c>
       <c r="N78" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>-2544</v>
       </c>
       <c r="O78" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>-47237</v>
       </c>
       <c r="P78" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="Q78" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="R78" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="S78" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
@@ -3557,12 +3553,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B82" s="41" t="s">
         <v>99</v>
       </c>
@@ -3571,51 +3567,51 @@
         <v>35516</v>
       </c>
       <c r="I82" s="42">
-        <f t="shared" ref="I82:S82" si="41">SUM(I78:I81)</f>
+        <f t="shared" ref="I82:S82" si="46">SUM(I78:I81)</f>
         <v>-3831</v>
       </c>
       <c r="J82" s="42">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>-5580</v>
       </c>
       <c r="K82" s="42">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>-7084</v>
       </c>
       <c r="L82" s="42">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>-9504</v>
       </c>
       <c r="M82" s="42">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>-293</v>
       </c>
       <c r="N82" s="42">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>-2544</v>
       </c>
       <c r="O82" s="42">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>-47237</v>
       </c>
       <c r="P82" s="42">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Q82" s="42">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="R82" s="42">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="S82" s="42">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B84" s="41" t="s">
         <v>100</v>
       </c>
@@ -3624,51 +3620,51 @@
         <v>53242</v>
       </c>
       <c r="I84" s="42">
-        <f t="shared" ref="I84:S84" ca="1" si="42">I82+I76+I73</f>
+        <f t="shared" ref="I84:S84" ca="1" si="47">I82+I76+I73</f>
         <v>20738</v>
       </c>
       <c r="J84" s="42">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="47"/>
         <v>50110</v>
       </c>
       <c r="K84" s="42">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="47"/>
         <v>47122</v>
       </c>
       <c r="L84" s="42">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="47"/>
         <v>68403</v>
       </c>
       <c r="M84" s="42">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="47"/>
         <v>100944</v>
       </c>
       <c r="N84" s="42">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="47"/>
         <v>67710</v>
       </c>
       <c r="O84" s="42">
-        <f t="shared" ca="1" si="42"/>
-        <v>74145</v>
+        <f t="shared" ca="1" si="47"/>
+        <v>177531</v>
       </c>
       <c r="P84" s="42">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Q84" s="42">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="R84" s="42">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="S84" s="42">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -3679,28 +3675,240 @@
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="7"/>
-      <c r="P86" s="7"/>
-      <c r="Q86" s="7"/>
-      <c r="R86" s="7"/>
-      <c r="S86" s="7"/>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B87" s="41" t="s">
+      <c r="G86" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H86" s="7">
+        <v>2017</v>
+      </c>
+      <c r="I86" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J86" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K86" s="7">
+        <v>2020</v>
+      </c>
+      <c r="L86" s="7">
+        <v>2021</v>
+      </c>
+      <c r="M86" s="7">
+        <v>2022</v>
+      </c>
+      <c r="N86" s="7">
+        <v>2023</v>
+      </c>
+      <c r="O86" s="12">
+        <v>2024</v>
+      </c>
+      <c r="P86" s="12">
+        <v>2025</v>
+      </c>
+      <c r="Q86" s="12">
+        <v>2026</v>
+      </c>
+      <c r="R86" s="12">
+        <v>2027</v>
+      </c>
+      <c r="S86" s="12">
+        <v>2028</v>
+      </c>
+      <c r="U86" s="30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B87" s="60" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>107</v>
+      </c>
+      <c r="H88" s="30">
+        <f>G91</f>
+        <v>18356</v>
+      </c>
+      <c r="I88" s="30">
+        <f t="shared" ref="I88:S88" si="48">H91</f>
+        <v>2306</v>
+      </c>
+      <c r="J88" s="30">
+        <f t="shared" si="48"/>
+        <v>-15285</v>
+      </c>
+      <c r="K88" s="30">
+        <f t="shared" si="48"/>
+        <v>-36690</v>
+      </c>
+      <c r="L88" s="30">
+        <f t="shared" si="48"/>
+        <v>-64446</v>
+      </c>
+      <c r="M88" s="30">
+        <f t="shared" si="48"/>
+        <v>-95175</v>
+      </c>
+      <c r="N88" s="30">
+        <f t="shared" si="48"/>
+        <v>-130949</v>
+      </c>
+      <c r="O88" s="30">
+        <f t="shared" si="48"/>
+        <v>-171093</v>
+      </c>
+      <c r="P88" s="30">
+        <f t="shared" si="48"/>
+        <v>-171093</v>
+      </c>
+      <c r="Q88" s="30">
+        <f t="shared" si="48"/>
+        <v>-171093</v>
+      </c>
+      <c r="R88" s="30">
+        <f t="shared" si="48"/>
+        <v>-171093</v>
+      </c>
+      <c r="S88" s="30">
+        <f t="shared" si="48"/>
+        <v>-171093</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>108</v>
+      </c>
+      <c r="H89" s="30">
+        <v>8129</v>
+      </c>
+      <c r="I89" s="30">
+        <v>11632</v>
+      </c>
+      <c r="J89" s="30">
+        <v>13925</v>
+      </c>
+      <c r="K89" s="30">
+        <v>15441</v>
+      </c>
+      <c r="L89" s="30">
+        <v>20622</v>
+      </c>
+      <c r="M89" s="30">
+        <v>23886</v>
+      </c>
+      <c r="N89" s="30">
+        <v>28107</v>
+      </c>
+      <c r="O89" s="30"/>
+      <c r="P89" s="30"/>
+      <c r="Q89" s="30"/>
+      <c r="R89" s="30"/>
+      <c r="S89" s="30"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>109</v>
+      </c>
+      <c r="H90" s="30">
+        <v>-24179</v>
+      </c>
+      <c r="I90" s="30">
+        <v>-29223</v>
+      </c>
+      <c r="J90" s="30">
+        <v>-35330</v>
+      </c>
+      <c r="K90" s="30">
+        <v>-43197</v>
+      </c>
+      <c r="L90" s="30">
+        <v>-51351</v>
+      </c>
+      <c r="M90" s="30">
+        <v>-59660</v>
+      </c>
+      <c r="N90" s="30">
+        <v>-68251</v>
+      </c>
+      <c r="O90" s="30"/>
+      <c r="P90" s="30"/>
+      <c r="Q90" s="30"/>
+      <c r="R90" s="30"/>
+      <c r="S90" s="30"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>110</v>
+      </c>
+      <c r="G91" s="59">
+        <v>18356</v>
+      </c>
+      <c r="H91" s="30">
+        <f>SUM(H88:H90)</f>
+        <v>2306</v>
+      </c>
+      <c r="I91" s="30">
+        <f>SUM(I88:I90)</f>
+        <v>-15285</v>
+      </c>
+      <c r="J91" s="30">
+        <f t="shared" ref="I91:S91" si="49">SUM(J88:J90)</f>
+        <v>-36690</v>
+      </c>
+      <c r="K91" s="30">
+        <f t="shared" si="49"/>
+        <v>-64446</v>
+      </c>
+      <c r="L91" s="30">
+        <f t="shared" si="49"/>
+        <v>-95175</v>
+      </c>
+      <c r="M91" s="30">
+        <f t="shared" si="49"/>
+        <v>-130949</v>
+      </c>
+      <c r="N91" s="30">
+        <f t="shared" si="49"/>
+        <v>-171093</v>
+      </c>
+      <c r="O91" s="30">
+        <f t="shared" si="49"/>
+        <v>-171093</v>
+      </c>
+      <c r="P91" s="30">
+        <f t="shared" si="49"/>
+        <v>-171093</v>
+      </c>
+      <c r="Q91" s="30">
+        <f t="shared" si="49"/>
+        <v>-171093</v>
+      </c>
+      <c r="R91" s="30">
+        <f t="shared" si="49"/>
+        <v>-171093</v>
+      </c>
+      <c r="S91" s="30">
+        <f t="shared" si="49"/>
+        <v>-171093</v>
       </c>
     </row>
   </sheetData>
@@ -3923,7 +4131,7 @@
         <v>2016</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="G18:S18" si="0">G18+1</f>
+        <f t="shared" ref="H18:S18" si="0">G18+1</f>
         <v>2017</v>
       </c>
       <c r="I18" s="7">
@@ -4040,7 +4248,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18">
-        <f t="shared" ref="G20:S20" si="1">H19/G19-1</f>
+        <f t="shared" ref="H20:S20" si="1">H19/G19-1</f>
         <v>5.4266291608063844E-2</v>
       </c>
       <c r="I20" s="18">
@@ -4157,7 +4365,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18">
-        <f t="shared" ref="F23:S23" si="2">H22/H19</f>
+        <f t="shared" ref="H23:S23" si="2">H22/H19</f>
         <v>0.24820455808782657</v>
       </c>
       <c r="I23" s="18">
@@ -4218,7 +4426,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7">
-        <f t="shared" ref="F25:M25" si="3">H18</f>
+        <f t="shared" ref="H25:M25" si="3">H18</f>
         <v>2017</v>
       </c>
       <c r="I25" s="7">
@@ -4314,7 +4522,7 @@
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18">
-        <f t="shared" ref="F27:M27" si="5">I26/I19</f>
+        <f t="shared" ref="I27:M27" si="5">I26/I19</f>
         <v>9.2977528089887643E-2</v>
       </c>
       <c r="J27" s="18">
@@ -4367,28 +4575,28 @@
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13">
-        <f>Historicals!H75*-1</f>
-        <v>5378</v>
+        <f>Historicals!H89*-1</f>
+        <v>-8129</v>
       </c>
       <c r="I29" s="13">
-        <f>Historicals!I75*-1</f>
-        <v>5726</v>
+        <f>Historicals!I89*-1</f>
+        <v>-11632</v>
       </c>
       <c r="J29" s="13">
-        <f>Historicals!J75*-1</f>
-        <v>7017</v>
+        <f>Historicals!J89*-1</f>
+        <v>-13925</v>
       </c>
       <c r="K29" s="13">
-        <f>Historicals!K75*-1</f>
-        <v>7674</v>
+        <f>Historicals!K89*-1</f>
+        <v>-15441</v>
       </c>
       <c r="L29" s="13">
-        <f>Historicals!L75*-1</f>
-        <v>15564</v>
+        <f>Historicals!L89*-1</f>
+        <v>-20622</v>
       </c>
       <c r="M29" s="13">
-        <f>Historicals!M75*-1</f>
-        <v>14683</v>
+        <f>Historicals!M89*-1</f>
+        <v>-23886</v>
       </c>
       <c r="N29" s="21"/>
       <c r="O29" s="19"/>
@@ -4408,24 +4616,24 @@
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
       <c r="I30" s="18">
-        <f t="shared" ref="E30:M30" si="6">I29/I19</f>
-        <v>5.1884740848133382E-2</v>
+        <f t="shared" ref="I30:M30" si="6">I29/I19</f>
+        <v>-0.10540050743022834</v>
       </c>
       <c r="J30" s="18">
         <f t="shared" si="6"/>
-        <v>5.5759954864394522E-2</v>
+        <v>-0.11065375110256431</v>
       </c>
       <c r="K30" s="18">
         <f t="shared" si="6"/>
-        <v>5.3658707128622869E-2</v>
+        <v>-0.10796769569625564</v>
       </c>
       <c r="L30" s="18">
         <f t="shared" si="6"/>
-        <v>9.2594355337680262E-2</v>
+        <v>-0.12268573604302509</v>
       </c>
       <c r="M30" s="18">
         <f t="shared" si="6"/>
-        <v>7.4055580773692439E-2</v>
+        <v>-0.12047208352246935</v>
       </c>
       <c r="N30" s="19"/>
       <c r="O30" s="19"/>
@@ -4499,7 +4707,7 @@
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
       <c r="I33" s="18">
-        <f t="shared" ref="F33:L33" si="7">I32/I19</f>
+        <f t="shared" ref="I33:L33" si="7">I32/I19</f>
         <v>7.6597801135677174E-3</v>
       </c>
       <c r="J33" s="18">
@@ -4531,7 +4739,7 @@
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18">
-        <f t="shared" ref="G34:L34" si="8">I32/(I19-H19)</f>
+        <f t="shared" ref="I34:L34" si="8">I32/(I19-H19)</f>
         <v>4.1417605748815936E-2</v>
       </c>
       <c r="J34" s="18">
@@ -4643,7 +4851,7 @@
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22">
-        <f t="shared" ref="F37:M37" si="11">G19</f>
+        <f t="shared" ref="G37:M37" si="11">G19</f>
         <v>85320</v>
       </c>
       <c r="H37" s="22">
@@ -4704,7 +4912,7 @@
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
       <c r="H38" s="18">
-        <f t="shared" ref="G38:M38" si="13">H37/G37-1</f>
+        <f t="shared" ref="H38:M38" si="13">H37/G37-1</f>
         <v>5.4266291608063844E-2</v>
       </c>
       <c r="I38" s="18">
@@ -4846,7 +5054,7 @@
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
       <c r="G43" s="22">
-        <f t="shared" ref="F43:M43" si="16">G22</f>
+        <f t="shared" ref="G43:M43" si="16">G22</f>
         <v>20182</v>
       </c>
       <c r="H43" s="22">
@@ -4907,7 +5115,7 @@
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
       <c r="H44" s="18">
-        <f t="shared" ref="F44:M44" si="18">H43/H19</f>
+        <f t="shared" ref="H44:M44" si="18">H43/H19</f>
         <v>0.24820455808782657</v>
       </c>
       <c r="I44" s="18">
@@ -5159,7 +5367,7 @@
         <v>#REF!</v>
       </c>
       <c r="I54" s="22">
-        <f t="shared" ref="F54:M54" si="27">I26</f>
+        <f t="shared" ref="I54:M54" si="27">I26</f>
         <v>10261</v>
       </c>
       <c r="J54" s="22">
@@ -5211,7 +5419,7 @@
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
       <c r="H55" s="18" t="e">
-        <f t="shared" ref="F55:M55" si="29">H54/H37</f>
+        <f t="shared" ref="H55:M55" si="29">H54/H37</f>
         <v>#REF!</v>
       </c>
       <c r="I55" s="18">
@@ -5266,56 +5474,56 @@
       <c r="E57" s="22"/>
       <c r="F57" s="22"/>
       <c r="G57" s="22">
-        <f t="shared" ref="F57:M57" si="31">G29</f>
+        <f t="shared" ref="G57:M57" si="31">G29</f>
         <v>0</v>
       </c>
       <c r="H57" s="22">
         <f t="shared" si="31"/>
-        <v>5378</v>
+        <v>-8129</v>
       </c>
       <c r="I57" s="22">
         <f t="shared" si="31"/>
-        <v>5726</v>
+        <v>-11632</v>
       </c>
       <c r="J57" s="22">
         <f t="shared" si="31"/>
-        <v>7017</v>
+        <v>-13925</v>
       </c>
       <c r="K57" s="22">
         <f t="shared" si="31"/>
-        <v>7674</v>
+        <v>-15441</v>
       </c>
       <c r="L57" s="22">
         <f t="shared" si="31"/>
-        <v>15564</v>
+        <v>-20622</v>
       </c>
       <c r="M57" s="22">
         <f t="shared" si="31"/>
-        <v>14683</v>
+        <v>-23886</v>
       </c>
       <c r="N57" s="23">
         <f ca="1">N58*N$37</f>
-        <v>27418.553965542851</v>
+        <v>-43699.392576239843</v>
       </c>
       <c r="O57" s="23">
         <f t="shared" ref="O57:S57" ca="1" si="32">O58*O$37</f>
-        <v>41275.181622542405</v>
+        <v>-65783.934763511148</v>
       </c>
       <c r="P57" s="23">
         <f t="shared" ca="1" si="32"/>
-        <v>49513.108646562097</v>
+        <v>-78913.453099505728</v>
       </c>
       <c r="Q57" s="23">
         <f t="shared" ca="1" si="32"/>
-        <v>56926.392231229285</v>
+        <v>-90728.663706618143</v>
       </c>
       <c r="R57" s="23">
         <f t="shared" ca="1" si="32"/>
-        <v>62611.165785346129</v>
+        <v>-99788.993859717069</v>
       </c>
       <c r="S57" s="23">
         <f t="shared" ca="1" si="32"/>
-        <v>65741.724074613434</v>
+        <v>-104778.44355270293</v>
       </c>
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.25">
@@ -5327,52 +5535,52 @@
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
       <c r="H58" s="18">
-        <f t="shared" ref="F58:M58" si="33">H57/H$37</f>
-        <v>5.9788771539744302E-2</v>
+        <f t="shared" ref="H58:M58" si="33">H57/H$37</f>
+        <v>-9.0372429127292944E-2</v>
       </c>
       <c r="I58" s="18">
         <f t="shared" si="33"/>
-        <v>5.1884740848133382E-2</v>
+        <v>-0.10540050743022834</v>
       </c>
       <c r="J58" s="18">
         <f t="shared" si="33"/>
-        <v>5.5759954864394522E-2</v>
+        <v>-0.11065375110256431</v>
       </c>
       <c r="K58" s="18">
         <f t="shared" si="33"/>
-        <v>5.3658707128622869E-2</v>
+        <v>-0.10796769569625564</v>
       </c>
       <c r="L58" s="18">
         <f t="shared" si="33"/>
-        <v>9.2594355337680262E-2</v>
+        <v>-0.12268573604302509</v>
       </c>
       <c r="M58" s="18">
         <f t="shared" si="33"/>
-        <v>7.4055580773692439E-2</v>
+        <v>-0.12047208352246935</v>
       </c>
       <c r="N58" s="25">
         <f>AVERAGE(K58:M58)</f>
-        <v>7.3436214413331855E-2</v>
+        <v>-0.11704183842058336</v>
       </c>
       <c r="O58" s="25">
         <f>N58</f>
-        <v>7.3436214413331855E-2</v>
+        <v>-0.11704183842058336</v>
       </c>
       <c r="P58" s="25">
         <f t="shared" ref="P58:S58" si="34">O58</f>
-        <v>7.3436214413331855E-2</v>
+        <v>-0.11704183842058336</v>
       </c>
       <c r="Q58" s="25">
         <f t="shared" si="34"/>
-        <v>7.3436214413331855E-2</v>
+        <v>-0.11704183842058336</v>
       </c>
       <c r="R58" s="25">
         <f t="shared" si="34"/>
-        <v>7.3436214413331855E-2</v>
+        <v>-0.11704183842058336</v>
       </c>
       <c r="S58" s="25">
         <f t="shared" si="34"/>
-        <v>7.3436214413331855E-2</v>
+        <v>-0.11704183842058336</v>
       </c>
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.25">
@@ -5382,7 +5590,7 @@
       <c r="E60" s="30"/>
       <c r="F60" s="30"/>
       <c r="G60" s="30">
-        <f t="shared" ref="F60:L60" si="35">G32</f>
+        <f t="shared" ref="G60:L60" si="35">G32</f>
         <v>0</v>
       </c>
       <c r="H60" s="30">
@@ -5442,7 +5650,7 @@
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
       <c r="H61" s="18">
-        <f t="shared" ref="F61:L61" si="37">H60/H$37</f>
+        <f t="shared" ref="H61:L61" si="37">H60/H$37</f>
         <v>1.5526403557531963</v>
       </c>
       <c r="I61" s="18">
@@ -5506,27 +5714,27 @@
       <c r="M63" s="33"/>
       <c r="N63" s="34">
         <f ca="1">N52+N54-N57-N60</f>
-        <v>195538.46870475562</v>
+        <v>266656.41524653829</v>
       </c>
       <c r="O63" s="34">
         <f t="shared" ref="O63:S63" ca="1" si="39">O52+O54-O57-O60</f>
-        <v>317408.93762738525</v>
+        <v>424468.05401343876</v>
       </c>
       <c r="P63" s="34">
         <f t="shared" ca="1" si="39"/>
-        <v>383137.28129887435</v>
+        <v>511563.84304494219</v>
       </c>
       <c r="Q63" s="34">
         <f t="shared" ca="1" si="39"/>
-        <v>443743.78760675521</v>
+        <v>591398.84354460263</v>
       </c>
       <c r="R63" s="34">
         <f t="shared" ca="1" si="39"/>
-        <v>491622.37670515833</v>
+        <v>654022.53635022149</v>
       </c>
       <c r="S63" s="35">
         <f t="shared" ca="1" si="39"/>
-        <v>519947.29530085961</v>
+        <v>690467.46292817593</v>
       </c>
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.25">
@@ -5546,27 +5754,27 @@
       <c r="M64" s="2"/>
       <c r="N64" s="37">
         <f t="shared" ref="N64:S64" ca="1" si="40">N63/(1+wacc)^N67</f>
-        <v>195538.46870475562</v>
+        <v>266656.41524653829</v>
       </c>
       <c r="O64" s="37">
         <f t="shared" ca="1" si="40"/>
-        <v>317408.93762738525</v>
+        <v>424468.05401343876</v>
       </c>
       <c r="P64" s="37">
         <f t="shared" ca="1" si="40"/>
-        <v>383137.28129887435</v>
+        <v>511563.84304494219</v>
       </c>
       <c r="Q64" s="37">
         <f t="shared" ca="1" si="40"/>
-        <v>443743.78760675521</v>
+        <v>591398.84354460263</v>
       </c>
       <c r="R64" s="37">
         <f t="shared" ca="1" si="40"/>
-        <v>491622.37670515833</v>
+        <v>654022.53635022149</v>
       </c>
       <c r="S64" s="38">
         <f t="shared" ca="1" si="40"/>
-        <v>519947.29530085961</v>
+        <v>690467.46292817593</v>
       </c>
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.25">

--- a/MSFT Models.xlsx
+++ b/MSFT Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F680024F-39FD-4DCD-8BD2-9AD8BBCBEEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519853A8-0AE2-492D-A326-39BBDA28DA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A6FAC41-C2C4-48E5-AA85-8063DD4A5C11}"/>
   </bookViews>
@@ -49,6 +49,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jovany Valdez</author>
+    <author>Matan Feldman</author>
   </authors>
   <commentList>
     <comment ref="B54" authorId="0" shapeId="0" xr:uid="{0B4D796D-B945-4BF1-A618-6195F7D63FBF}">
@@ -73,6 +74,58 @@
           <t xml:space="preserve">
 FIX LONG TERM DEBT
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B109" authorId="1" shapeId="0" xr:uid="{AC5B5BC2-58BF-44B8-BC68-4C9B3171BDE8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Statement of shareholders equity schedule, p.41 Apple 2018 10K</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B110" authorId="1" shapeId="0" xr:uid="{2237A797-6C05-4FE8-B1D1-48B63E7B9DAD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Statement of shareholders equity schedule, p.41 Apple 2018 10K</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B136" authorId="1" shapeId="0" xr:uid="{18459A09-A023-4D40-AB08-95EA638C86B8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">We estimate the historical interest rate (though not explicitly disclosed by Apple). </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B137" authorId="1" shapeId="0" xr:uid="{77FC22F5-1642-4659-A51E-0EDD3155E65D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Although Apple doesn't disclose interest expense specifically, it does disclose the interest rate on commercial paper which enables us to back into interest expense for LTD</t>
         </r>
       </text>
     </comment>
@@ -104,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="142">
   <si>
     <t>Ticker</t>
   </si>
@@ -430,27 +483,121 @@
     <t>Beginning of period</t>
   </si>
   <si>
-    <t>Capital Expenditure</t>
-  </si>
-  <si>
-    <t>Depreciation</t>
-  </si>
-  <si>
-    <t>End of Period</t>
+    <t>Total D&amp;A</t>
+  </si>
+  <si>
+    <t>D&amp;A not related to PPE</t>
+  </si>
+  <si>
+    <t>as % of revenue</t>
+  </si>
+  <si>
+    <t>OTHER NON-CURRENT ASSETS</t>
+  </si>
+  <si>
+    <t>Less: Amortization of intangible assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus: Additions </t>
+  </si>
+  <si>
+    <t>End of period</t>
+  </si>
+  <si>
+    <t>RETAINED EARNINGS</t>
+  </si>
+  <si>
+    <t>Plus: Net income</t>
+  </si>
+  <si>
+    <t>Less: Dividends</t>
+  </si>
+  <si>
+    <t>Less: Repurchases</t>
+  </si>
+  <si>
+    <t>REVOLVER (MODEL PLUG)</t>
+  </si>
+  <si>
+    <t>Revolver needs analysis</t>
+  </si>
+  <si>
+    <t>Cash at beginning of period (BOP)</t>
+  </si>
+  <si>
+    <t>Less: Minimum cash balance</t>
+  </si>
+  <si>
+    <t>Plus: Free cash flows generated during period</t>
+  </si>
+  <si>
+    <t>Equals: Cash available (needed) to pay down (draw from) revolver</t>
+  </si>
+  <si>
+    <t>Commercial paper / Revolver</t>
+  </si>
+  <si>
+    <t>Draw / (paydown)</t>
+  </si>
+  <si>
+    <t>Discretionary borrowing / (paydown)</t>
+  </si>
+  <si>
+    <t>INTEREST EXPENSE AND INTEREST INCOME</t>
+  </si>
+  <si>
+    <t>Total interest expense (from I/S)</t>
+  </si>
+  <si>
+    <t>Commercial Paper / Revolver</t>
+  </si>
+  <si>
+    <t>Weighted average interest rate</t>
+  </si>
+  <si>
+    <t>End of period balance (from B/S)</t>
+  </si>
+  <si>
+    <t>Interest expense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest expense </t>
+  </si>
+  <si>
+    <t>Interest rate on cash</t>
+  </si>
+  <si>
+    <t>Weighted average interest rate on cash</t>
+  </si>
+  <si>
+    <t>Interest income</t>
+  </si>
+  <si>
+    <t>Plus: Capital expenditures</t>
+  </si>
+  <si>
+    <t>Less: Depreciation</t>
+  </si>
+  <si>
+    <t>D&amp;A related to PP&amp;E as a % of capex</t>
+  </si>
+  <si>
+    <t>Depreciation and Amortization - Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0%;\(0%\)"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0&quot;E&quot;"/>
     <numFmt numFmtId="168" formatCode="0.0%_);\(0.0%\);@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,6 +722,22 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -602,7 +765,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -804,12 +967,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -895,8 +1076,46 @@
     <xf numFmtId="168" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1325,10 +1544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE4A0FA-AB59-483B-85AC-2FAFADB2EC7A}">
-  <dimension ref="A2:U91"/>
+  <dimension ref="A2:U141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,6 +1555,7 @@
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:21" s="40" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -1347,37 +1567,46 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="63" t="s">
         <v>7</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="60" t="e">
+        <f ca="1">'DCF Model'!I4</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="64">
         <v>45209</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="61">
+        <f>'DCF Model'!I5</f>
+        <v>410.17</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="64">
         <v>45107</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="62" t="e">
+        <f ca="1">(I4/I5)-1</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2310,33 +2539,26 @@
       <c r="G42" s="43">
         <v>113240</v>
       </c>
-      <c r="H42" s="23">
-        <f ca="1">G42+H84</f>
-        <v>146488</v>
-      </c>
-      <c r="I42" s="23">
-        <f t="shared" ref="I42:N42" ca="1" si="31">H42+I84</f>
-        <v>164633</v>
-      </c>
-      <c r="J42" s="23">
-        <f t="shared" ca="1" si="31"/>
-        <v>185626</v>
-      </c>
-      <c r="K42" s="23">
-        <f t="shared" ca="1" si="31"/>
-        <v>211449</v>
-      </c>
-      <c r="L42" s="23">
-        <f t="shared" ca="1" si="31"/>
-        <v>241442</v>
-      </c>
-      <c r="M42" s="23">
-        <f t="shared" ca="1" si="31"/>
-        <v>254434</v>
-      </c>
-      <c r="N42" s="23">
-        <f t="shared" ca="1" si="31"/>
-        <v>310289</v>
+      <c r="H42" s="43">
+        <v>132981</v>
+      </c>
+      <c r="I42" s="43">
+        <v>133768</v>
+      </c>
+      <c r="J42" s="43">
+        <v>133819</v>
+      </c>
+      <c r="K42" s="43">
+        <v>136527</v>
+      </c>
+      <c r="L42" s="43">
+        <v>130334</v>
+      </c>
+      <c r="M42" s="43">
+        <v>104757</v>
+      </c>
+      <c r="N42" s="43">
+        <v>111262</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -2493,51 +2715,51 @@
         <v>193468</v>
       </c>
       <c r="H48" s="49">
-        <f t="shared" ref="H48:S48" ca="1" si="32">SUM(H42:H47)</f>
-        <v>254593</v>
+        <f t="shared" ref="H48:S48" si="31">SUM(H42:H47)</f>
+        <v>241086</v>
       </c>
       <c r="I48" s="49">
-        <f t="shared" ca="1" si="32"/>
-        <v>289713</v>
+        <f t="shared" si="31"/>
+        <v>258848</v>
       </c>
       <c r="J48" s="49">
-        <f t="shared" ca="1" si="32"/>
-        <v>338363</v>
+        <f t="shared" si="31"/>
+        <v>286556</v>
       </c>
       <c r="K48" s="49">
-        <f t="shared" ca="1" si="32"/>
-        <v>376233</v>
+        <f t="shared" si="31"/>
+        <v>301311</v>
       </c>
       <c r="L48" s="49">
-        <f t="shared" ca="1" si="32"/>
-        <v>444887</v>
+        <f t="shared" si="31"/>
+        <v>333779</v>
       </c>
       <c r="M48" s="49">
-        <f t="shared" ca="1" si="32"/>
-        <v>514517</v>
+        <f t="shared" si="31"/>
+        <v>364840</v>
       </c>
       <c r="N48" s="49">
-        <f t="shared" ca="1" si="32"/>
-        <v>611003</v>
+        <f t="shared" si="31"/>
+        <v>411976</v>
       </c>
       <c r="O48" s="49">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P48" s="49">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Q48" s="49">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="R48" s="49">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="S48" s="49">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -2632,14 +2854,35 @@
       <c r="B53" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="43"/>
-      <c r="M53" s="43"/>
-      <c r="N53" s="43"/>
+      <c r="G53" s="43">
+        <v>0</v>
+      </c>
+      <c r="H53" s="43">
+        <v>0</v>
+      </c>
+      <c r="I53" s="43">
+        <v>0</v>
+      </c>
+      <c r="J53" s="43">
+        <v>0</v>
+      </c>
+      <c r="K53" s="43">
+        <v>0</v>
+      </c>
+      <c r="L53" s="43">
+        <v>0</v>
+      </c>
+      <c r="M53" s="43">
+        <v>0</v>
+      </c>
+      <c r="N53" s="43">
+        <v>0</v>
+      </c>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B54" s="45" t="s">
@@ -2704,55 +2947,55 @@
         <v>80</v>
       </c>
       <c r="G56" s="49">
-        <f t="shared" ref="G56:S56" si="33">SUM(G50:G55)</f>
+        <f t="shared" ref="G56:S56" si="32">SUM(G50:G55)</f>
         <v>121471</v>
       </c>
       <c r="H56" s="49">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>168692</v>
       </c>
       <c r="I56" s="49">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>176130</v>
       </c>
       <c r="J56" s="49">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>184226</v>
       </c>
       <c r="K56" s="49">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>183007</v>
       </c>
       <c r="L56" s="49">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>191791</v>
       </c>
       <c r="M56" s="49">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>198298</v>
       </c>
       <c r="N56" s="49">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>205753</v>
       </c>
       <c r="O56" s="49">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P56" s="49">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q56" s="49">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R56" s="49">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="S56" s="49">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -2852,51 +3095,51 @@
         <v>71997</v>
       </c>
       <c r="H61" s="49">
-        <f t="shared" ref="H61:S61" si="34">SUM(H58:H60)</f>
+        <f t="shared" ref="H61:S61" si="33">SUM(H58:H60)</f>
         <v>72394</v>
       </c>
       <c r="I61" s="49">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>82718</v>
       </c>
       <c r="J61" s="49">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>102330</v>
       </c>
       <c r="K61" s="49">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>118304</v>
       </c>
       <c r="L61" s="49">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>141988</v>
       </c>
       <c r="M61" s="49">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>166542</v>
       </c>
       <c r="N61" s="49">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>206223</v>
       </c>
       <c r="O61" s="49">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="P61" s="49">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q61" s="49">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R61" s="49">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="S61" s="49">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -2905,55 +3148,55 @@
         <v>101</v>
       </c>
       <c r="G63" s="48">
-        <f t="shared" ref="G63:S63" si="35">ROUND(G48-(G56+G61), 3)</f>
+        <f t="shared" ref="G63:S63" si="34">ROUND(G48-(G56+G61), 3)</f>
         <v>0</v>
       </c>
       <c r="H63" s="48">
-        <f t="shared" ca="1" si="35"/>
-        <v>13507</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
       <c r="I63" s="48">
-        <f t="shared" ca="1" si="35"/>
-        <v>30865</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
       <c r="J63" s="48">
-        <f t="shared" ca="1" si="35"/>
-        <v>51807</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
       <c r="K63" s="48">
-        <f t="shared" ca="1" si="35"/>
-        <v>74922</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
       <c r="L63" s="48">
-        <f t="shared" ca="1" si="35"/>
-        <v>111108</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
       <c r="M63" s="48">
-        <f t="shared" ca="1" si="35"/>
-        <v>149677</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
       <c r="N63" s="48">
-        <f t="shared" ca="1" si="35"/>
-        <v>199027</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
       <c r="O63" s="48">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="P63" s="48">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q63" s="48">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R63" s="48">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S63" s="48">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -3017,47 +3260,47 @@
         <v>19546</v>
       </c>
       <c r="I66" s="30">
-        <f t="shared" ref="I66:S66" si="36">I27</f>
+        <f t="shared" ref="I66:S66" si="35">I27</f>
         <v>14636</v>
       </c>
       <c r="J66" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>38587</v>
       </c>
       <c r="K66" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>44293</v>
       </c>
       <c r="L66" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>59870</v>
       </c>
       <c r="M66" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>72436</v>
       </c>
       <c r="N66" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>72599</v>
       </c>
       <c r="O66" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="P66" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Q66" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R66" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="S66" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -3070,47 +3313,47 @@
         <v>8778</v>
       </c>
       <c r="I67" s="30">
-        <f t="shared" ref="I67:S67" si="37">I29</f>
+        <f t="shared" ref="I67:S67" si="36">I29</f>
         <v>10261</v>
       </c>
       <c r="J67" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>11682</v>
       </c>
       <c r="K67" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>12796</v>
       </c>
       <c r="L67" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>11686</v>
       </c>
       <c r="M67" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>14460</v>
       </c>
       <c r="N67" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>13861</v>
       </c>
       <c r="O67" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P67" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Q67" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="R67" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="S67" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -3123,47 +3366,47 @@
         <v>3266</v>
       </c>
       <c r="I68" s="30">
-        <f t="shared" ref="I68:S68" si="38">I31</f>
+        <f t="shared" ref="I68:S68" si="37">I31</f>
         <v>3940</v>
       </c>
       <c r="J68" s="30">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>4652</v>
       </c>
       <c r="K68" s="30">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>5289</v>
       </c>
       <c r="L68" s="30">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>6118</v>
       </c>
       <c r="M68" s="30">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>7502</v>
       </c>
       <c r="N68" s="30">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>9611</v>
       </c>
       <c r="O68" s="30">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="P68" s="30">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Q68" s="30">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="R68" s="30">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="S68" s="30">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -3172,51 +3415,51 @@
         <v>89</v>
       </c>
       <c r="H69" s="30">
-        <f t="shared" ref="H69:S69" ca="1" si="39">-1*(SUM(H42:H45)-SUM(G42:G45))</f>
-        <v>-33698</v>
+        <f t="shared" ref="H69:S69" si="38">-1*(SUM(H42:H45)-SUM(G42:G45))</f>
+        <v>-20191</v>
       </c>
       <c r="I69" s="30">
-        <f t="shared" ca="1" si="39"/>
-        <v>-27169</v>
+        <f t="shared" si="38"/>
+        <v>-9811</v>
       </c>
       <c r="J69" s="30">
-        <f t="shared" ca="1" si="39"/>
-        <v>-26832</v>
+        <f t="shared" si="38"/>
+        <v>-5890</v>
       </c>
       <c r="K69" s="30">
-        <f t="shared" ca="1" si="39"/>
-        <v>-29478</v>
+        <f t="shared" si="38"/>
+        <v>-6363</v>
       </c>
       <c r="L69" s="30">
-        <f t="shared" ca="1" si="39"/>
-        <v>-38677</v>
+        <f t="shared" si="38"/>
+        <v>-2491</v>
       </c>
       <c r="M69" s="30">
-        <f t="shared" ca="1" si="39"/>
-        <v>-23847</v>
+        <f t="shared" si="38"/>
+        <v>14722</v>
       </c>
       <c r="N69" s="30">
-        <f t="shared" ca="1" si="39"/>
-        <v>-63923</v>
+        <f t="shared" si="38"/>
+        <v>-14573</v>
       </c>
       <c r="O69" s="30">
-        <f t="shared" ca="1" si="39"/>
-        <v>383284</v>
+        <f t="shared" si="38"/>
+        <v>184257</v>
       </c>
       <c r="P69" s="30">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Q69" s="30">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R69" s="30">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="S69" s="30">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -3229,47 +3472,47 @@
         <v>9106</v>
       </c>
       <c r="I70" s="30">
-        <f t="shared" ref="I70:S70" si="40">(SUM(I50:I52)-SUM(H50:H52))</f>
+        <f t="shared" ref="I70:S70" si="39">(SUM(I50:I52)-SUM(H50:H52))</f>
         <v>-12601</v>
       </c>
       <c r="J70" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>11647</v>
       </c>
       <c r="K70" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1540</v>
       </c>
       <c r="L70" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>15783</v>
       </c>
       <c r="M70" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>3930</v>
       </c>
       <c r="N70" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>6611</v>
       </c>
       <c r="O70" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>-101814</v>
       </c>
       <c r="P70" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q70" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="R70" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="S70" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -3287,47 +3530,47 @@
         <v>2599</v>
       </c>
       <c r="I72" s="30">
-        <f t="shared" ref="I72:S72" si="41">I55-H55</f>
+        <f t="shared" ref="I72:S72" si="40">I55-H55</f>
         <v>23870</v>
       </c>
       <c r="J72" s="30">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>2029</v>
       </c>
       <c r="K72" s="30">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>4325</v>
       </c>
       <c r="L72" s="30">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>2505</v>
       </c>
       <c r="M72" s="30">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>2870</v>
       </c>
       <c r="N72" s="30">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>3388</v>
       </c>
       <c r="O72" s="30">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>-56702</v>
       </c>
       <c r="P72" s="30">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Q72" s="30">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R72" s="30">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="S72" s="30">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
@@ -3336,51 +3579,51 @@
         <v>92</v>
       </c>
       <c r="H73" s="42">
-        <f ca="1">SUM(H66:H72)</f>
-        <v>9597</v>
+        <f>SUM(H66:H72)</f>
+        <v>23104</v>
       </c>
       <c r="I73" s="42">
-        <f t="shared" ref="I73:S73" ca="1" si="42">SUM(I66:I72)</f>
-        <v>12937</v>
+        <f t="shared" ref="I73:S73" si="41">SUM(I66:I72)</f>
+        <v>30295</v>
       </c>
       <c r="J73" s="42">
-        <f t="shared" ca="1" si="42"/>
-        <v>41765</v>
+        <f t="shared" si="41"/>
+        <v>62707</v>
       </c>
       <c r="K73" s="42">
-        <f t="shared" ca="1" si="42"/>
-        <v>38765</v>
+        <f t="shared" si="41"/>
+        <v>61880</v>
       </c>
       <c r="L73" s="42">
-        <f t="shared" ca="1" si="42"/>
-        <v>57285</v>
+        <f t="shared" si="41"/>
+        <v>93471</v>
       </c>
       <c r="M73" s="42">
-        <f t="shared" ca="1" si="42"/>
-        <v>77351</v>
+        <f t="shared" si="41"/>
+        <v>115920</v>
       </c>
       <c r="N73" s="42">
-        <f t="shared" ca="1" si="42"/>
-        <v>42147</v>
+        <f t="shared" si="41"/>
+        <v>91497</v>
       </c>
       <c r="O73" s="42">
-        <f t="shared" ca="1" si="42"/>
-        <v>224768</v>
+        <f t="shared" si="41"/>
+        <v>25741</v>
       </c>
       <c r="P73" s="42">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Q73" s="42">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R73" s="42">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="S73" s="42">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -3393,47 +3636,47 @@
         <v>-8129</v>
       </c>
       <c r="I75" s="30">
-        <f t="shared" ref="I75:S75" si="43">-I89</f>
+        <f t="shared" ref="I75:S75" si="42">-I89</f>
         <v>-11632</v>
       </c>
       <c r="J75" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>-13925</v>
       </c>
       <c r="K75" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>-15441</v>
       </c>
       <c r="L75" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>-20622</v>
       </c>
       <c r="M75" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>-23886</v>
       </c>
       <c r="N75" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>-28107</v>
       </c>
       <c r="O75" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P75" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Q75" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="R75" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="S75" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
@@ -3442,35 +3685,35 @@
         <v>94</v>
       </c>
       <c r="H76" s="42">
-        <f>IFERROR(H89, "NA")</f>
+        <f t="shared" ref="H76:N76" si="43">IFERROR(H89, "NA")</f>
         <v>8129</v>
       </c>
       <c r="I76" s="42">
-        <f>IFERROR(I89, "NA")</f>
+        <f t="shared" si="43"/>
         <v>11632</v>
       </c>
       <c r="J76" s="42">
-        <f>IFERROR(J89, "NA")</f>
+        <f t="shared" si="43"/>
         <v>13925</v>
       </c>
       <c r="K76" s="42">
-        <f>IFERROR(K89, "NA")</f>
+        <f t="shared" si="43"/>
         <v>15441</v>
       </c>
       <c r="L76" s="42">
-        <f>IFERROR(L89, "NA")</f>
+        <f t="shared" si="43"/>
         <v>20622</v>
       </c>
       <c r="M76" s="42">
-        <f>IFERROR(M89, "NA")</f>
+        <f t="shared" si="43"/>
         <v>23886</v>
       </c>
       <c r="N76" s="42">
-        <f>IFERROR(N89, "NA")</f>
+        <f t="shared" si="43"/>
         <v>28107</v>
       </c>
       <c r="O76" s="42">
-        <f t="shared" ref="I76:S76" si="44">IFERROR(O75, "NA")</f>
+        <f t="shared" ref="O76:S76" si="44">IFERROR(O75, "NA")</f>
         <v>0</v>
       </c>
       <c r="P76" s="42">
@@ -3547,6 +3790,42 @@
       <c r="B79" t="s">
         <v>96</v>
       </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
@@ -3616,36 +3895,36 @@
         <v>100</v>
       </c>
       <c r="H84" s="42">
-        <f ca="1">H82+H76+H73</f>
-        <v>53242</v>
+        <f>H82+H76+H73</f>
+        <v>66749</v>
       </c>
       <c r="I84" s="42">
-        <f t="shared" ref="I84:S84" ca="1" si="47">I82+I76+I73</f>
-        <v>20738</v>
+        <f t="shared" ref="I84:S84" si="47">I82+I76+I73</f>
+        <v>38096</v>
       </c>
       <c r="J84" s="42">
-        <f t="shared" ca="1" si="47"/>
-        <v>50110</v>
+        <f t="shared" si="47"/>
+        <v>71052</v>
       </c>
       <c r="K84" s="42">
-        <f t="shared" ca="1" si="47"/>
-        <v>47122</v>
+        <f t="shared" si="47"/>
+        <v>70237</v>
       </c>
       <c r="L84" s="42">
-        <f t="shared" ca="1" si="47"/>
-        <v>68403</v>
+        <f t="shared" si="47"/>
+        <v>104589</v>
       </c>
       <c r="M84" s="42">
-        <f t="shared" ca="1" si="47"/>
-        <v>100944</v>
+        <f t="shared" si="47"/>
+        <v>139513</v>
       </c>
       <c r="N84" s="42">
-        <f t="shared" ca="1" si="47"/>
-        <v>67710</v>
+        <f t="shared" si="47"/>
+        <v>117060</v>
       </c>
       <c r="O84" s="42">
-        <f t="shared" ca="1" si="47"/>
-        <v>177531</v>
+        <f t="shared" si="47"/>
+        <v>-21496</v>
       </c>
       <c r="P84" s="42">
         <f t="shared" si="47"/>
@@ -3719,7 +3998,7 @@
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B87" s="60" t="s">
+      <c r="B87" s="59" t="s">
         <v>106</v>
       </c>
       <c r="C87" s="2"/>
@@ -3741,7 +4020,7 @@
       <c r="S87" s="2"/>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+      <c r="B88" s="45" t="s">
         <v>107</v>
       </c>
       <c r="H88" s="30">
@@ -3794,8 +4073,8 @@
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>108</v>
+      <c r="B89" s="69" t="s">
+        <v>138</v>
       </c>
       <c r="H89" s="30">
         <v>8129</v>
@@ -3825,8 +4104,8 @@
       <c r="S89" s="30"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>109</v>
+      <c r="B90" s="69" t="s">
+        <v>139</v>
       </c>
       <c r="H90" s="30">
         <v>-24179</v>
@@ -3856,59 +4135,382 @@
       <c r="S90" s="30"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>110</v>
-      </c>
-      <c r="G91" s="59">
+      <c r="B91" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="G91" s="76">
         <v>18356</v>
       </c>
-      <c r="H91" s="30">
+      <c r="H91" s="42">
         <f>SUM(H88:H90)</f>
         <v>2306</v>
       </c>
-      <c r="I91" s="30">
+      <c r="I91" s="42">
         <f>SUM(I88:I90)</f>
         <v>-15285</v>
       </c>
-      <c r="J91" s="30">
-        <f t="shared" ref="I91:S91" si="49">SUM(J88:J90)</f>
+      <c r="J91" s="42">
+        <f t="shared" ref="J91:S91" si="49">SUM(J88:J90)</f>
         <v>-36690</v>
       </c>
-      <c r="K91" s="30">
+      <c r="K91" s="42">
         <f t="shared" si="49"/>
         <v>-64446</v>
       </c>
-      <c r="L91" s="30">
+      <c r="L91" s="42">
         <f t="shared" si="49"/>
         <v>-95175</v>
       </c>
-      <c r="M91" s="30">
+      <c r="M91" s="42">
         <f t="shared" si="49"/>
         <v>-130949</v>
       </c>
-      <c r="N91" s="30">
+      <c r="N91" s="42">
         <f t="shared" si="49"/>
         <v>-171093</v>
       </c>
-      <c r="O91" s="30">
+      <c r="O91" s="42">
         <f t="shared" si="49"/>
         <v>-171093</v>
       </c>
-      <c r="P91" s="30">
+      <c r="P91" s="42">
         <f t="shared" si="49"/>
         <v>-171093</v>
       </c>
-      <c r="Q91" s="30">
+      <c r="Q91" s="42">
         <f t="shared" si="49"/>
         <v>-171093</v>
       </c>
-      <c r="R91" s="30">
+      <c r="R91" s="42">
         <f t="shared" si="49"/>
         <v>-171093</v>
       </c>
-      <c r="S91" s="30">
+      <c r="S91" s="42">
         <f t="shared" si="49"/>
         <v>-171093</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B92" s="68"/>
+      <c r="G92" s="76"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="42"/>
+      <c r="K92" s="42"/>
+      <c r="L92" s="42"/>
+      <c r="M92" s="42"/>
+      <c r="N92" s="42"/>
+      <c r="O92" s="42"/>
+      <c r="P92" s="42"/>
+      <c r="Q92" s="42"/>
+      <c r="R92" s="42"/>
+      <c r="S92" s="42"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B93" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="G93" s="76"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="42"/>
+      <c r="K93" s="42"/>
+      <c r="L93" s="42"/>
+      <c r="M93" s="42"/>
+      <c r="N93" s="42"/>
+      <c r="O93" s="42"/>
+      <c r="P93" s="42"/>
+      <c r="Q93" s="42"/>
+      <c r="R93" s="42"/>
+      <c r="S93" s="42"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B95" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B97" s="66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B98" s="41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B100" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+    </row>
+    <row r="101" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B101" s="45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="102" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B102" s="66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="103" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B103" s="67" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="104" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B104" s="68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B105" s="66"/>
+    </row>
+    <row r="106" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B106" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+    </row>
+    <row r="107" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B107" s="45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B108" s="66" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B109" s="66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B110" s="66" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B111" s="68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B113" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+    </row>
+    <row r="114" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B114" s="65" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B115" s="66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="116" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B116" s="66" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="117" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B117" s="67" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="118" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B118" s="68" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="120" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B120" s="41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="121" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B121" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="122" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B122" s="69" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B123" s="69" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B124" s="66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="126" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B126" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
+      <c r="R126" s="2"/>
+      <c r="S126" s="2"/>
+    </row>
+    <row r="127" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B127" s="45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="128" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B128" s="70"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="72" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="73"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="68" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="70" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="66" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3922,7 +4524,7 @@
   <dimension ref="A2:S77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MSFT Models.xlsx
+++ b/MSFT Models.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519853A8-0AE2-492D-A326-39BBDA28DA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CA1915-D4AB-4E16-979E-BD84C7EE7A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A6FAC41-C2C4-48E5-AA85-8063DD4A5C11}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0A6FAC41-C2C4-48E5-AA85-8063DD4A5C11}"/>
   </bookViews>
   <sheets>
-    <sheet name="Historicals" sheetId="2" r:id="rId1"/>
+    <sheet name="Historicals and 3SM" sheetId="2" r:id="rId1"/>
     <sheet name="DCF Model" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
@@ -1155,8 +1155,8 @@
       <sheetName val="CFS"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="15">
           <cell r="F15">
@@ -1546,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE4A0FA-AB59-483B-85AC-2FAFADB2EC7A}">
   <dimension ref="A2:U141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,7 +1583,8 @@
         <v>2</v>
       </c>
       <c r="D5" s="64">
-        <v>45209</v>
+        <f ca="1">TODAY()</f>
+        <v>45218</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
@@ -4523,8 +4524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5A53F4-E670-41A9-B096-B6E375EAE8AA}">
   <dimension ref="A2:S77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4788,31 +4789,31 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13">
-        <f>Historicals!G17</f>
+        <f>'Historicals and 3SM'!G17</f>
         <v>85320</v>
       </c>
       <c r="H19" s="13">
-        <f>Historicals!H17</f>
+        <f>'Historicals and 3SM'!H17</f>
         <v>89950</v>
       </c>
       <c r="I19" s="13">
-        <f>Historicals!I17</f>
+        <f>'Historicals and 3SM'!I17</f>
         <v>110360</v>
       </c>
       <c r="J19" s="13">
-        <f>Historicals!J17</f>
+        <f>'Historicals and 3SM'!J17</f>
         <v>125843</v>
       </c>
       <c r="K19" s="13">
-        <f>Historicals!K17</f>
+        <f>'Historicals and 3SM'!K17</f>
         <v>143015</v>
       </c>
       <c r="L19" s="13">
-        <f>Historicals!L17</f>
+        <f>'Historicals and 3SM'!L17</f>
         <v>168088</v>
       </c>
       <c r="M19" s="13">
-        <f>Historicals!M17</f>
+        <f>'Historicals and 3SM'!M17</f>
         <v>198270</v>
       </c>
       <c r="N19" s="14">
@@ -4905,31 +4906,31 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13">
-        <f>Historicals!G22</f>
+        <f>'Historicals and 3SM'!G22</f>
         <v>20182</v>
       </c>
       <c r="H22" s="13">
-        <f>Historicals!H22</f>
+        <f>'Historicals and 3SM'!H22</f>
         <v>22326</v>
       </c>
       <c r="I22" s="13">
-        <f>Historicals!I22</f>
+        <f>'Historicals and 3SM'!I22</f>
         <v>35058</v>
       </c>
       <c r="J22" s="13">
-        <f>Historicals!J22</f>
+        <f>'Historicals and 3SM'!J22</f>
         <v>42959</v>
       </c>
       <c r="K22" s="13">
-        <f>Historicals!K22</f>
+        <f>'Historicals and 3SM'!K22</f>
         <v>52959</v>
       </c>
       <c r="L22" s="13">
-        <f>Historicals!L22</f>
+        <f>'Historicals and 3SM'!L22</f>
         <v>69916</v>
       </c>
       <c r="M22" s="13">
-        <f>Historicals!M22</f>
+        <f>'Historicals and 3SM'!M22</f>
         <v>83383</v>
       </c>
       <c r="N22" s="14">
@@ -5084,27 +5085,27 @@
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="H26" s="14">
-        <f>Historicals!H67</f>
+        <f>'Historicals and 3SM'!H67</f>
         <v>8778</v>
       </c>
       <c r="I26" s="14">
-        <f>Historicals!I67</f>
+        <f>'Historicals and 3SM'!I67</f>
         <v>10261</v>
       </c>
       <c r="J26" s="14">
-        <f>Historicals!J67</f>
+        <f>'Historicals and 3SM'!J67</f>
         <v>11682</v>
       </c>
       <c r="K26" s="14">
-        <f>Historicals!K67</f>
+        <f>'Historicals and 3SM'!K67</f>
         <v>12796</v>
       </c>
       <c r="L26" s="14">
-        <f>Historicals!L67</f>
+        <f>'Historicals and 3SM'!L67</f>
         <v>11686</v>
       </c>
       <c r="M26" s="14">
-        <f>Historicals!M67</f>
+        <f>'Historicals and 3SM'!M67</f>
         <v>14460</v>
       </c>
       <c r="N26" s="20"/>
@@ -5177,27 +5178,27 @@
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13">
-        <f>Historicals!H89*-1</f>
+        <f>'Historicals and 3SM'!H89*-1</f>
         <v>-8129</v>
       </c>
       <c r="I29" s="13">
-        <f>Historicals!I89*-1</f>
+        <f>'Historicals and 3SM'!I89*-1</f>
         <v>-11632</v>
       </c>
       <c r="J29" s="13">
-        <f>Historicals!J89*-1</f>
+        <f>'Historicals and 3SM'!J89*-1</f>
         <v>-13925</v>
       </c>
       <c r="K29" s="13">
-        <f>Historicals!K89*-1</f>
+        <f>'Historicals and 3SM'!K89*-1</f>
         <v>-15441</v>
       </c>
       <c r="L29" s="13">
-        <f>Historicals!L89*-1</f>
+        <f>'Historicals and 3SM'!L89*-1</f>
         <v>-20622</v>
       </c>
       <c r="M29" s="13">
-        <f>Historicals!M89*-1</f>
+        <f>'Historicals and 3SM'!M89*-1</f>
         <v>-23886</v>
       </c>
       <c r="N29" s="21"/>
@@ -5271,7 +5272,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13">
-        <f>SUM(Historicals!G42:G45)</f>
+        <f>SUM('Historicals and 3SM'!G42:G45)</f>
         <v>139660</v>
       </c>
       <c r="I32" s="13">
@@ -5393,57 +5394,54 @@
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="7">
-        <f t="shared" ref="G36:O36" si="10">F36+1</f>
-        <v>1</v>
-      </c>
+      <c r="G36" s="7"/>
       <c r="H36" s="7">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f>H25</f>
+        <v>2017</v>
       </c>
       <c r="I36" s="7">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" ref="G36:O36" si="10">H36+1</f>
+        <v>2018</v>
       </c>
       <c r="J36" s="7">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>2019</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>2020</v>
       </c>
       <c r="L36" s="7">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>2021</v>
       </c>
       <c r="M36" s="7">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="N36" s="12">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>2023</v>
       </c>
       <c r="O36" s="12">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>2024</v>
       </c>
       <c r="P36" s="12">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>2025</v>
       </c>
       <c r="Q36" s="12">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>2026</v>
       </c>
       <c r="R36" s="12">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>2027</v>
       </c>
       <c r="S36" s="12">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -5452,12 +5450,9 @@
       </c>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
-      <c r="G37" s="22">
-        <f t="shared" ref="G37:M37" si="11">G19</f>
-        <v>85320</v>
-      </c>
+      <c r="G37" s="22"/>
       <c r="H37" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="G37:M37" si="11">H19</f>
         <v>89950</v>
       </c>
       <c r="I37" s="22">
@@ -5513,9 +5508,9 @@
       <c r="E38" s="24"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
-      <c r="H38" s="18">
+      <c r="H38" s="18" t="e">
         <f t="shared" ref="H38:M38" si="13">H37/G37-1</f>
-        <v>5.4266291608063844E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I38" s="18">
         <f t="shared" si="13"/>
@@ -5655,12 +5650,9 @@
       </c>
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
-      <c r="G43" s="22">
-        <f t="shared" ref="G43:M43" si="16">G22</f>
-        <v>20182</v>
-      </c>
+      <c r="G43" s="22"/>
       <c r="H43" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="G43:M43" si="16">H22</f>
         <v>22326</v>
       </c>
       <c r="I43" s="22">
@@ -5960,10 +5952,7 @@
       </c>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
-      <c r="G54" s="22">
-        <f>H26</f>
-        <v>8778</v>
-      </c>
+      <c r="G54" s="22"/>
       <c r="H54" s="22" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -6020,12 +6009,9 @@
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
-      <c r="H55" s="18" t="e">
-        <f t="shared" ref="H55:M55" si="29">H54/H37</f>
-        <v>#REF!</v>
-      </c>
+      <c r="H55" s="18"/>
       <c r="I55" s="18">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="H55:M55" si="29">I54/I37</f>
         <v>9.2977528089887643E-2</v>
       </c>
       <c r="J55" s="18">
@@ -6075,12 +6061,9 @@
       </c>
       <c r="E57" s="22"/>
       <c r="F57" s="22"/>
-      <c r="G57" s="22">
-        <f t="shared" ref="G57:M57" si="31">G29</f>
-        <v>0</v>
-      </c>
+      <c r="G57" s="22"/>
       <c r="H57" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="G57:M57" si="31">H29</f>
         <v>-8129</v>
       </c>
       <c r="I57" s="22">
@@ -6136,12 +6119,9 @@
       <c r="E58" s="18"/>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
-      <c r="H58" s="18">
-        <f t="shared" ref="H58:M58" si="33">H57/H$37</f>
-        <v>-9.0372429127292944E-2</v>
-      </c>
+      <c r="H58" s="18"/>
       <c r="I58" s="18">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="H58:M58" si="33">I57/I$37</f>
         <v>-0.10540050743022834</v>
       </c>
       <c r="J58" s="18">
@@ -6191,12 +6171,9 @@
       </c>
       <c r="E60" s="30"/>
       <c r="F60" s="30"/>
-      <c r="G60" s="30">
-        <f t="shared" ref="G60:L60" si="35">G32</f>
-        <v>0</v>
-      </c>
+      <c r="G60" s="30"/>
       <c r="H60" s="30">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="G60:L60" si="35">H32</f>
         <v>139660</v>
       </c>
       <c r="I60" s="30">
@@ -6251,12 +6228,9 @@
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
-      <c r="H61" s="18">
-        <f t="shared" ref="H61:L61" si="37">H60/H$37</f>
-        <v>1.5526403557531963</v>
-      </c>
+      <c r="H61" s="18"/>
       <c r="I61" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="H61:L61" si="37">I60/I$37</f>
         <v>7.6597801135677174E-3</v>
       </c>
       <c r="J61" s="18">

--- a/MSFT Models.xlsx
+++ b/MSFT Models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CA1915-D4AB-4E16-979E-BD84C7EE7A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675A06E2-780B-427E-9107-C19CA4E1713E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0A6FAC41-C2C4-48E5-AA85-8063DD4A5C11}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A6FAC41-C2C4-48E5-AA85-8063DD4A5C11}"/>
   </bookViews>
   <sheets>
     <sheet name="Historicals and 3SM" sheetId="2" r:id="rId1"/>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="142">
   <si>
     <t>Ticker</t>
   </si>
@@ -303,9 +303,6 @@
     <t>Implied Stock Price</t>
   </si>
   <si>
-    <t>MICROSOFT HISTORICALS</t>
-  </si>
-  <si>
     <t>Case Switches</t>
   </si>
   <si>
@@ -583,6 +580,9 @@
   </si>
   <si>
     <t>Depreciation and Amortization - Total</t>
+  </si>
+  <si>
+    <t>MICROSOFT HISTORICALS AND 3SM</t>
   </si>
 </sst>
 </file>
@@ -597,7 +597,7 @@
     <numFmt numFmtId="167" formatCode="0&quot;E&quot;"/>
     <numFmt numFmtId="168" formatCode="0.0%_);\(0.0%\);@_)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,6 +734,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -990,7 +997,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1116,6 +1123,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1546,9 +1557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE4A0FA-AB59-483B-85AC-2FAFADB2EC7A}">
   <dimension ref="A2:U141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1560,7 +1569,7 @@
   <sheetData>
     <row r="2" spans="1:21" s="40" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1596,7 +1605,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="64">
         <v>45107</v>
@@ -1610,7 +1619,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="78" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1636,13 +1645,13 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>33</v>
@@ -1656,34 +1665,34 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="78" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1776,7 +1785,7 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F18" s="43"/>
       <c r="G18" s="43">
@@ -1806,7 +1815,7 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="42">
@@ -1844,7 +1853,7 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="43"/>
       <c r="G20" s="43">
@@ -1874,7 +1883,7 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="43"/>
       <c r="G21" s="43">
@@ -1942,7 +1951,7 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F23" s="43"/>
       <c r="G23" s="43">
@@ -1972,7 +1981,7 @@
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" s="43"/>
       <c r="G24" s="43">
@@ -2002,7 +2011,7 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F25" s="42"/>
       <c r="G25" s="42">
@@ -2040,7 +2049,7 @@
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26" s="43"/>
       <c r="G26" s="43">
@@ -2070,7 +2079,7 @@
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="42"/>
       <c r="G27" s="42">
@@ -2120,7 +2129,7 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F29" s="43"/>
       <c r="G29" s="43">
@@ -2150,7 +2159,7 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F30" s="42"/>
       <c r="G30" s="42">
@@ -2188,7 +2197,7 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F31" s="43"/>
       <c r="G31" s="43">
@@ -2218,7 +2227,7 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F32" s="42"/>
       <c r="G32" s="42">
@@ -2268,7 +2277,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F34" s="44"/>
       <c r="G34" s="44"/>
@@ -2320,7 +2329,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F36" s="43"/>
       <c r="G36" s="55">
@@ -2358,7 +2367,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F37" s="43"/>
       <c r="G37" s="55">
@@ -2396,7 +2405,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F38" s="43"/>
       <c r="G38" s="55">
@@ -2434,7 +2443,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F39" s="43"/>
       <c r="G39" s="56">
@@ -2471,11 +2480,11 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="78" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -2535,7 +2544,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G42" s="43">
         <v>113240</v>
@@ -2564,7 +2573,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G43" s="43">
         <v>18277</v>
@@ -2593,7 +2602,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G44" s="43">
         <v>2251</v>
@@ -2622,7 +2631,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G45" s="43">
         <v>5892</v>
@@ -2651,7 +2660,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G46" s="43">
         <v>18356</v>
@@ -2680,7 +2689,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G47" s="43">
         <v>35452</v>
@@ -2709,7 +2718,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B48" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G48" s="49">
         <f>SUM(G42:G47)</f>
@@ -2766,7 +2775,7 @@
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B50" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G50" s="43">
         <v>6898</v>
@@ -2795,7 +2804,7 @@
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B51" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G51" s="43">
         <v>24991</v>
@@ -2824,7 +2833,7 @@
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B52" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G52" s="43">
         <v>33909</v>
@@ -2853,7 +2862,7 @@
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B53" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G53" s="43">
         <v>0</v>
@@ -2887,7 +2896,7 @@
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B54" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G54" s="43">
         <v>40557</v>
@@ -2916,7 +2925,7 @@
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B55" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G55" s="43">
         <v>15116</v>
@@ -2945,7 +2954,7 @@
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B56" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G56" s="49">
         <f t="shared" ref="G56:S56" si="32">SUM(G50:G55)</f>
@@ -3002,7 +3011,7 @@
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B58" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G58" s="43">
         <v>68178</v>
@@ -3031,7 +3040,7 @@
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B59" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G59" s="43">
         <v>2282</v>
@@ -3060,7 +3069,7 @@
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B60" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G60" s="43">
         <v>1537</v>
@@ -3089,7 +3098,7 @@
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B61" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G61" s="49">
         <f>SUM(G58:G60)</f>
@@ -3146,7 +3155,7 @@
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B63" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G63" s="48">
         <f t="shared" ref="G63:S63" si="34">ROUND(G48-(G56+G61), 3)</f>
@@ -3202,11 +3211,11 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="78" t="s">
         <v>8</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -3254,7 +3263,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H66" s="30">
         <f>H27</f>
@@ -3307,7 +3316,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H67" s="30">
         <f>H29</f>
@@ -3360,7 +3369,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H68" s="30">
         <f>H31</f>
@@ -3413,7 +3422,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H69" s="30">
         <f t="shared" ref="H69:S69" si="38">-1*(SUM(H42:H45)-SUM(G42:G45))</f>
@@ -3466,7 +3475,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H70" s="30">
         <f>(SUM(H50:H52)-SUM(G50:G52))</f>
@@ -3519,12 +3528,12 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H72" s="30">
         <f>H55-G55</f>
@@ -3577,7 +3586,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B73" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H73" s="42">
         <f>SUM(H66:H72)</f>
@@ -3630,7 +3639,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H75" s="30">
         <f>-H89</f>
@@ -3683,7 +3692,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B76" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H76" s="42">
         <f t="shared" ref="H76:N76" si="43">IFERROR(H89, "NA")</f>
@@ -3736,7 +3745,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H78" s="30">
         <f>H54-G54</f>
@@ -3789,7 +3798,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3830,17 +3839,17 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B82" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H82" s="42">
         <f>SUM(H78:H81)</f>
@@ -3893,7 +3902,7 @@
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B84" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H84" s="42">
         <f>H82+H76+H73</f>
@@ -3945,11 +3954,11 @@
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="78" t="s">
         <v>8</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -4000,7 +4009,7 @@
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B87" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -4022,7 +4031,7 @@
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B88" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H88" s="30">
         <f>G91</f>
@@ -4075,7 +4084,7 @@
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B89" s="69" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H89" s="30">
         <v>8129</v>
@@ -4106,7 +4115,7 @@
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B90" s="69" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H90" s="30">
         <v>-24179</v>
@@ -4137,7 +4146,7 @@
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B91" s="68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G91" s="76">
         <v>18356</v>
@@ -4209,7 +4218,7 @@
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B93" s="45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G93" s="76"/>
       <c r="H93" s="42"/>
@@ -4227,7 +4236,7 @@
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B95" s="59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -4249,22 +4258,22 @@
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B97" s="66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B98" s="41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B100" s="74" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -4286,22 +4295,22 @@
     </row>
     <row r="101" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B101" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B102" s="66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B103" s="67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B104" s="68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="2:19" x14ac:dyDescent="0.25">
@@ -4309,7 +4318,7 @@
     </row>
     <row r="106" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B106" s="75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -4331,32 +4340,32 @@
     </row>
     <row r="107" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B107" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B108" s="66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B109" s="66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B110" s="66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B111" s="68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B113" s="59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -4378,57 +4387,57 @@
     </row>
     <row r="114" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B114" s="65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B115" s="66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B116" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B117" s="67" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B118" s="68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="120" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B120" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="121" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B121" s="66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="122" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B122" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B123" s="69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B124" s="66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B126" s="59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -4450,7 +4459,7 @@
     </row>
     <row r="127" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B127" s="45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128" spans="2:19" x14ac:dyDescent="0.25">
@@ -4458,22 +4467,22 @@
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" s="71" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" s="66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" s="66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" s="72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
@@ -4481,37 +4490,37 @@
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" s="71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" s="66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" s="66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" s="68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" s="70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" s="66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" s="66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4524,9 +4533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5A53F4-E670-41A9-B096-B6E375EAE8AA}">
   <dimension ref="A2:S77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4545,8 +4552,9 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
+      <c r="D4" s="77" t="str">
+        <f>'Historicals and 3SM'!D4</f>
+        <v>MSFT</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
@@ -4586,7 +4594,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="78" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -4720,11 +4728,11 @@
       <c r="Q16" s="11"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="78" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5017,7 +5025,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="78" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -5384,7 +5392,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="78" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="7" t="s">
